--- a/doc/backend/api/versions/TRN-MiniBlog_API-Specification_Ver1.0_NguyenDongThuc.xlsx
+++ b/doc/backend/api/versions/TRN-MiniBlog_API-Specification_Ver1.0_NguyenDongThuc.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7905" tabRatio="957" firstSheet="15" activeTab="22"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7905" tabRatio="957" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="23" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2993" uniqueCount="496">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2995" uniqueCount="498">
   <si>
     <t>Description</t>
   </si>
@@ -1621,6 +1621,12 @@
   <si>
     <t>/rest/comments/users/{user_id}</t>
   </si>
+  <si>
+    <t>Username is already used!</t>
+  </si>
+  <si>
+    <t>2011</t>
+  </si>
 </sst>
 </file>
 
@@ -2527,7 +2533,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="332">
+  <cellXfs count="333">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -3116,44 +3122,66 @@
     <xf numFmtId="0" fontId="17" fillId="2" borderId="1" xfId="280" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="10" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="39" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="16" fillId="4" borderId="10" xfId="242" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="11" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="16" fillId="4" borderId="11" xfId="242" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="9" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="16" fillId="4" borderId="9" xfId="242" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="17" fillId="6" borderId="10" xfId="243" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="10" xfId="242" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="11" xfId="242" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="10" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="11" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="9" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="10" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="11" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="9" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="10" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="17" fillId="6" borderId="9" xfId="243" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="11" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="10" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="11" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="9" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="10" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="11" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="9" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="12" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="9" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="17" fillId="6" borderId="10" xfId="243" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="4" borderId="10" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
@@ -3185,16 +3213,6 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="6" borderId="10" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="11" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="9" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="10" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
@@ -3222,21 +3240,6 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="14" fontId="16" fillId="4" borderId="10" xfId="242" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="16" fillId="4" borderId="11" xfId="242" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="16" fillId="4" borderId="9" xfId="242" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="10" xfId="242" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="11" xfId="242" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="6" borderId="10" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
@@ -3249,22 +3252,64 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="10" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="14" fontId="17" fillId="6" borderId="10" xfId="243" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="11" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="11" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="9" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="9" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="10" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="17" fillId="6" borderId="10" xfId="243" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="11" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="17" fillId="6" borderId="9" xfId="243" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="9" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="10" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="10" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="11" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="9" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="10" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="11" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="9" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="12" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="39" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3273,38 +3318,17 @@
     <xf numFmtId="0" fontId="39" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="32" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="39" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3339,6 +3363,9 @@
     <xf numFmtId="0" fontId="27" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="27" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -3349,9 +3376,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3375,12 +3399,12 @@
     <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="24" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3389,7 +3413,7 @@
     <xf numFmtId="0" fontId="29" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3405,21 +3429,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="411">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -16674,303 +16683,303 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30" s="43" customFormat="1" ht="15.75">
-      <c r="A1" s="263" t="s">
+      <c r="A1" s="238" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="264"/>
-      <c r="C1" s="265"/>
-      <c r="D1" s="266" t="s">
+      <c r="B1" s="239"/>
+      <c r="C1" s="240"/>
+      <c r="D1" s="241" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="267"/>
-      <c r="F1" s="267"/>
-      <c r="G1" s="267"/>
-      <c r="H1" s="267"/>
-      <c r="I1" s="267"/>
-      <c r="J1" s="267"/>
-      <c r="K1" s="271" t="s">
+      <c r="E1" s="242"/>
+      <c r="F1" s="242"/>
+      <c r="G1" s="242"/>
+      <c r="H1" s="242"/>
+      <c r="I1" s="242"/>
+      <c r="J1" s="242"/>
+      <c r="K1" s="243" t="s">
         <v>20</v>
       </c>
-      <c r="L1" s="272"/>
-      <c r="M1" s="273"/>
-      <c r="N1" s="253" t="s">
+      <c r="L1" s="244"/>
+      <c r="M1" s="245"/>
+      <c r="N1" s="246" t="s">
         <v>144</v>
       </c>
-      <c r="O1" s="254"/>
-      <c r="P1" s="254"/>
-      <c r="Q1" s="254"/>
-      <c r="R1" s="254"/>
-      <c r="S1" s="254"/>
-      <c r="T1" s="254"/>
-      <c r="U1" s="255"/>
-      <c r="V1" s="274" t="s">
+      <c r="O1" s="247"/>
+      <c r="P1" s="247"/>
+      <c r="Q1" s="247"/>
+      <c r="R1" s="247"/>
+      <c r="S1" s="247"/>
+      <c r="T1" s="247"/>
+      <c r="U1" s="248"/>
+      <c r="V1" s="249" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="275"/>
-      <c r="X1" s="275"/>
-      <c r="Y1" s="275"/>
-      <c r="Z1" s="275"/>
-      <c r="AA1" s="275"/>
-      <c r="AB1" s="275"/>
-      <c r="AC1" s="275"/>
-      <c r="AD1" s="276"/>
+      <c r="W1" s="250"/>
+      <c r="X1" s="250"/>
+      <c r="Y1" s="250"/>
+      <c r="Z1" s="250"/>
+      <c r="AA1" s="250"/>
+      <c r="AB1" s="250"/>
+      <c r="AC1" s="250"/>
+      <c r="AD1" s="251"/>
     </row>
     <row r="2" spans="1:30" s="43" customFormat="1" ht="15.75">
-      <c r="A2" s="263" t="s">
+      <c r="A2" s="238" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="264"/>
-      <c r="C2" s="265"/>
-      <c r="D2" s="266" t="s">
+      <c r="B2" s="239"/>
+      <c r="C2" s="240"/>
+      <c r="D2" s="241" t="s">
         <v>209</v>
       </c>
-      <c r="E2" s="267"/>
-      <c r="F2" s="267"/>
-      <c r="G2" s="267"/>
-      <c r="H2" s="267"/>
-      <c r="I2" s="267"/>
-      <c r="J2" s="267"/>
-      <c r="K2" s="248" t="s">
+      <c r="E2" s="242"/>
+      <c r="F2" s="242"/>
+      <c r="G2" s="242"/>
+      <c r="H2" s="242"/>
+      <c r="I2" s="242"/>
+      <c r="J2" s="242"/>
+      <c r="K2" s="255" t="s">
         <v>23</v>
       </c>
-      <c r="L2" s="249"/>
-      <c r="M2" s="250"/>
-      <c r="N2" s="268" t="s">
+      <c r="L2" s="256"/>
+      <c r="M2" s="257"/>
+      <c r="N2" s="267" t="s">
         <v>208</v>
       </c>
-      <c r="O2" s="269"/>
-      <c r="P2" s="269"/>
-      <c r="Q2" s="269"/>
-      <c r="R2" s="269"/>
-      <c r="S2" s="269"/>
-      <c r="T2" s="269"/>
-      <c r="U2" s="270"/>
-      <c r="V2" s="245" t="s">
+      <c r="O2" s="268"/>
+      <c r="P2" s="268"/>
+      <c r="Q2" s="268"/>
+      <c r="R2" s="268"/>
+      <c r="S2" s="268"/>
+      <c r="T2" s="268"/>
+      <c r="U2" s="269"/>
+      <c r="V2" s="252" t="s">
         <v>148</v>
       </c>
-      <c r="W2" s="246"/>
-      <c r="X2" s="247"/>
-      <c r="Y2" s="245" t="s">
+      <c r="W2" s="253"/>
+      <c r="X2" s="254"/>
+      <c r="Y2" s="252" t="s">
         <v>24</v>
       </c>
-      <c r="Z2" s="246"/>
-      <c r="AA2" s="247"/>
-      <c r="AB2" s="245" t="s">
+      <c r="Z2" s="253"/>
+      <c r="AA2" s="254"/>
+      <c r="AB2" s="252" t="s">
         <v>25</v>
       </c>
-      <c r="AC2" s="246"/>
-      <c r="AD2" s="247"/>
+      <c r="AC2" s="253"/>
+      <c r="AD2" s="254"/>
     </row>
     <row r="3" spans="1:30" s="43" customFormat="1" ht="15.75">
-      <c r="A3" s="248" t="s">
+      <c r="A3" s="255" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="249"/>
-      <c r="C3" s="250"/>
-      <c r="D3" s="251" t="s">
+      <c r="B3" s="256"/>
+      <c r="C3" s="257"/>
+      <c r="D3" s="258" t="s">
         <v>146</v>
       </c>
-      <c r="E3" s="252"/>
-      <c r="F3" s="252"/>
-      <c r="G3" s="252"/>
-      <c r="H3" s="252"/>
-      <c r="I3" s="252"/>
-      <c r="J3" s="252"/>
-      <c r="K3" s="248" t="s">
+      <c r="E3" s="259"/>
+      <c r="F3" s="259"/>
+      <c r="G3" s="259"/>
+      <c r="H3" s="259"/>
+      <c r="I3" s="259"/>
+      <c r="J3" s="259"/>
+      <c r="K3" s="255" t="s">
         <v>26</v>
       </c>
-      <c r="L3" s="249"/>
-      <c r="M3" s="250"/>
-      <c r="N3" s="253" t="s">
+      <c r="L3" s="256"/>
+      <c r="M3" s="257"/>
+      <c r="N3" s="246" t="s">
         <v>147</v>
       </c>
-      <c r="O3" s="254"/>
-      <c r="P3" s="254"/>
-      <c r="Q3" s="254"/>
-      <c r="R3" s="254"/>
-      <c r="S3" s="254"/>
-      <c r="T3" s="254"/>
-      <c r="U3" s="255"/>
-      <c r="V3" s="256" t="s">
+      <c r="O3" s="247"/>
+      <c r="P3" s="247"/>
+      <c r="Q3" s="247"/>
+      <c r="R3" s="247"/>
+      <c r="S3" s="247"/>
+      <c r="T3" s="247"/>
+      <c r="U3" s="248"/>
+      <c r="V3" s="260" t="s">
         <v>404</v>
       </c>
-      <c r="W3" s="257"/>
-      <c r="X3" s="258"/>
-      <c r="Y3" s="259">
+      <c r="W3" s="261"/>
+      <c r="X3" s="262"/>
+      <c r="Y3" s="263">
         <v>42033</v>
       </c>
-      <c r="Z3" s="260"/>
-      <c r="AA3" s="261"/>
-      <c r="AB3" s="262">
+      <c r="Z3" s="264"/>
+      <c r="AA3" s="265"/>
+      <c r="AB3" s="266">
         <v>42034</v>
       </c>
-      <c r="AC3" s="260"/>
-      <c r="AD3" s="261"/>
+      <c r="AC3" s="264"/>
+      <c r="AD3" s="265"/>
     </row>
     <row r="7" spans="1:30" ht="15.75" thickBot="1"/>
     <row r="8" spans="1:30" ht="16.5" thickBot="1">
-      <c r="B8" s="243" t="s">
+      <c r="B8" s="282" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="243"/>
-      <c r="D8" s="243"/>
-      <c r="E8" s="243"/>
-      <c r="F8" s="243" t="s">
+      <c r="C8" s="282"/>
+      <c r="D8" s="282"/>
+      <c r="E8" s="282"/>
+      <c r="F8" s="282" t="s">
         <v>28</v>
       </c>
-      <c r="G8" s="243"/>
-      <c r="H8" s="243" t="s">
+      <c r="G8" s="282"/>
+      <c r="H8" s="282" t="s">
         <v>16</v>
       </c>
-      <c r="I8" s="243"/>
-      <c r="J8" s="243"/>
-      <c r="K8" s="243" t="s">
+      <c r="I8" s="282"/>
+      <c r="J8" s="282"/>
+      <c r="K8" s="282" t="s">
         <v>0</v>
       </c>
-      <c r="L8" s="243"/>
-      <c r="M8" s="243"/>
-      <c r="N8" s="243"/>
-      <c r="O8" s="243"/>
-      <c r="P8" s="243"/>
-      <c r="Q8" s="243"/>
-      <c r="R8" s="243"/>
-      <c r="S8" s="243"/>
-      <c r="T8" s="243"/>
-      <c r="U8" s="243"/>
-      <c r="V8" s="243"/>
-      <c r="W8" s="243"/>
-      <c r="X8" s="243" t="s">
+      <c r="L8" s="282"/>
+      <c r="M8" s="282"/>
+      <c r="N8" s="282"/>
+      <c r="O8" s="282"/>
+      <c r="P8" s="282"/>
+      <c r="Q8" s="282"/>
+      <c r="R8" s="282"/>
+      <c r="S8" s="282"/>
+      <c r="T8" s="282"/>
+      <c r="U8" s="282"/>
+      <c r="V8" s="282"/>
+      <c r="W8" s="282"/>
+      <c r="X8" s="282" t="s">
         <v>29</v>
       </c>
-      <c r="Y8" s="243"/>
-      <c r="Z8" s="243"/>
-      <c r="AA8" s="243"/>
-      <c r="AB8" s="243"/>
-      <c r="AC8" s="243"/>
+      <c r="Y8" s="282"/>
+      <c r="Z8" s="282"/>
+      <c r="AA8" s="282"/>
+      <c r="AB8" s="282"/>
+      <c r="AC8" s="282"/>
     </row>
     <row r="9" spans="1:30">
-      <c r="B9" s="244">
+      <c r="B9" s="270">
         <v>42034</v>
       </c>
-      <c r="C9" s="233"/>
-      <c r="D9" s="233"/>
-      <c r="E9" s="234"/>
-      <c r="F9" s="235" t="s">
+      <c r="C9" s="271"/>
+      <c r="D9" s="271"/>
+      <c r="E9" s="272"/>
+      <c r="F9" s="273" t="s">
         <v>405</v>
       </c>
-      <c r="G9" s="236"/>
-      <c r="H9" s="232"/>
-      <c r="I9" s="233"/>
-      <c r="J9" s="234"/>
-      <c r="K9" s="237"/>
-      <c r="L9" s="238"/>
-      <c r="M9" s="238"/>
-      <c r="N9" s="238"/>
-      <c r="O9" s="238"/>
-      <c r="P9" s="238"/>
-      <c r="Q9" s="238"/>
-      <c r="R9" s="238"/>
-      <c r="S9" s="238"/>
-      <c r="T9" s="238"/>
-      <c r="U9" s="238"/>
-      <c r="V9" s="238"/>
-      <c r="W9" s="239"/>
-      <c r="X9" s="240"/>
-      <c r="Y9" s="241"/>
-      <c r="Z9" s="241"/>
-      <c r="AA9" s="241"/>
-      <c r="AB9" s="241"/>
-      <c r="AC9" s="242"/>
+      <c r="G9" s="274"/>
+      <c r="H9" s="275"/>
+      <c r="I9" s="271"/>
+      <c r="J9" s="272"/>
+      <c r="K9" s="276"/>
+      <c r="L9" s="277"/>
+      <c r="M9" s="277"/>
+      <c r="N9" s="277"/>
+      <c r="O9" s="277"/>
+      <c r="P9" s="277"/>
+      <c r="Q9" s="277"/>
+      <c r="R9" s="277"/>
+      <c r="S9" s="277"/>
+      <c r="T9" s="277"/>
+      <c r="U9" s="277"/>
+      <c r="V9" s="277"/>
+      <c r="W9" s="278"/>
+      <c r="X9" s="279"/>
+      <c r="Y9" s="280"/>
+      <c r="Z9" s="280"/>
+      <c r="AA9" s="280"/>
+      <c r="AB9" s="280"/>
+      <c r="AC9" s="281"/>
     </row>
     <row r="10" spans="1:30">
-      <c r="B10" s="232"/>
-      <c r="C10" s="233"/>
-      <c r="D10" s="233"/>
-      <c r="E10" s="234"/>
-      <c r="F10" s="235"/>
-      <c r="G10" s="236"/>
-      <c r="H10" s="232"/>
-      <c r="I10" s="233"/>
-      <c r="J10" s="234"/>
-      <c r="K10" s="237"/>
-      <c r="L10" s="238"/>
-      <c r="M10" s="238"/>
-      <c r="N10" s="238"/>
-      <c r="O10" s="238"/>
-      <c r="P10" s="238"/>
-      <c r="Q10" s="238"/>
-      <c r="R10" s="238"/>
-      <c r="S10" s="238"/>
-      <c r="T10" s="238"/>
-      <c r="U10" s="238"/>
-      <c r="V10" s="238"/>
-      <c r="W10" s="239"/>
-      <c r="X10" s="240"/>
-      <c r="Y10" s="241"/>
-      <c r="Z10" s="241"/>
-      <c r="AA10" s="241"/>
-      <c r="AB10" s="241"/>
-      <c r="AC10" s="242"/>
+      <c r="B10" s="275"/>
+      <c r="C10" s="271"/>
+      <c r="D10" s="271"/>
+      <c r="E10" s="272"/>
+      <c r="F10" s="273"/>
+      <c r="G10" s="274"/>
+      <c r="H10" s="275"/>
+      <c r="I10" s="271"/>
+      <c r="J10" s="272"/>
+      <c r="K10" s="276"/>
+      <c r="L10" s="277"/>
+      <c r="M10" s="277"/>
+      <c r="N10" s="277"/>
+      <c r="O10" s="277"/>
+      <c r="P10" s="277"/>
+      <c r="Q10" s="277"/>
+      <c r="R10" s="277"/>
+      <c r="S10" s="277"/>
+      <c r="T10" s="277"/>
+      <c r="U10" s="277"/>
+      <c r="V10" s="277"/>
+      <c r="W10" s="278"/>
+      <c r="X10" s="279"/>
+      <c r="Y10" s="280"/>
+      <c r="Z10" s="280"/>
+      <c r="AA10" s="280"/>
+      <c r="AB10" s="280"/>
+      <c r="AC10" s="281"/>
     </row>
     <row r="11" spans="1:30">
-      <c r="B11" s="232"/>
-      <c r="C11" s="233"/>
-      <c r="D11" s="233"/>
-      <c r="E11" s="234"/>
-      <c r="F11" s="235"/>
-      <c r="G11" s="236"/>
-      <c r="H11" s="232"/>
-      <c r="I11" s="233"/>
-      <c r="J11" s="234"/>
-      <c r="K11" s="237"/>
-      <c r="L11" s="238"/>
-      <c r="M11" s="238"/>
-      <c r="N11" s="238"/>
-      <c r="O11" s="238"/>
-      <c r="P11" s="238"/>
-      <c r="Q11" s="238"/>
-      <c r="R11" s="238"/>
-      <c r="S11" s="238"/>
-      <c r="T11" s="238"/>
-      <c r="U11" s="238"/>
-      <c r="V11" s="238"/>
-      <c r="W11" s="239"/>
-      <c r="X11" s="240"/>
-      <c r="Y11" s="241"/>
-      <c r="Z11" s="241"/>
-      <c r="AA11" s="241"/>
-      <c r="AB11" s="241"/>
-      <c r="AC11" s="242"/>
+      <c r="B11" s="275"/>
+      <c r="C11" s="271"/>
+      <c r="D11" s="271"/>
+      <c r="E11" s="272"/>
+      <c r="F11" s="273"/>
+      <c r="G11" s="274"/>
+      <c r="H11" s="275"/>
+      <c r="I11" s="271"/>
+      <c r="J11" s="272"/>
+      <c r="K11" s="276"/>
+      <c r="L11" s="277"/>
+      <c r="M11" s="277"/>
+      <c r="N11" s="277"/>
+      <c r="O11" s="277"/>
+      <c r="P11" s="277"/>
+      <c r="Q11" s="277"/>
+      <c r="R11" s="277"/>
+      <c r="S11" s="277"/>
+      <c r="T11" s="277"/>
+      <c r="U11" s="277"/>
+      <c r="V11" s="277"/>
+      <c r="W11" s="278"/>
+      <c r="X11" s="279"/>
+      <c r="Y11" s="280"/>
+      <c r="Z11" s="280"/>
+      <c r="AA11" s="280"/>
+      <c r="AB11" s="280"/>
+      <c r="AC11" s="281"/>
     </row>
     <row r="12" spans="1:30">
-      <c r="B12" s="232"/>
-      <c r="C12" s="233"/>
-      <c r="D12" s="233"/>
-      <c r="E12" s="234"/>
-      <c r="F12" s="235"/>
-      <c r="G12" s="236"/>
-      <c r="H12" s="232"/>
-      <c r="I12" s="233"/>
-      <c r="J12" s="234"/>
-      <c r="K12" s="237"/>
-      <c r="L12" s="238"/>
-      <c r="M12" s="238"/>
-      <c r="N12" s="238"/>
-      <c r="O12" s="238"/>
-      <c r="P12" s="238"/>
-      <c r="Q12" s="238"/>
-      <c r="R12" s="238"/>
-      <c r="S12" s="238"/>
-      <c r="T12" s="238"/>
-      <c r="U12" s="238"/>
-      <c r="V12" s="238"/>
-      <c r="W12" s="239"/>
-      <c r="X12" s="240"/>
-      <c r="Y12" s="241"/>
-      <c r="Z12" s="241"/>
-      <c r="AA12" s="241"/>
-      <c r="AB12" s="241"/>
-      <c r="AC12" s="242"/>
+      <c r="B12" s="275"/>
+      <c r="C12" s="271"/>
+      <c r="D12" s="271"/>
+      <c r="E12" s="272"/>
+      <c r="F12" s="273"/>
+      <c r="G12" s="274"/>
+      <c r="H12" s="275"/>
+      <c r="I12" s="271"/>
+      <c r="J12" s="272"/>
+      <c r="K12" s="276"/>
+      <c r="L12" s="277"/>
+      <c r="M12" s="277"/>
+      <c r="N12" s="277"/>
+      <c r="O12" s="277"/>
+      <c r="P12" s="277"/>
+      <c r="Q12" s="277"/>
+      <c r="R12" s="277"/>
+      <c r="S12" s="277"/>
+      <c r="T12" s="277"/>
+      <c r="U12" s="277"/>
+      <c r="V12" s="277"/>
+      <c r="W12" s="278"/>
+      <c r="X12" s="279"/>
+      <c r="Y12" s="280"/>
+      <c r="Z12" s="280"/>
+      <c r="AA12" s="280"/>
+      <c r="AB12" s="280"/>
+      <c r="AC12" s="281"/>
     </row>
     <row r="13" spans="1:30" ht="18" customHeight="1"/>
     <row r="14" spans="1:30" ht="18" customHeight="1"/>
@@ -17000,11 +17009,31 @@
     <row r="38" ht="18" customHeight="1"/>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:J1"/>
-    <mergeCell ref="K1:M1"/>
-    <mergeCell ref="N1:U1"/>
-    <mergeCell ref="V1:AD1"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="H12:J12"/>
+    <mergeCell ref="K12:W12"/>
+    <mergeCell ref="X12:AC12"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="H10:J10"/>
+    <mergeCell ref="K10:W10"/>
+    <mergeCell ref="X10:AC10"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="H11:J11"/>
+    <mergeCell ref="K11:W11"/>
+    <mergeCell ref="X11:AC11"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="H8:J8"/>
+    <mergeCell ref="K8:W8"/>
+    <mergeCell ref="X8:AC8"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="H9:J9"/>
+    <mergeCell ref="K9:W9"/>
+    <mergeCell ref="X9:AC9"/>
     <mergeCell ref="Y2:AA2"/>
     <mergeCell ref="AB2:AD2"/>
     <mergeCell ref="A3:C3"/>
@@ -17019,31 +17048,11 @@
     <mergeCell ref="K2:M2"/>
     <mergeCell ref="N2:U2"/>
     <mergeCell ref="V2:X2"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="H9:J9"/>
-    <mergeCell ref="K9:W9"/>
-    <mergeCell ref="X9:AC9"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="H8:J8"/>
-    <mergeCell ref="K8:W8"/>
-    <mergeCell ref="X8:AC8"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="H11:J11"/>
-    <mergeCell ref="K11:W11"/>
-    <mergeCell ref="X11:AC11"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="H10:J10"/>
-    <mergeCell ref="K10:W10"/>
-    <mergeCell ref="X10:AC10"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="H12:J12"/>
-    <mergeCell ref="K12:W12"/>
-    <mergeCell ref="X12:AC12"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:J1"/>
+    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="N1:U1"/>
+    <mergeCell ref="V1:AD1"/>
   </mergeCells>
   <phoneticPr fontId="14"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -17143,7 +17152,7 @@
       <c r="B4" s="66" t="s">
         <v>121</v>
       </c>
-      <c r="C4" s="300" t="s">
+      <c r="C4" s="306" t="s">
         <v>262</v>
       </c>
       <c r="D4" s="307"/>
@@ -17151,7 +17160,7 @@
       <c r="F4" s="307"/>
       <c r="G4" s="307"/>
       <c r="H4" s="307"/>
-      <c r="I4" s="301"/>
+      <c r="I4" s="308"/>
       <c r="J4" s="62"/>
       <c r="K4" s="62"/>
       <c r="L4" s="62"/>
@@ -17164,7 +17173,7 @@
       <c r="B5" s="66" t="s">
         <v>122</v>
       </c>
-      <c r="C5" s="300" t="s">
+      <c r="C5" s="306" t="s">
         <v>262</v>
       </c>
       <c r="D5" s="307"/>
@@ -17172,7 +17181,7 @@
       <c r="F5" s="307"/>
       <c r="G5" s="307"/>
       <c r="H5" s="307"/>
-      <c r="I5" s="301"/>
+      <c r="I5" s="308"/>
       <c r="J5" s="62"/>
       <c r="K5" s="62"/>
       <c r="L5" s="62"/>
@@ -17206,7 +17215,7 @@
       <c r="B7" s="66" t="s">
         <v>167</v>
       </c>
-      <c r="C7" s="300" t="s">
+      <c r="C7" s="306" t="s">
         <v>232</v>
       </c>
       <c r="D7" s="307"/>
@@ -17214,7 +17223,7 @@
       <c r="F7" s="307"/>
       <c r="G7" s="307"/>
       <c r="H7" s="307"/>
-      <c r="I7" s="301"/>
+      <c r="I7" s="308"/>
       <c r="J7" s="62"/>
       <c r="K7" s="62"/>
       <c r="L7" s="62"/>
@@ -17248,7 +17257,7 @@
       <c r="B9" s="66" t="s">
         <v>196</v>
       </c>
-      <c r="C9" s="300" t="s">
+      <c r="C9" s="306" t="s">
         <v>197</v>
       </c>
       <c r="D9" s="307"/>
@@ -17256,7 +17265,7 @@
       <c r="F9" s="307"/>
       <c r="G9" s="307"/>
       <c r="H9" s="307"/>
-      <c r="I9" s="301"/>
+      <c r="I9" s="308"/>
       <c r="J9" s="62"/>
       <c r="K9" s="62"/>
       <c r="L9" s="62"/>
@@ -17319,19 +17328,19 @@
     </row>
     <row r="13" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A13" s="62"/>
-      <c r="B13" s="302" t="s">
+      <c r="B13" s="309" t="s">
         <v>123</v>
       </c>
-      <c r="C13" s="303"/>
-      <c r="D13" s="303"/>
-      <c r="E13" s="303"/>
-      <c r="F13" s="303"/>
-      <c r="G13" s="303"/>
-      <c r="H13" s="303"/>
-      <c r="I13" s="303"/>
-      <c r="J13" s="303"/>
-      <c r="K13" s="303"/>
-      <c r="L13" s="304"/>
+      <c r="C13" s="310"/>
+      <c r="D13" s="310"/>
+      <c r="E13" s="310"/>
+      <c r="F13" s="310"/>
+      <c r="G13" s="310"/>
+      <c r="H13" s="310"/>
+      <c r="I13" s="310"/>
+      <c r="J13" s="310"/>
+      <c r="K13" s="310"/>
+      <c r="L13" s="311"/>
       <c r="M13" s="62"/>
       <c r="N13" s="62"/>
       <c r="O13" s="62"/>
@@ -17360,11 +17369,11 @@
       <c r="I14" s="151" t="s">
         <v>130</v>
       </c>
-      <c r="J14" s="309" t="s">
+      <c r="J14" s="315" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="309"/>
-      <c r="L14" s="309"/>
+      <c r="K14" s="315"/>
+      <c r="L14" s="315"/>
       <c r="M14" s="62"/>
       <c r="N14" s="62"/>
       <c r="O14" s="62"/>
@@ -17393,11 +17402,11 @@
       <c r="I15" s="171" t="s">
         <v>448</v>
       </c>
-      <c r="J15" s="305" t="s">
+      <c r="J15" s="312" t="s">
         <v>376</v>
       </c>
-      <c r="K15" s="306"/>
-      <c r="L15" s="306"/>
+      <c r="K15" s="313"/>
+      <c r="L15" s="313"/>
       <c r="M15" s="62"/>
       <c r="N15" s="62"/>
       <c r="O15" s="62"/>
@@ -17426,11 +17435,11 @@
       <c r="I16" s="171" t="s">
         <v>265</v>
       </c>
-      <c r="J16" s="305" t="s">
+      <c r="J16" s="312" t="s">
         <v>449</v>
       </c>
-      <c r="K16" s="306"/>
-      <c r="L16" s="306"/>
+      <c r="K16" s="313"/>
+      <c r="L16" s="313"/>
       <c r="M16" s="62"/>
       <c r="N16" s="62"/>
       <c r="O16" s="62"/>
@@ -17575,11 +17584,11 @@
     </row>
     <row r="25" spans="1:15" s="83" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A25" s="65"/>
-      <c r="B25" s="317" t="s">
+      <c r="B25" s="321" t="s">
         <v>285</v>
       </c>
-      <c r="C25" s="317"/>
-      <c r="D25" s="317"/>
+      <c r="C25" s="321"/>
+      <c r="D25" s="321"/>
       <c r="E25" s="81"/>
       <c r="F25" s="82"/>
       <c r="G25" s="81"/>
@@ -17594,12 +17603,12 @@
     </row>
     <row r="26" spans="1:15" s="85" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A26" s="84"/>
-      <c r="B26" s="311" t="s">
+      <c r="B26" s="317" t="s">
         <v>125</v>
       </c>
-      <c r="C26" s="312"/>
-      <c r="D26" s="312"/>
-      <c r="E26" s="313"/>
+      <c r="C26" s="318"/>
+      <c r="D26" s="318"/>
+      <c r="E26" s="319"/>
       <c r="F26" s="151" t="s">
         <v>124</v>
       </c>
@@ -17691,10 +17700,10 @@
       <c r="A29" s="62"/>
       <c r="B29" s="86"/>
       <c r="C29" s="91"/>
-      <c r="D29" s="300" t="s">
+      <c r="D29" s="306" t="s">
         <v>185</v>
       </c>
-      <c r="E29" s="301"/>
+      <c r="E29" s="308"/>
       <c r="F29" s="74" t="s">
         <v>140</v>
       </c>
@@ -17724,10 +17733,10 @@
       <c r="A30" s="62"/>
       <c r="B30" s="86"/>
       <c r="C30" s="93"/>
-      <c r="D30" s="300" t="s">
+      <c r="D30" s="306" t="s">
         <v>186</v>
       </c>
-      <c r="E30" s="301"/>
+      <c r="E30" s="308"/>
       <c r="F30" s="74" t="s">
         <v>187</v>
       </c>
@@ -17790,10 +17799,10 @@
       <c r="A32" s="62"/>
       <c r="B32" s="86"/>
       <c r="C32" s="96"/>
-      <c r="D32" s="315" t="s">
+      <c r="D32" s="322" t="s">
         <v>160</v>
       </c>
-      <c r="E32" s="316"/>
+      <c r="E32" s="323"/>
       <c r="F32" s="74" t="s">
         <v>161</v>
       </c>
@@ -17823,10 +17832,10 @@
       <c r="A33" s="62"/>
       <c r="B33" s="86"/>
       <c r="C33" s="91"/>
-      <c r="D33" s="300" t="s">
+      <c r="D33" s="306" t="s">
         <v>175</v>
       </c>
-      <c r="E33" s="301"/>
+      <c r="E33" s="308"/>
       <c r="F33" s="74" t="s">
         <v>170</v>
       </c>
@@ -18327,11 +18336,11 @@
     </row>
     <row r="57" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A57" s="62"/>
-      <c r="B57" s="317" t="s">
+      <c r="B57" s="321" t="s">
         <v>286</v>
       </c>
-      <c r="C57" s="317"/>
-      <c r="D57" s="317"/>
+      <c r="C57" s="321"/>
+      <c r="D57" s="321"/>
       <c r="E57" s="62"/>
       <c r="F57" s="62"/>
       <c r="G57" s="62"/>
@@ -18445,10 +18454,10 @@
       <c r="A61" s="62"/>
       <c r="B61" s="86"/>
       <c r="C61" s="96"/>
-      <c r="D61" s="308" t="s">
+      <c r="D61" s="314" t="s">
         <v>185</v>
       </c>
-      <c r="E61" s="301"/>
+      <c r="E61" s="308"/>
       <c r="F61" s="74" t="s">
         <v>140</v>
       </c>
@@ -18542,8 +18551,8 @@
       <c r="A64" s="62"/>
       <c r="B64" s="92"/>
       <c r="C64" s="93"/>
-      <c r="D64" s="300"/>
-      <c r="E64" s="301"/>
+      <c r="D64" s="306"/>
+      <c r="E64" s="308"/>
       <c r="F64" s="74"/>
       <c r="G64" s="76"/>
       <c r="H64" s="76"/>
@@ -18915,6 +18924,16 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="C5:I5"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="C9:I9"/>
+    <mergeCell ref="B13:L13"/>
     <mergeCell ref="D64:E64"/>
     <mergeCell ref="J15:L15"/>
     <mergeCell ref="J16:L16"/>
@@ -18922,16 +18941,6 @@
     <mergeCell ref="B26:E26"/>
     <mergeCell ref="B57:D57"/>
     <mergeCell ref="D61:E61"/>
-    <mergeCell ref="C4:I4"/>
-    <mergeCell ref="C5:I5"/>
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="C9:I9"/>
-    <mergeCell ref="B13:L13"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="D33:E33"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="I15" r:id="rId1" display="foo@mulodo.com"/>
@@ -19030,7 +19039,7 @@
       <c r="B4" s="66" t="s">
         <v>121</v>
       </c>
-      <c r="C4" s="300" t="s">
+      <c r="C4" s="306" t="s">
         <v>225</v>
       </c>
       <c r="D4" s="307"/>
@@ -19038,7 +19047,7 @@
       <c r="F4" s="307"/>
       <c r="G4" s="307"/>
       <c r="H4" s="307"/>
-      <c r="I4" s="301"/>
+      <c r="I4" s="308"/>
       <c r="J4" s="62"/>
       <c r="K4" s="62"/>
       <c r="L4" s="62"/>
@@ -19051,7 +19060,7 @@
       <c r="B5" s="66" t="s">
         <v>122</v>
       </c>
-      <c r="C5" s="300" t="s">
+      <c r="C5" s="306" t="s">
         <v>225</v>
       </c>
       <c r="D5" s="307"/>
@@ -19059,7 +19068,7 @@
       <c r="F5" s="307"/>
       <c r="G5" s="307"/>
       <c r="H5" s="307"/>
-      <c r="I5" s="301"/>
+      <c r="I5" s="308"/>
       <c r="J5" s="62"/>
       <c r="K5" s="62"/>
       <c r="L5" s="62"/>
@@ -19093,7 +19102,7 @@
       <c r="B7" s="66" t="s">
         <v>167</v>
       </c>
-      <c r="C7" s="300" t="s">
+      <c r="C7" s="306" t="s">
         <v>230</v>
       </c>
       <c r="D7" s="307"/>
@@ -19101,7 +19110,7 @@
       <c r="F7" s="307"/>
       <c r="G7" s="307"/>
       <c r="H7" s="307"/>
-      <c r="I7" s="301"/>
+      <c r="I7" s="308"/>
       <c r="J7" s="62"/>
       <c r="K7" s="62"/>
       <c r="L7" s="62"/>
@@ -19135,7 +19144,7 @@
       <c r="B9" s="66" t="s">
         <v>196</v>
       </c>
-      <c r="C9" s="300" t="s">
+      <c r="C9" s="306" t="s">
         <v>197</v>
       </c>
       <c r="D9" s="307"/>
@@ -19143,7 +19152,7 @@
       <c r="F9" s="307"/>
       <c r="G9" s="307"/>
       <c r="H9" s="307"/>
-      <c r="I9" s="301"/>
+      <c r="I9" s="308"/>
       <c r="J9" s="62"/>
       <c r="K9" s="62"/>
       <c r="L9" s="62"/>
@@ -19206,19 +19215,19 @@
     </row>
     <row r="13" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A13" s="62"/>
-      <c r="B13" s="302" t="s">
+      <c r="B13" s="309" t="s">
         <v>123</v>
       </c>
-      <c r="C13" s="303"/>
-      <c r="D13" s="303"/>
-      <c r="E13" s="303"/>
-      <c r="F13" s="303"/>
-      <c r="G13" s="303"/>
-      <c r="H13" s="303"/>
-      <c r="I13" s="303"/>
-      <c r="J13" s="303"/>
-      <c r="K13" s="303"/>
-      <c r="L13" s="304"/>
+      <c r="C13" s="310"/>
+      <c r="D13" s="310"/>
+      <c r="E13" s="310"/>
+      <c r="F13" s="310"/>
+      <c r="G13" s="310"/>
+      <c r="H13" s="310"/>
+      <c r="I13" s="310"/>
+      <c r="J13" s="310"/>
+      <c r="K13" s="310"/>
+      <c r="L13" s="311"/>
       <c r="M13" s="62"/>
       <c r="N13" s="62"/>
       <c r="O13" s="62"/>
@@ -19247,11 +19256,11 @@
       <c r="I14" s="151" t="s">
         <v>130</v>
       </c>
-      <c r="J14" s="309" t="s">
+      <c r="J14" s="315" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="309"/>
-      <c r="L14" s="309"/>
+      <c r="K14" s="315"/>
+      <c r="L14" s="315"/>
       <c r="M14" s="62"/>
       <c r="N14" s="62"/>
       <c r="O14" s="62"/>
@@ -19280,11 +19289,11 @@
       <c r="I15" s="227" t="s">
         <v>450</v>
       </c>
-      <c r="J15" s="305" t="s">
+      <c r="J15" s="312" t="s">
         <v>376</v>
       </c>
-      <c r="K15" s="306"/>
-      <c r="L15" s="306"/>
+      <c r="K15" s="313"/>
+      <c r="L15" s="313"/>
       <c r="M15" s="62"/>
       <c r="N15" s="62"/>
       <c r="O15" s="62"/>
@@ -19379,11 +19388,11 @@
       <c r="I18" s="228" t="s">
         <v>444</v>
       </c>
-      <c r="J18" s="321" t="s">
+      <c r="J18" s="324" t="s">
         <v>267</v>
       </c>
-      <c r="K18" s="319"/>
-      <c r="L18" s="320"/>
+      <c r="K18" s="325"/>
+      <c r="L18" s="326"/>
       <c r="M18" s="84"/>
       <c r="N18" s="84"/>
       <c r="O18" s="84"/>
@@ -19412,11 +19421,11 @@
       <c r="I19" s="228" t="s">
         <v>444</v>
       </c>
-      <c r="J19" s="318" t="s">
+      <c r="J19" s="327" t="s">
         <v>379</v>
       </c>
-      <c r="K19" s="319"/>
-      <c r="L19" s="320"/>
+      <c r="K19" s="325"/>
+      <c r="L19" s="326"/>
       <c r="M19" s="84"/>
       <c r="N19" s="84"/>
       <c r="O19" s="84"/>
@@ -19578,11 +19587,11 @@
     </row>
     <row r="29" spans="1:15" s="83" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A29" s="65"/>
-      <c r="B29" s="310" t="s">
+      <c r="B29" s="316" t="s">
         <v>290</v>
       </c>
-      <c r="C29" s="310"/>
-      <c r="D29" s="310"/>
+      <c r="C29" s="316"/>
+      <c r="D29" s="316"/>
       <c r="E29" s="81"/>
       <c r="F29" s="82"/>
       <c r="G29" s="81"/>
@@ -19694,10 +19703,10 @@
       <c r="A33" s="62"/>
       <c r="B33" s="86"/>
       <c r="C33" s="96"/>
-      <c r="D33" s="300" t="s">
+      <c r="D33" s="306" t="s">
         <v>185</v>
       </c>
-      <c r="E33" s="301"/>
+      <c r="E33" s="308"/>
       <c r="F33" s="74" t="s">
         <v>140</v>
       </c>
@@ -19727,10 +19736,10 @@
       <c r="A34" s="62"/>
       <c r="B34" s="86"/>
       <c r="C34" s="91"/>
-      <c r="D34" s="308" t="s">
+      <c r="D34" s="314" t="s">
         <v>186</v>
       </c>
-      <c r="E34" s="301"/>
+      <c r="E34" s="308"/>
       <c r="F34" s="120" t="s">
         <v>187</v>
       </c>
@@ -19793,8 +19802,8 @@
       <c r="A36" s="62"/>
       <c r="B36" s="92"/>
       <c r="C36" s="93"/>
-      <c r="D36" s="300"/>
-      <c r="E36" s="301"/>
+      <c r="D36" s="306"/>
+      <c r="E36" s="308"/>
       <c r="F36" s="74"/>
       <c r="G36" s="76"/>
       <c r="H36" s="76"/>
@@ -20014,11 +20023,11 @@
     </row>
     <row r="49" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A49" s="62"/>
-      <c r="B49" s="314" t="s">
+      <c r="B49" s="320" t="s">
         <v>291</v>
       </c>
-      <c r="C49" s="314"/>
-      <c r="D49" s="314"/>
+      <c r="C49" s="320"/>
+      <c r="D49" s="320"/>
       <c r="E49" s="62"/>
       <c r="F49" s="62"/>
       <c r="G49" s="62"/>
@@ -20132,10 +20141,10 @@
       <c r="A53" s="62"/>
       <c r="B53" s="86"/>
       <c r="C53" s="96"/>
-      <c r="D53" s="308" t="s">
+      <c r="D53" s="314" t="s">
         <v>185</v>
       </c>
-      <c r="E53" s="301"/>
+      <c r="E53" s="308"/>
       <c r="F53" s="74" t="s">
         <v>140</v>
       </c>
@@ -20229,8 +20238,8 @@
       <c r="A56" s="62"/>
       <c r="B56" s="92"/>
       <c r="C56" s="93"/>
-      <c r="D56" s="300"/>
-      <c r="E56" s="301"/>
+      <c r="D56" s="306"/>
+      <c r="E56" s="308"/>
       <c r="F56" s="74"/>
       <c r="G56" s="76"/>
       <c r="H56" s="76"/>
@@ -20603,13 +20612,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="D56:E56"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="J18:L18"/>
-    <mergeCell ref="B49:D49"/>
-    <mergeCell ref="D53:E53"/>
     <mergeCell ref="J14:L14"/>
     <mergeCell ref="J15:L15"/>
     <mergeCell ref="J19:L19"/>
@@ -20619,6 +20621,13 @@
     <mergeCell ref="C7:I7"/>
     <mergeCell ref="C9:I9"/>
     <mergeCell ref="B13:L13"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="D56:E56"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="B49:D49"/>
+    <mergeCell ref="D53:E53"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="I15" r:id="rId1" display="foo@mulodo.com"/>
@@ -20716,7 +20725,7 @@
       <c r="B4" s="66" t="s">
         <v>121</v>
       </c>
-      <c r="C4" s="308" t="s">
+      <c r="C4" s="314" t="s">
         <v>224</v>
       </c>
       <c r="D4" s="307"/>
@@ -20724,7 +20733,7 @@
       <c r="F4" s="307"/>
       <c r="G4" s="307"/>
       <c r="H4" s="307"/>
-      <c r="I4" s="301"/>
+      <c r="I4" s="308"/>
       <c r="J4" s="62"/>
       <c r="K4" s="62"/>
       <c r="L4" s="62"/>
@@ -20737,7 +20746,7 @@
       <c r="B5" s="66" t="s">
         <v>122</v>
       </c>
-      <c r="C5" s="308" t="s">
+      <c r="C5" s="314" t="s">
         <v>484</v>
       </c>
       <c r="D5" s="307"/>
@@ -20745,7 +20754,7 @@
       <c r="F5" s="307"/>
       <c r="G5" s="307"/>
       <c r="H5" s="307"/>
-      <c r="I5" s="301"/>
+      <c r="I5" s="308"/>
       <c r="J5" s="62"/>
       <c r="K5" s="62"/>
       <c r="L5" s="62"/>
@@ -20779,7 +20788,7 @@
       <c r="B7" s="66" t="s">
         <v>167</v>
       </c>
-      <c r="C7" s="300" t="s">
+      <c r="C7" s="306" t="s">
         <v>232</v>
       </c>
       <c r="D7" s="307"/>
@@ -20787,7 +20796,7 @@
       <c r="F7" s="307"/>
       <c r="G7" s="307"/>
       <c r="H7" s="307"/>
-      <c r="I7" s="301"/>
+      <c r="I7" s="308"/>
       <c r="J7" s="62"/>
       <c r="K7" s="62"/>
       <c r="L7" s="62"/>
@@ -20821,7 +20830,7 @@
       <c r="B9" s="66" t="s">
         <v>196</v>
       </c>
-      <c r="C9" s="300" t="s">
+      <c r="C9" s="306" t="s">
         <v>197</v>
       </c>
       <c r="D9" s="307"/>
@@ -20829,7 +20838,7 @@
       <c r="F9" s="307"/>
       <c r="G9" s="307"/>
       <c r="H9" s="307"/>
-      <c r="I9" s="301"/>
+      <c r="I9" s="308"/>
       <c r="J9" s="62"/>
       <c r="K9" s="62"/>
       <c r="L9" s="62"/>
@@ -20892,19 +20901,19 @@
     </row>
     <row r="13" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A13" s="62"/>
-      <c r="B13" s="302" t="s">
+      <c r="B13" s="309" t="s">
         <v>123</v>
       </c>
-      <c r="C13" s="303"/>
-      <c r="D13" s="303"/>
-      <c r="E13" s="303"/>
-      <c r="F13" s="303"/>
-      <c r="G13" s="303"/>
-      <c r="H13" s="303"/>
-      <c r="I13" s="303"/>
-      <c r="J13" s="303"/>
-      <c r="K13" s="303"/>
-      <c r="L13" s="304"/>
+      <c r="C13" s="310"/>
+      <c r="D13" s="310"/>
+      <c r="E13" s="310"/>
+      <c r="F13" s="310"/>
+      <c r="G13" s="310"/>
+      <c r="H13" s="310"/>
+      <c r="I13" s="310"/>
+      <c r="J13" s="310"/>
+      <c r="K13" s="310"/>
+      <c r="L13" s="311"/>
       <c r="M13" s="62"/>
       <c r="N13" s="62"/>
       <c r="O13" s="62"/>
@@ -20933,11 +20942,11 @@
       <c r="I14" s="151" t="s">
         <v>130</v>
       </c>
-      <c r="J14" s="309" t="s">
+      <c r="J14" s="315" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="309"/>
-      <c r="L14" s="309"/>
+      <c r="K14" s="315"/>
+      <c r="L14" s="315"/>
       <c r="M14" s="62"/>
       <c r="N14" s="62"/>
       <c r="O14" s="62"/>
@@ -20966,11 +20975,11 @@
       <c r="I15" s="171" t="s">
         <v>453</v>
       </c>
-      <c r="J15" s="305" t="s">
+      <c r="J15" s="312" t="s">
         <v>376</v>
       </c>
-      <c r="K15" s="306"/>
-      <c r="L15" s="306"/>
+      <c r="K15" s="313"/>
+      <c r="L15" s="313"/>
       <c r="M15" s="62"/>
       <c r="N15" s="62"/>
       <c r="O15" s="62"/>
@@ -20999,11 +21008,11 @@
       <c r="I16" s="128" t="s">
         <v>163</v>
       </c>
-      <c r="J16" s="305" t="s">
+      <c r="J16" s="312" t="s">
         <v>454</v>
       </c>
-      <c r="K16" s="306"/>
-      <c r="L16" s="306"/>
+      <c r="K16" s="313"/>
+      <c r="L16" s="313"/>
       <c r="M16" s="62"/>
       <c r="N16" s="62"/>
       <c r="O16" s="62"/>
@@ -21165,11 +21174,11 @@
     </row>
     <row r="26" spans="1:15" s="83" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A26" s="65"/>
-      <c r="B26" s="310" t="s">
+      <c r="B26" s="316" t="s">
         <v>295</v>
       </c>
-      <c r="C26" s="310"/>
-      <c r="D26" s="310"/>
+      <c r="C26" s="316"/>
+      <c r="D26" s="316"/>
       <c r="E26" s="81"/>
       <c r="F26" s="82"/>
       <c r="G26" s="81"/>
@@ -21281,10 +21290,10 @@
       <c r="A30" s="62"/>
       <c r="B30" s="86"/>
       <c r="C30" s="96"/>
-      <c r="D30" s="300" t="s">
+      <c r="D30" s="306" t="s">
         <v>185</v>
       </c>
-      <c r="E30" s="301"/>
+      <c r="E30" s="308"/>
       <c r="F30" s="74" t="s">
         <v>140</v>
       </c>
@@ -21314,10 +21323,10 @@
       <c r="A31" s="62"/>
       <c r="B31" s="86"/>
       <c r="C31" s="91"/>
-      <c r="D31" s="308" t="s">
+      <c r="D31" s="314" t="s">
         <v>186</v>
       </c>
-      <c r="E31" s="301"/>
+      <c r="E31" s="308"/>
       <c r="F31" s="120" t="s">
         <v>187</v>
       </c>
@@ -21413,10 +21422,10 @@
       <c r="A34" s="62"/>
       <c r="B34" s="92"/>
       <c r="C34" s="93"/>
-      <c r="D34" s="308" t="s">
+      <c r="D34" s="314" t="s">
         <v>160</v>
       </c>
-      <c r="E34" s="301"/>
+      <c r="E34" s="308"/>
       <c r="F34" s="120" t="s">
         <v>161</v>
       </c>
@@ -21752,11 +21761,11 @@
     </row>
     <row r="53" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A53" s="62"/>
-      <c r="B53" s="314" t="s">
+      <c r="B53" s="320" t="s">
         <v>296</v>
       </c>
-      <c r="C53" s="314"/>
-      <c r="D53" s="314"/>
+      <c r="C53" s="320"/>
+      <c r="D53" s="320"/>
       <c r="E53" s="62"/>
       <c r="F53" s="62"/>
       <c r="G53" s="62"/>
@@ -21870,10 +21879,10 @@
       <c r="A57" s="62"/>
       <c r="B57" s="86"/>
       <c r="C57" s="96"/>
-      <c r="D57" s="308" t="s">
+      <c r="D57" s="314" t="s">
         <v>185</v>
       </c>
-      <c r="E57" s="301"/>
+      <c r="E57" s="308"/>
       <c r="F57" s="74" t="s">
         <v>140</v>
       </c>
@@ -21967,8 +21976,8 @@
       <c r="A60" s="62"/>
       <c r="B60" s="92"/>
       <c r="C60" s="93"/>
-      <c r="D60" s="300"/>
-      <c r="E60" s="301"/>
+      <c r="D60" s="306"/>
+      <c r="E60" s="308"/>
       <c r="F60" s="74"/>
       <c r="G60" s="76"/>
       <c r="H60" s="76"/>
@@ -22453,7 +22462,7 @@
       <c r="B4" s="66" t="s">
         <v>121</v>
       </c>
-      <c r="C4" s="300" t="s">
+      <c r="C4" s="306" t="s">
         <v>298</v>
       </c>
       <c r="D4" s="307"/>
@@ -22461,7 +22470,7 @@
       <c r="F4" s="307"/>
       <c r="G4" s="307"/>
       <c r="H4" s="307"/>
-      <c r="I4" s="301"/>
+      <c r="I4" s="308"/>
       <c r="J4" s="62"/>
       <c r="K4" s="62"/>
       <c r="L4" s="62"/>
@@ -22474,7 +22483,7 @@
       <c r="B5" s="66" t="s">
         <v>122</v>
       </c>
-      <c r="C5" s="300" t="s">
+      <c r="C5" s="306" t="s">
         <v>298</v>
       </c>
       <c r="D5" s="307"/>
@@ -22482,7 +22491,7 @@
       <c r="F5" s="307"/>
       <c r="G5" s="307"/>
       <c r="H5" s="307"/>
-      <c r="I5" s="301"/>
+      <c r="I5" s="308"/>
       <c r="J5" s="62"/>
       <c r="K5" s="62"/>
       <c r="L5" s="62"/>
@@ -22516,7 +22525,7 @@
       <c r="B7" s="66" t="s">
         <v>167</v>
       </c>
-      <c r="C7" s="300" t="s">
+      <c r="C7" s="306" t="s">
         <v>154</v>
       </c>
       <c r="D7" s="307"/>
@@ -22524,7 +22533,7 @@
       <c r="F7" s="307"/>
       <c r="G7" s="307"/>
       <c r="H7" s="307"/>
-      <c r="I7" s="301"/>
+      <c r="I7" s="308"/>
       <c r="J7" s="62"/>
       <c r="K7" s="62"/>
       <c r="L7" s="62"/>
@@ -22558,7 +22567,7 @@
       <c r="B9" s="66" t="s">
         <v>196</v>
       </c>
-      <c r="C9" s="300" t="s">
+      <c r="C9" s="306" t="s">
         <v>197</v>
       </c>
       <c r="D9" s="307"/>
@@ -22566,7 +22575,7 @@
       <c r="F9" s="307"/>
       <c r="G9" s="307"/>
       <c r="H9" s="307"/>
-      <c r="I9" s="301"/>
+      <c r="I9" s="308"/>
       <c r="J9" s="62"/>
       <c r="K9" s="62"/>
       <c r="L9" s="62"/>
@@ -22629,19 +22638,19 @@
     </row>
     <row r="13" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A13" s="62"/>
-      <c r="B13" s="302" t="s">
+      <c r="B13" s="309" t="s">
         <v>123</v>
       </c>
-      <c r="C13" s="303"/>
-      <c r="D13" s="303"/>
-      <c r="E13" s="303"/>
-      <c r="F13" s="303"/>
-      <c r="G13" s="303"/>
-      <c r="H13" s="303"/>
-      <c r="I13" s="303"/>
-      <c r="J13" s="303"/>
-      <c r="K13" s="303"/>
-      <c r="L13" s="304"/>
+      <c r="C13" s="310"/>
+      <c r="D13" s="310"/>
+      <c r="E13" s="310"/>
+      <c r="F13" s="310"/>
+      <c r="G13" s="310"/>
+      <c r="H13" s="310"/>
+      <c r="I13" s="310"/>
+      <c r="J13" s="310"/>
+      <c r="K13" s="310"/>
+      <c r="L13" s="311"/>
       <c r="M13" s="62"/>
       <c r="N13" s="62"/>
       <c r="O13" s="62"/>
@@ -22670,11 +22679,11 @@
       <c r="I14" s="151" t="s">
         <v>130</v>
       </c>
-      <c r="J14" s="309" t="s">
+      <c r="J14" s="315" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="309"/>
-      <c r="L14" s="309"/>
+      <c r="K14" s="315"/>
+      <c r="L14" s="315"/>
       <c r="M14" s="62"/>
       <c r="N14" s="62"/>
       <c r="O14" s="62"/>
@@ -22703,11 +22712,11 @@
       <c r="I15" s="227" t="s">
         <v>456</v>
       </c>
-      <c r="J15" s="305" t="s">
+      <c r="J15" s="312" t="s">
         <v>376</v>
       </c>
-      <c r="K15" s="322"/>
-      <c r="L15" s="306"/>
+      <c r="K15" s="328"/>
+      <c r="L15" s="313"/>
       <c r="M15" s="62"/>
       <c r="N15" s="62"/>
       <c r="O15" s="62"/>
@@ -22769,11 +22778,11 @@
       <c r="I17" s="229" t="s">
         <v>303</v>
       </c>
-      <c r="J17" s="306" t="s">
+      <c r="J17" s="313" t="s">
         <v>305</v>
       </c>
-      <c r="K17" s="323"/>
-      <c r="L17" s="306"/>
+      <c r="K17" s="329"/>
+      <c r="L17" s="313"/>
       <c r="M17" s="62"/>
       <c r="N17" s="62"/>
       <c r="O17" s="62"/>
@@ -22802,11 +22811,11 @@
       <c r="I18" s="227" t="s">
         <v>304</v>
       </c>
-      <c r="J18" s="305" t="s">
+      <c r="J18" s="312" t="s">
         <v>332</v>
       </c>
-      <c r="K18" s="306"/>
-      <c r="L18" s="306"/>
+      <c r="K18" s="313"/>
+      <c r="L18" s="313"/>
       <c r="M18" s="62"/>
       <c r="N18" s="62"/>
       <c r="O18" s="62"/>
@@ -22835,11 +22844,11 @@
       <c r="I19" s="230" t="s">
         <v>430</v>
       </c>
-      <c r="J19" s="308" t="s">
+      <c r="J19" s="314" t="s">
         <v>306</v>
       </c>
       <c r="K19" s="307"/>
-      <c r="L19" s="301"/>
+      <c r="L19" s="308"/>
       <c r="M19" s="62"/>
       <c r="N19" s="62"/>
       <c r="O19" s="62"/>
@@ -23001,11 +23010,11 @@
     </row>
     <row r="29" spans="1:15" s="83" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A29" s="65"/>
-      <c r="B29" s="310" t="s">
+      <c r="B29" s="316" t="s">
         <v>309</v>
       </c>
-      <c r="C29" s="310"/>
-      <c r="D29" s="310"/>
+      <c r="C29" s="316"/>
+      <c r="D29" s="316"/>
       <c r="E29" s="81"/>
       <c r="F29" s="82"/>
       <c r="G29" s="81"/>
@@ -23117,10 +23126,10 @@
       <c r="A33" s="62"/>
       <c r="B33" s="86"/>
       <c r="C33" s="96"/>
-      <c r="D33" s="300" t="s">
+      <c r="D33" s="306" t="s">
         <v>185</v>
       </c>
-      <c r="E33" s="301"/>
+      <c r="E33" s="308"/>
       <c r="F33" s="74" t="s">
         <v>140</v>
       </c>
@@ -23150,10 +23159,10 @@
       <c r="A34" s="62"/>
       <c r="B34" s="86"/>
       <c r="C34" s="91"/>
-      <c r="D34" s="308" t="s">
+      <c r="D34" s="314" t="s">
         <v>186</v>
       </c>
-      <c r="E34" s="301"/>
+      <c r="E34" s="308"/>
       <c r="F34" s="120" t="s">
         <v>187</v>
       </c>
@@ -23216,8 +23225,8 @@
       <c r="A36" s="62"/>
       <c r="B36" s="92"/>
       <c r="C36" s="93"/>
-      <c r="D36" s="300"/>
-      <c r="E36" s="301"/>
+      <c r="D36" s="306"/>
+      <c r="E36" s="308"/>
       <c r="F36" s="74"/>
       <c r="G36" s="76"/>
       <c r="H36" s="76"/>
@@ -23505,11 +23514,11 @@
     </row>
     <row r="53" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A53" s="62"/>
-      <c r="B53" s="324" t="s">
+      <c r="B53" s="330" t="s">
         <v>399</v>
       </c>
-      <c r="C53" s="314"/>
-      <c r="D53" s="314"/>
+      <c r="C53" s="320"/>
+      <c r="D53" s="320"/>
       <c r="E53" s="62"/>
       <c r="F53" s="62"/>
       <c r="G53" s="62"/>
@@ -23623,10 +23632,10 @@
       <c r="A57" s="62"/>
       <c r="B57" s="86"/>
       <c r="C57" s="96"/>
-      <c r="D57" s="308" t="s">
+      <c r="D57" s="314" t="s">
         <v>185</v>
       </c>
-      <c r="E57" s="301"/>
+      <c r="E57" s="308"/>
       <c r="F57" s="74" t="s">
         <v>140</v>
       </c>
@@ -23720,8 +23729,8 @@
       <c r="A60" s="62"/>
       <c r="B60" s="92"/>
       <c r="C60" s="93"/>
-      <c r="D60" s="300"/>
-      <c r="E60" s="301"/>
+      <c r="D60" s="306"/>
+      <c r="E60" s="308"/>
       <c r="F60" s="74"/>
       <c r="G60" s="76"/>
       <c r="H60" s="76"/>
@@ -24094,6 +24103,7 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="D57:E57"/>
     <mergeCell ref="D34:E34"/>
     <mergeCell ref="D36:E36"/>
     <mergeCell ref="D60:E60"/>
@@ -24110,7 +24120,6 @@
     <mergeCell ref="J17:L17"/>
     <mergeCell ref="D33:E33"/>
     <mergeCell ref="B53:D53"/>
-    <mergeCell ref="D57:E57"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="I15" r:id="rId1" display="foo@mulodo.com"/>
@@ -24210,7 +24219,7 @@
       <c r="B4" s="66" t="s">
         <v>121</v>
       </c>
-      <c r="C4" s="308" t="s">
+      <c r="C4" s="314" t="s">
         <v>441</v>
       </c>
       <c r="D4" s="307"/>
@@ -24218,7 +24227,7 @@
       <c r="F4" s="307"/>
       <c r="G4" s="307"/>
       <c r="H4" s="307"/>
-      <c r="I4" s="301"/>
+      <c r="I4" s="308"/>
       <c r="J4" s="62"/>
       <c r="K4" s="62"/>
       <c r="L4" s="62"/>
@@ -24231,7 +24240,7 @@
       <c r="B5" s="66" t="s">
         <v>122</v>
       </c>
-      <c r="C5" s="300" t="s">
+      <c r="C5" s="306" t="s">
         <v>312</v>
       </c>
       <c r="D5" s="307"/>
@@ -24239,7 +24248,7 @@
       <c r="F5" s="307"/>
       <c r="G5" s="307"/>
       <c r="H5" s="307"/>
-      <c r="I5" s="301"/>
+      <c r="I5" s="308"/>
       <c r="J5" s="62"/>
       <c r="K5" s="62"/>
       <c r="L5" s="62"/>
@@ -24273,7 +24282,7 @@
       <c r="B7" s="66" t="s">
         <v>167</v>
       </c>
-      <c r="C7" s="300" t="s">
+      <c r="C7" s="306" t="s">
         <v>230</v>
       </c>
       <c r="D7" s="307"/>
@@ -24281,7 +24290,7 @@
       <c r="F7" s="307"/>
       <c r="G7" s="307"/>
       <c r="H7" s="307"/>
-      <c r="I7" s="301"/>
+      <c r="I7" s="308"/>
       <c r="J7" s="62"/>
       <c r="K7" s="62"/>
       <c r="L7" s="62"/>
@@ -24315,7 +24324,7 @@
       <c r="B9" s="66" t="s">
         <v>196</v>
       </c>
-      <c r="C9" s="300" t="s">
+      <c r="C9" s="306" t="s">
         <v>197</v>
       </c>
       <c r="D9" s="307"/>
@@ -24323,7 +24332,7 @@
       <c r="F9" s="307"/>
       <c r="G9" s="307"/>
       <c r="H9" s="307"/>
-      <c r="I9" s="301"/>
+      <c r="I9" s="308"/>
       <c r="J9" s="62"/>
       <c r="K9" s="62"/>
       <c r="L9" s="62"/>
@@ -24386,19 +24395,19 @@
     </row>
     <row r="13" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A13" s="62"/>
-      <c r="B13" s="302" t="s">
+      <c r="B13" s="309" t="s">
         <v>123</v>
       </c>
-      <c r="C13" s="303"/>
-      <c r="D13" s="303"/>
-      <c r="E13" s="303"/>
-      <c r="F13" s="303"/>
-      <c r="G13" s="303"/>
-      <c r="H13" s="303"/>
-      <c r="I13" s="303"/>
-      <c r="J13" s="303"/>
-      <c r="K13" s="303"/>
-      <c r="L13" s="304"/>
+      <c r="C13" s="310"/>
+      <c r="D13" s="310"/>
+      <c r="E13" s="310"/>
+      <c r="F13" s="310"/>
+      <c r="G13" s="310"/>
+      <c r="H13" s="310"/>
+      <c r="I13" s="310"/>
+      <c r="J13" s="310"/>
+      <c r="K13" s="310"/>
+      <c r="L13" s="311"/>
       <c r="M13" s="62"/>
       <c r="N13" s="62"/>
       <c r="O13" s="62"/>
@@ -24427,11 +24436,11 @@
       <c r="I14" s="151" t="s">
         <v>130</v>
       </c>
-      <c r="J14" s="309" t="s">
+      <c r="J14" s="315" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="309"/>
-      <c r="L14" s="309"/>
+      <c r="K14" s="315"/>
+      <c r="L14" s="315"/>
       <c r="M14" s="62"/>
       <c r="N14" s="62"/>
       <c r="O14" s="62"/>
@@ -24460,11 +24469,11 @@
       <c r="I15" s="227" t="s">
         <v>457</v>
       </c>
-      <c r="J15" s="306" t="s">
+      <c r="J15" s="313" t="s">
         <v>376</v>
       </c>
-      <c r="K15" s="306"/>
-      <c r="L15" s="306"/>
+      <c r="K15" s="313"/>
+      <c r="L15" s="313"/>
       <c r="M15" s="62"/>
       <c r="N15" s="62"/>
       <c r="O15" s="62"/>
@@ -24493,11 +24502,11 @@
       <c r="I16" s="229" t="s">
         <v>315</v>
       </c>
-      <c r="J16" s="306" t="s">
+      <c r="J16" s="313" t="s">
         <v>316</v>
       </c>
-      <c r="K16" s="306"/>
-      <c r="L16" s="306"/>
+      <c r="K16" s="313"/>
+      <c r="L16" s="313"/>
       <c r="M16" s="62"/>
       <c r="N16" s="62"/>
       <c r="O16" s="62"/>
@@ -24526,11 +24535,11 @@
       <c r="I17" s="228">
         <v>1</v>
       </c>
-      <c r="J17" s="308" t="s">
+      <c r="J17" s="314" t="s">
         <v>452</v>
       </c>
       <c r="K17" s="307"/>
-      <c r="L17" s="301"/>
+      <c r="L17" s="308"/>
       <c r="M17" s="62"/>
       <c r="N17" s="62"/>
       <c r="O17" s="62"/>
@@ -24692,11 +24701,11 @@
     </row>
     <row r="27" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A27" s="62"/>
-      <c r="B27" s="310" t="s">
+      <c r="B27" s="316" t="s">
         <v>318</v>
       </c>
-      <c r="C27" s="310"/>
-      <c r="D27" s="310"/>
+      <c r="C27" s="316"/>
+      <c r="D27" s="316"/>
       <c r="E27" s="81"/>
       <c r="F27" s="82"/>
       <c r="G27" s="81"/>
@@ -24808,10 +24817,10 @@
       <c r="A31" s="62"/>
       <c r="B31" s="86"/>
       <c r="C31" s="96"/>
-      <c r="D31" s="300" t="s">
+      <c r="D31" s="306" t="s">
         <v>185</v>
       </c>
-      <c r="E31" s="301"/>
+      <c r="E31" s="308"/>
       <c r="F31" s="74" t="s">
         <v>140</v>
       </c>
@@ -24841,10 +24850,10 @@
       <c r="A32" s="62"/>
       <c r="B32" s="86"/>
       <c r="C32" s="91"/>
-      <c r="D32" s="308" t="s">
+      <c r="D32" s="314" t="s">
         <v>186</v>
       </c>
-      <c r="E32" s="301"/>
+      <c r="E32" s="308"/>
       <c r="F32" s="120" t="s">
         <v>187</v>
       </c>
@@ -24907,8 +24916,8 @@
       <c r="A34" s="62"/>
       <c r="B34" s="92"/>
       <c r="C34" s="93"/>
-      <c r="D34" s="300"/>
-      <c r="E34" s="301"/>
+      <c r="D34" s="306"/>
+      <c r="E34" s="308"/>
       <c r="F34" s="74"/>
       <c r="G34" s="76"/>
       <c r="H34" s="76"/>
@@ -25194,11 +25203,11 @@
     </row>
     <row r="51" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A51" s="62"/>
-      <c r="B51" s="314" t="s">
+      <c r="B51" s="320" t="s">
         <v>319</v>
       </c>
-      <c r="C51" s="314"/>
-      <c r="D51" s="314"/>
+      <c r="C51" s="320"/>
+      <c r="D51" s="320"/>
       <c r="E51" s="62"/>
       <c r="F51" s="62"/>
       <c r="G51" s="62"/>
@@ -25312,10 +25321,10 @@
       <c r="A55" s="62"/>
       <c r="B55" s="86"/>
       <c r="C55" s="96"/>
-      <c r="D55" s="308" t="s">
+      <c r="D55" s="314" t="s">
         <v>185</v>
       </c>
-      <c r="E55" s="301"/>
+      <c r="E55" s="308"/>
       <c r="F55" s="74" t="s">
         <v>140</v>
       </c>
@@ -25409,8 +25418,8 @@
       <c r="A58" s="62"/>
       <c r="B58" s="92"/>
       <c r="C58" s="93"/>
-      <c r="D58" s="300"/>
-      <c r="E58" s="301"/>
+      <c r="D58" s="306"/>
+      <c r="E58" s="308"/>
       <c r="F58" s="74"/>
       <c r="G58" s="76"/>
       <c r="H58" s="76"/>
@@ -25900,7 +25909,7 @@
       <c r="B4" s="66" t="s">
         <v>121</v>
       </c>
-      <c r="C4" s="300" t="s">
+      <c r="C4" s="306" t="s">
         <v>236</v>
       </c>
       <c r="D4" s="307"/>
@@ -25908,7 +25917,7 @@
       <c r="F4" s="307"/>
       <c r="G4" s="307"/>
       <c r="H4" s="307"/>
-      <c r="I4" s="301"/>
+      <c r="I4" s="308"/>
       <c r="J4" s="62"/>
       <c r="K4" s="62"/>
       <c r="L4" s="62"/>
@@ -25921,7 +25930,7 @@
       <c r="B5" s="66" t="s">
         <v>122</v>
       </c>
-      <c r="C5" s="300" t="s">
+      <c r="C5" s="306" t="s">
         <v>236</v>
       </c>
       <c r="D5" s="307"/>
@@ -25929,7 +25938,7 @@
       <c r="F5" s="307"/>
       <c r="G5" s="307"/>
       <c r="H5" s="307"/>
-      <c r="I5" s="301"/>
+      <c r="I5" s="308"/>
       <c r="J5" s="62"/>
       <c r="K5" s="62"/>
       <c r="L5" s="62"/>
@@ -25963,7 +25972,7 @@
       <c r="B7" s="66" t="s">
         <v>167</v>
       </c>
-      <c r="C7" s="300" t="s">
+      <c r="C7" s="306" t="s">
         <v>230</v>
       </c>
       <c r="D7" s="307"/>
@@ -25971,7 +25980,7 @@
       <c r="F7" s="307"/>
       <c r="G7" s="307"/>
       <c r="H7" s="307"/>
-      <c r="I7" s="301"/>
+      <c r="I7" s="308"/>
       <c r="J7" s="62"/>
       <c r="K7" s="62"/>
       <c r="L7" s="62"/>
@@ -26005,7 +26014,7 @@
       <c r="B9" s="66" t="s">
         <v>196</v>
       </c>
-      <c r="C9" s="300" t="s">
+      <c r="C9" s="306" t="s">
         <v>197</v>
       </c>
       <c r="D9" s="307"/>
@@ -26013,7 +26022,7 @@
       <c r="F9" s="307"/>
       <c r="G9" s="307"/>
       <c r="H9" s="307"/>
-      <c r="I9" s="301"/>
+      <c r="I9" s="308"/>
       <c r="J9" s="62"/>
       <c r="K9" s="62"/>
       <c r="L9" s="62"/>
@@ -26076,19 +26085,19 @@
     </row>
     <row r="13" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A13" s="62"/>
-      <c r="B13" s="302" t="s">
+      <c r="B13" s="309" t="s">
         <v>123</v>
       </c>
-      <c r="C13" s="303"/>
-      <c r="D13" s="303"/>
-      <c r="E13" s="303"/>
-      <c r="F13" s="303"/>
-      <c r="G13" s="303"/>
-      <c r="H13" s="303"/>
-      <c r="I13" s="303"/>
-      <c r="J13" s="303"/>
-      <c r="K13" s="303"/>
-      <c r="L13" s="304"/>
+      <c r="C13" s="310"/>
+      <c r="D13" s="310"/>
+      <c r="E13" s="310"/>
+      <c r="F13" s="310"/>
+      <c r="G13" s="310"/>
+      <c r="H13" s="310"/>
+      <c r="I13" s="310"/>
+      <c r="J13" s="310"/>
+      <c r="K13" s="310"/>
+      <c r="L13" s="311"/>
       <c r="M13" s="62"/>
       <c r="N13" s="62"/>
       <c r="O13" s="62"/>
@@ -26117,11 +26126,11 @@
       <c r="I14" s="196" t="s">
         <v>130</v>
       </c>
-      <c r="J14" s="309" t="s">
+      <c r="J14" s="315" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="309"/>
-      <c r="L14" s="309"/>
+      <c r="K14" s="315"/>
+      <c r="L14" s="315"/>
       <c r="M14" s="62"/>
       <c r="N14" s="62"/>
       <c r="O14" s="62"/>
@@ -26150,11 +26159,11 @@
       <c r="I15" s="227" t="s">
         <v>380</v>
       </c>
-      <c r="J15" s="305" t="s">
+      <c r="J15" s="312" t="s">
         <v>376</v>
       </c>
-      <c r="K15" s="322"/>
-      <c r="L15" s="306"/>
+      <c r="K15" s="328"/>
+      <c r="L15" s="313"/>
       <c r="M15" s="62"/>
       <c r="N15" s="62"/>
       <c r="O15" s="62"/>
@@ -26216,11 +26225,11 @@
       <c r="I17" s="229" t="s">
         <v>303</v>
       </c>
-      <c r="J17" s="306" t="s">
+      <c r="J17" s="313" t="s">
         <v>305</v>
       </c>
-      <c r="K17" s="323"/>
-      <c r="L17" s="306"/>
+      <c r="K17" s="329"/>
+      <c r="L17" s="313"/>
       <c r="M17" s="62"/>
       <c r="N17" s="62"/>
       <c r="O17" s="62"/>
@@ -26249,11 +26258,11 @@
       <c r="I18" s="227" t="s">
         <v>304</v>
       </c>
-      <c r="J18" s="305" t="s">
+      <c r="J18" s="312" t="s">
         <v>332</v>
       </c>
-      <c r="K18" s="306"/>
-      <c r="L18" s="306"/>
+      <c r="K18" s="313"/>
+      <c r="L18" s="313"/>
       <c r="M18" s="62"/>
       <c r="N18" s="62"/>
       <c r="O18" s="62"/>
@@ -26282,11 +26291,11 @@
       <c r="I19" s="230" t="s">
         <v>430</v>
       </c>
-      <c r="J19" s="308" t="s">
+      <c r="J19" s="314" t="s">
         <v>306</v>
       </c>
       <c r="K19" s="307"/>
-      <c r="L19" s="301"/>
+      <c r="L19" s="308"/>
       <c r="M19" s="62"/>
       <c r="N19" s="62"/>
       <c r="O19" s="62"/>
@@ -26315,11 +26324,11 @@
       <c r="I20" s="228">
         <v>2</v>
       </c>
-      <c r="J20" s="308" t="s">
+      <c r="J20" s="314" t="s">
         <v>452</v>
       </c>
       <c r="K20" s="307"/>
-      <c r="L20" s="301"/>
+      <c r="L20" s="308"/>
       <c r="M20" s="62"/>
       <c r="N20" s="62"/>
       <c r="O20" s="62"/>
@@ -26481,11 +26490,11 @@
     </row>
     <row r="30" spans="1:15" s="83" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A30" s="65"/>
-      <c r="B30" s="325" t="s">
+      <c r="B30" s="331" t="s">
         <v>382</v>
       </c>
-      <c r="C30" s="310"/>
-      <c r="D30" s="310"/>
+      <c r="C30" s="316"/>
+      <c r="D30" s="316"/>
       <c r="E30" s="81"/>
       <c r="F30" s="82"/>
       <c r="G30" s="81"/>
@@ -26597,10 +26606,10 @@
       <c r="A34" s="62"/>
       <c r="B34" s="86"/>
       <c r="C34" s="96"/>
-      <c r="D34" s="300" t="s">
+      <c r="D34" s="306" t="s">
         <v>185</v>
       </c>
-      <c r="E34" s="301"/>
+      <c r="E34" s="308"/>
       <c r="F34" s="74" t="s">
         <v>140</v>
       </c>
@@ -26630,10 +26639,10 @@
       <c r="A35" s="62"/>
       <c r="B35" s="86"/>
       <c r="C35" s="91"/>
-      <c r="D35" s="308" t="s">
+      <c r="D35" s="314" t="s">
         <v>186</v>
       </c>
-      <c r="E35" s="301"/>
+      <c r="E35" s="308"/>
       <c r="F35" s="120" t="s">
         <v>187</v>
       </c>
@@ -26696,8 +26705,8 @@
       <c r="A37" s="62"/>
       <c r="B37" s="92"/>
       <c r="C37" s="93"/>
-      <c r="D37" s="300"/>
-      <c r="E37" s="301"/>
+      <c r="D37" s="306"/>
+      <c r="E37" s="308"/>
       <c r="F37" s="74"/>
       <c r="G37" s="76"/>
       <c r="H37" s="76"/>
@@ -27002,11 +27011,11 @@
     </row>
     <row r="55" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A55" s="62"/>
-      <c r="B55" s="324" t="s">
+      <c r="B55" s="330" t="s">
         <v>383</v>
       </c>
-      <c r="C55" s="314"/>
-      <c r="D55" s="314"/>
+      <c r="C55" s="320"/>
+      <c r="D55" s="320"/>
       <c r="E55" s="62"/>
       <c r="F55" s="62"/>
       <c r="G55" s="62"/>
@@ -27120,10 +27129,10 @@
       <c r="A59" s="62"/>
       <c r="B59" s="86"/>
       <c r="C59" s="96"/>
-      <c r="D59" s="308" t="s">
+      <c r="D59" s="314" t="s">
         <v>185</v>
       </c>
-      <c r="E59" s="301"/>
+      <c r="E59" s="308"/>
       <c r="F59" s="74" t="s">
         <v>140</v>
       </c>
@@ -27217,8 +27226,8 @@
       <c r="A62" s="62"/>
       <c r="B62" s="92"/>
       <c r="C62" s="93"/>
-      <c r="D62" s="300"/>
-      <c r="E62" s="301"/>
+      <c r="D62" s="306"/>
+      <c r="E62" s="308"/>
       <c r="F62" s="74"/>
       <c r="G62" s="76"/>
       <c r="H62" s="76"/>
@@ -27591,24 +27600,24 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="D62:E62"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="B55:D55"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="J15:L15"/>
+    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="J19:L19"/>
     <mergeCell ref="J14:L14"/>
     <mergeCell ref="C4:I4"/>
     <mergeCell ref="C5:I5"/>
     <mergeCell ref="C7:I7"/>
     <mergeCell ref="C9:I9"/>
     <mergeCell ref="B13:L13"/>
-    <mergeCell ref="J15:L15"/>
-    <mergeCell ref="J18:L18"/>
-    <mergeCell ref="J20:L20"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="J17:L17"/>
-    <mergeCell ref="J19:L19"/>
-    <mergeCell ref="D62:E62"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="B55:D55"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="D37:E37"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="I15" r:id="rId1" display="foo@mulodo.com"/>
@@ -27706,7 +27715,7 @@
       <c r="B4" s="66" t="s">
         <v>121</v>
       </c>
-      <c r="C4" s="300" t="s">
+      <c r="C4" s="306" t="s">
         <v>237</v>
       </c>
       <c r="D4" s="307"/>
@@ -27714,7 +27723,7 @@
       <c r="F4" s="307"/>
       <c r="G4" s="307"/>
       <c r="H4" s="307"/>
-      <c r="I4" s="301"/>
+      <c r="I4" s="308"/>
       <c r="J4" s="62"/>
       <c r="K4" s="62"/>
       <c r="L4" s="62"/>
@@ -27727,7 +27736,7 @@
       <c r="B5" s="66" t="s">
         <v>122</v>
       </c>
-      <c r="C5" s="300" t="s">
+      <c r="C5" s="306" t="s">
         <v>237</v>
       </c>
       <c r="D5" s="307"/>
@@ -27735,7 +27744,7 @@
       <c r="F5" s="307"/>
       <c r="G5" s="307"/>
       <c r="H5" s="307"/>
-      <c r="I5" s="301"/>
+      <c r="I5" s="308"/>
       <c r="J5" s="62"/>
       <c r="K5" s="62"/>
       <c r="L5" s="62"/>
@@ -27769,7 +27778,7 @@
       <c r="B7" s="66" t="s">
         <v>167</v>
       </c>
-      <c r="C7" s="300" t="s">
+      <c r="C7" s="306" t="s">
         <v>245</v>
       </c>
       <c r="D7" s="307"/>
@@ -27777,7 +27786,7 @@
       <c r="F7" s="307"/>
       <c r="G7" s="307"/>
       <c r="H7" s="307"/>
-      <c r="I7" s="301"/>
+      <c r="I7" s="308"/>
       <c r="J7" s="62"/>
       <c r="K7" s="62"/>
       <c r="L7" s="62"/>
@@ -27811,7 +27820,7 @@
       <c r="B9" s="66" t="s">
         <v>196</v>
       </c>
-      <c r="C9" s="300" t="s">
+      <c r="C9" s="306" t="s">
         <v>197</v>
       </c>
       <c r="D9" s="307"/>
@@ -27819,7 +27828,7 @@
       <c r="F9" s="307"/>
       <c r="G9" s="307"/>
       <c r="H9" s="307"/>
-      <c r="I9" s="301"/>
+      <c r="I9" s="308"/>
       <c r="J9" s="62"/>
       <c r="K9" s="62"/>
       <c r="L9" s="62"/>
@@ -27882,19 +27891,19 @@
     </row>
     <row r="13" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A13" s="62"/>
-      <c r="B13" s="302" t="s">
+      <c r="B13" s="309" t="s">
         <v>123</v>
       </c>
-      <c r="C13" s="303"/>
-      <c r="D13" s="303"/>
-      <c r="E13" s="303"/>
-      <c r="F13" s="303"/>
-      <c r="G13" s="303"/>
-      <c r="H13" s="303"/>
-      <c r="I13" s="303"/>
-      <c r="J13" s="303"/>
-      <c r="K13" s="303"/>
-      <c r="L13" s="304"/>
+      <c r="C13" s="310"/>
+      <c r="D13" s="310"/>
+      <c r="E13" s="310"/>
+      <c r="F13" s="310"/>
+      <c r="G13" s="310"/>
+      <c r="H13" s="310"/>
+      <c r="I13" s="310"/>
+      <c r="J13" s="310"/>
+      <c r="K13" s="310"/>
+      <c r="L13" s="311"/>
       <c r="M13" s="62"/>
       <c r="N13" s="62"/>
       <c r="O13" s="62"/>
@@ -27923,11 +27932,11 @@
       <c r="I14" s="151" t="s">
         <v>130</v>
       </c>
-      <c r="J14" s="309" t="s">
+      <c r="J14" s="315" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="309"/>
-      <c r="L14" s="309"/>
+      <c r="K14" s="315"/>
+      <c r="L14" s="315"/>
       <c r="M14" s="62"/>
       <c r="N14" s="62"/>
       <c r="O14" s="62"/>
@@ -27956,11 +27965,11 @@
       <c r="I15" s="229" t="s">
         <v>380</v>
       </c>
-      <c r="J15" s="306" t="s">
+      <c r="J15" s="313" t="s">
         <v>376</v>
       </c>
-      <c r="K15" s="306"/>
-      <c r="L15" s="306"/>
+      <c r="K15" s="313"/>
+      <c r="L15" s="313"/>
       <c r="M15" s="62"/>
       <c r="N15" s="62"/>
       <c r="O15" s="62"/>
@@ -27989,11 +27998,11 @@
       <c r="I16" s="229" t="s">
         <v>322</v>
       </c>
-      <c r="J16" s="305" t="s">
+      <c r="J16" s="312" t="s">
         <v>460</v>
       </c>
-      <c r="K16" s="306"/>
-      <c r="L16" s="306"/>
+      <c r="K16" s="313"/>
+      <c r="L16" s="313"/>
       <c r="M16" s="62"/>
       <c r="N16" s="62"/>
       <c r="O16" s="62"/>
@@ -28022,11 +28031,11 @@
       <c r="I17" s="228">
         <v>1</v>
       </c>
-      <c r="J17" s="308" t="s">
+      <c r="J17" s="314" t="s">
         <v>452</v>
       </c>
       <c r="K17" s="307"/>
-      <c r="L17" s="301"/>
+      <c r="L17" s="308"/>
       <c r="M17" s="62"/>
       <c r="N17" s="62"/>
       <c r="O17" s="62"/>
@@ -28188,11 +28197,11 @@
     </row>
     <row r="27" spans="1:15" s="83" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A27" s="65"/>
-      <c r="B27" s="325" t="s">
+      <c r="B27" s="331" t="s">
         <v>385</v>
       </c>
-      <c r="C27" s="310"/>
-      <c r="D27" s="310"/>
+      <c r="C27" s="316"/>
+      <c r="D27" s="316"/>
       <c r="E27" s="81"/>
       <c r="F27" s="82"/>
       <c r="G27" s="81"/>
@@ -28304,10 +28313,10 @@
       <c r="A31" s="62"/>
       <c r="B31" s="86"/>
       <c r="C31" s="96"/>
-      <c r="D31" s="300" t="s">
+      <c r="D31" s="306" t="s">
         <v>185</v>
       </c>
-      <c r="E31" s="301"/>
+      <c r="E31" s="308"/>
       <c r="F31" s="74" t="s">
         <v>140</v>
       </c>
@@ -28337,10 +28346,10 @@
       <c r="A32" s="62"/>
       <c r="B32" s="86"/>
       <c r="C32" s="91"/>
-      <c r="D32" s="308" t="s">
+      <c r="D32" s="314" t="s">
         <v>186</v>
       </c>
-      <c r="E32" s="301"/>
+      <c r="E32" s="308"/>
       <c r="F32" s="120" t="s">
         <v>187</v>
       </c>
@@ -28403,8 +28412,8 @@
       <c r="A34" s="62"/>
       <c r="B34" s="92"/>
       <c r="C34" s="93"/>
-      <c r="D34" s="300"/>
-      <c r="E34" s="301"/>
+      <c r="D34" s="306"/>
+      <c r="E34" s="308"/>
       <c r="F34" s="74"/>
       <c r="G34" s="76"/>
       <c r="H34" s="76"/>
@@ -28709,11 +28718,11 @@
     </row>
     <row r="52" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A52" s="62"/>
-      <c r="B52" s="324" t="s">
+      <c r="B52" s="330" t="s">
         <v>386</v>
       </c>
-      <c r="C52" s="314"/>
-      <c r="D52" s="314"/>
+      <c r="C52" s="320"/>
+      <c r="D52" s="320"/>
       <c r="E52" s="62"/>
       <c r="F52" s="62"/>
       <c r="G52" s="62"/>
@@ -28827,10 +28836,10 @@
       <c r="A56" s="62"/>
       <c r="B56" s="86"/>
       <c r="C56" s="96"/>
-      <c r="D56" s="308" t="s">
+      <c r="D56" s="314" t="s">
         <v>185</v>
       </c>
-      <c r="E56" s="301"/>
+      <c r="E56" s="308"/>
       <c r="F56" s="74" t="s">
         <v>140</v>
       </c>
@@ -28924,8 +28933,8 @@
       <c r="A59" s="62"/>
       <c r="B59" s="92"/>
       <c r="C59" s="93"/>
-      <c r="D59" s="300"/>
-      <c r="E59" s="301"/>
+      <c r="D59" s="306"/>
+      <c r="E59" s="308"/>
       <c r="F59" s="74"/>
       <c r="G59" s="76"/>
       <c r="H59" s="76"/>
@@ -29298,22 +29307,22 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="J15:L15"/>
-    <mergeCell ref="J17:L17"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="D56:E56"/>
+    <mergeCell ref="B52:D52"/>
     <mergeCell ref="J14:L14"/>
     <mergeCell ref="C4:I4"/>
     <mergeCell ref="C5:I5"/>
     <mergeCell ref="C7:I7"/>
     <mergeCell ref="C9:I9"/>
     <mergeCell ref="B13:L13"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="D56:E56"/>
-    <mergeCell ref="B52:D52"/>
+    <mergeCell ref="J15:L15"/>
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="J16:L16"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="I15" r:id="rId1" display="foo@mulodo.com"/>
@@ -29410,7 +29419,7 @@
       <c r="B4" s="66" t="s">
         <v>121</v>
       </c>
-      <c r="C4" s="300" t="s">
+      <c r="C4" s="306" t="s">
         <v>329</v>
       </c>
       <c r="D4" s="307"/>
@@ -29418,7 +29427,7 @@
       <c r="F4" s="307"/>
       <c r="G4" s="307"/>
       <c r="H4" s="307"/>
-      <c r="I4" s="301"/>
+      <c r="I4" s="308"/>
       <c r="J4" s="62"/>
       <c r="K4" s="62"/>
       <c r="L4" s="62"/>
@@ -29431,7 +29440,7 @@
       <c r="B5" s="66" t="s">
         <v>122</v>
       </c>
-      <c r="C5" s="300" t="s">
+      <c r="C5" s="306" t="s">
         <v>329</v>
       </c>
       <c r="D5" s="307"/>
@@ -29439,7 +29448,7 @@
       <c r="F5" s="307"/>
       <c r="G5" s="307"/>
       <c r="H5" s="307"/>
-      <c r="I5" s="301"/>
+      <c r="I5" s="308"/>
       <c r="J5" s="62"/>
       <c r="K5" s="62"/>
       <c r="L5" s="62"/>
@@ -29473,7 +29482,7 @@
       <c r="B7" s="66" t="s">
         <v>167</v>
       </c>
-      <c r="C7" s="300" t="s">
+      <c r="C7" s="306" t="s">
         <v>232</v>
       </c>
       <c r="D7" s="307"/>
@@ -29481,7 +29490,7 @@
       <c r="F7" s="307"/>
       <c r="G7" s="307"/>
       <c r="H7" s="307"/>
-      <c r="I7" s="301"/>
+      <c r="I7" s="308"/>
       <c r="J7" s="62"/>
       <c r="K7" s="62"/>
       <c r="L7" s="62"/>
@@ -29515,7 +29524,7 @@
       <c r="B9" s="66" t="s">
         <v>196</v>
       </c>
-      <c r="C9" s="300" t="s">
+      <c r="C9" s="306" t="s">
         <v>197</v>
       </c>
       <c r="D9" s="307"/>
@@ -29523,7 +29532,7 @@
       <c r="F9" s="307"/>
       <c r="G9" s="307"/>
       <c r="H9" s="307"/>
-      <c r="I9" s="301"/>
+      <c r="I9" s="308"/>
       <c r="J9" s="62"/>
       <c r="K9" s="62"/>
       <c r="L9" s="62"/>
@@ -29586,19 +29595,19 @@
     </row>
     <row r="13" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A13" s="62"/>
-      <c r="B13" s="302" t="s">
+      <c r="B13" s="309" t="s">
         <v>123</v>
       </c>
-      <c r="C13" s="303"/>
-      <c r="D13" s="303"/>
-      <c r="E13" s="303"/>
-      <c r="F13" s="303"/>
-      <c r="G13" s="303"/>
-      <c r="H13" s="303"/>
-      <c r="I13" s="303"/>
-      <c r="J13" s="303"/>
-      <c r="K13" s="303"/>
-      <c r="L13" s="304"/>
+      <c r="C13" s="310"/>
+      <c r="D13" s="310"/>
+      <c r="E13" s="310"/>
+      <c r="F13" s="310"/>
+      <c r="G13" s="310"/>
+      <c r="H13" s="310"/>
+      <c r="I13" s="310"/>
+      <c r="J13" s="310"/>
+      <c r="K13" s="310"/>
+      <c r="L13" s="311"/>
       <c r="M13" s="62"/>
       <c r="N13" s="62"/>
       <c r="O13" s="62"/>
@@ -29627,11 +29636,11 @@
       <c r="I14" s="151" t="s">
         <v>130</v>
       </c>
-      <c r="J14" s="309" t="s">
+      <c r="J14" s="315" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="309"/>
-      <c r="L14" s="309"/>
+      <c r="K14" s="315"/>
+      <c r="L14" s="315"/>
       <c r="M14" s="62"/>
       <c r="N14" s="62"/>
       <c r="O14" s="62"/>
@@ -29656,11 +29665,11 @@
       <c r="I15" s="217" t="s">
         <v>380</v>
       </c>
-      <c r="J15" s="300" t="s">
+      <c r="J15" s="306" t="s">
         <v>376</v>
       </c>
       <c r="K15" s="307"/>
-      <c r="L15" s="301"/>
+      <c r="L15" s="308"/>
       <c r="M15" s="62"/>
       <c r="N15" s="62"/>
       <c r="O15" s="62"/>
@@ -29822,11 +29831,11 @@
     </row>
     <row r="25" spans="1:15" s="83" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A25" s="65"/>
-      <c r="B25" s="310" t="s">
+      <c r="B25" s="316" t="s">
         <v>331</v>
       </c>
-      <c r="C25" s="310"/>
-      <c r="D25" s="310"/>
+      <c r="C25" s="316"/>
+      <c r="D25" s="316"/>
       <c r="E25" s="81"/>
       <c r="F25" s="82"/>
       <c r="G25" s="81"/>
@@ -29841,12 +29850,12 @@
     </row>
     <row r="26" spans="1:15" s="85" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A26" s="84"/>
-      <c r="B26" s="311" t="s">
+      <c r="B26" s="317" t="s">
         <v>125</v>
       </c>
-      <c r="C26" s="312"/>
-      <c r="D26" s="312"/>
-      <c r="E26" s="313"/>
+      <c r="C26" s="318"/>
+      <c r="D26" s="318"/>
+      <c r="E26" s="319"/>
       <c r="F26" s="151" t="s">
         <v>124</v>
       </c>
@@ -29938,10 +29947,10 @@
       <c r="A29" s="62"/>
       <c r="B29" s="86"/>
       <c r="C29" s="96"/>
-      <c r="D29" s="300" t="s">
+      <c r="D29" s="306" t="s">
         <v>185</v>
       </c>
-      <c r="E29" s="301"/>
+      <c r="E29" s="308"/>
       <c r="F29" s="74" t="s">
         <v>140</v>
       </c>
@@ -29971,10 +29980,10 @@
       <c r="A30" s="62"/>
       <c r="B30" s="86"/>
       <c r="C30" s="91"/>
-      <c r="D30" s="308" t="s">
+      <c r="D30" s="314" t="s">
         <v>186</v>
       </c>
-      <c r="E30" s="301"/>
+      <c r="E30" s="308"/>
       <c r="F30" s="120" t="s">
         <v>187</v>
       </c>
@@ -30070,10 +30079,10 @@
       <c r="A33" s="62"/>
       <c r="B33" s="86"/>
       <c r="C33" s="96"/>
-      <c r="D33" s="300" t="s">
+      <c r="D33" s="306" t="s">
         <v>308</v>
       </c>
-      <c r="E33" s="301"/>
+      <c r="E33" s="308"/>
       <c r="F33" s="74" t="s">
         <v>301</v>
       </c>
@@ -30169,10 +30178,10 @@
       <c r="A36" s="62"/>
       <c r="B36" s="86"/>
       <c r="C36" s="91"/>
-      <c r="D36" s="308" t="s">
+      <c r="D36" s="314" t="s">
         <v>433</v>
       </c>
-      <c r="E36" s="301"/>
+      <c r="E36" s="308"/>
       <c r="F36" s="120" t="s">
         <v>434</v>
       </c>
@@ -30202,10 +30211,10 @@
       <c r="A37" s="62"/>
       <c r="B37" s="92"/>
       <c r="C37" s="93"/>
-      <c r="D37" s="308" t="s">
+      <c r="D37" s="314" t="s">
         <v>337</v>
       </c>
-      <c r="E37" s="301"/>
+      <c r="E37" s="308"/>
       <c r="F37" s="120" t="s">
         <v>189</v>
       </c>
@@ -30592,11 +30601,11 @@
     </row>
     <row r="59" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A59" s="62"/>
-      <c r="B59" s="317" t="s">
+      <c r="B59" s="321" t="s">
         <v>333</v>
       </c>
-      <c r="C59" s="317"/>
-      <c r="D59" s="317"/>
+      <c r="C59" s="321"/>
+      <c r="D59" s="321"/>
       <c r="E59" s="62"/>
       <c r="F59" s="62"/>
       <c r="G59" s="62"/>
@@ -30710,10 +30719,10 @@
       <c r="A63" s="62"/>
       <c r="B63" s="86"/>
       <c r="C63" s="96"/>
-      <c r="D63" s="308" t="s">
+      <c r="D63" s="314" t="s">
         <v>185</v>
       </c>
-      <c r="E63" s="301"/>
+      <c r="E63" s="308"/>
       <c r="F63" s="74" t="s">
         <v>140</v>
       </c>
@@ -30807,8 +30816,8 @@
       <c r="A66" s="62"/>
       <c r="B66" s="92"/>
       <c r="C66" s="93"/>
-      <c r="D66" s="300"/>
-      <c r="E66" s="301"/>
+      <c r="D66" s="306"/>
+      <c r="E66" s="308"/>
       <c r="F66" s="74"/>
       <c r="G66" s="76"/>
       <c r="H66" s="76"/>
@@ -31181,16 +31190,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="C4:I4"/>
-    <mergeCell ref="C5:I5"/>
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="C9:I9"/>
-    <mergeCell ref="B13:L13"/>
-    <mergeCell ref="J15:L15"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="B26:E26"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="J14:L14"/>
     <mergeCell ref="D33:E33"/>
     <mergeCell ref="D29:E29"/>
     <mergeCell ref="D66:E66"/>
@@ -31198,6 +31197,16 @@
     <mergeCell ref="D37:E37"/>
     <mergeCell ref="B59:D59"/>
     <mergeCell ref="D63:E63"/>
+    <mergeCell ref="J15:L15"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="C5:I5"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="C9:I9"/>
+    <mergeCell ref="B13:L13"/>
   </mergeCells>
   <pageMargins left="0.75000000000000011" right="0.75000000000000011" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
@@ -31290,7 +31299,7 @@
       <c r="B4" s="66" t="s">
         <v>121</v>
       </c>
-      <c r="C4" s="300" t="s">
+      <c r="C4" s="306" t="s">
         <v>336</v>
       </c>
       <c r="D4" s="307"/>
@@ -31298,7 +31307,7 @@
       <c r="F4" s="307"/>
       <c r="G4" s="307"/>
       <c r="H4" s="307"/>
-      <c r="I4" s="301"/>
+      <c r="I4" s="308"/>
       <c r="J4" s="62"/>
       <c r="K4" s="62"/>
       <c r="L4" s="62"/>
@@ -31311,7 +31320,7 @@
       <c r="B5" s="66" t="s">
         <v>122</v>
       </c>
-      <c r="C5" s="300" t="s">
+      <c r="C5" s="306" t="s">
         <v>336</v>
       </c>
       <c r="D5" s="307"/>
@@ -31319,7 +31328,7 @@
       <c r="F5" s="307"/>
       <c r="G5" s="307"/>
       <c r="H5" s="307"/>
-      <c r="I5" s="301"/>
+      <c r="I5" s="308"/>
       <c r="J5" s="62"/>
       <c r="K5" s="62"/>
       <c r="L5" s="62"/>
@@ -31353,7 +31362,7 @@
       <c r="B7" s="66" t="s">
         <v>167</v>
       </c>
-      <c r="C7" s="300" t="s">
+      <c r="C7" s="306" t="s">
         <v>232</v>
       </c>
       <c r="D7" s="307"/>
@@ -31361,7 +31370,7 @@
       <c r="F7" s="307"/>
       <c r="G7" s="307"/>
       <c r="H7" s="307"/>
-      <c r="I7" s="301"/>
+      <c r="I7" s="308"/>
       <c r="J7" s="62"/>
       <c r="K7" s="62"/>
       <c r="L7" s="62"/>
@@ -31395,7 +31404,7 @@
       <c r="B9" s="66" t="s">
         <v>196</v>
       </c>
-      <c r="C9" s="300" t="s">
+      <c r="C9" s="306" t="s">
         <v>197</v>
       </c>
       <c r="D9" s="307"/>
@@ -31403,7 +31412,7 @@
       <c r="F9" s="307"/>
       <c r="G9" s="307"/>
       <c r="H9" s="307"/>
-      <c r="I9" s="301"/>
+      <c r="I9" s="308"/>
       <c r="J9" s="62"/>
       <c r="K9" s="62"/>
       <c r="L9" s="62"/>
@@ -31466,19 +31475,19 @@
     </row>
     <row r="13" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A13" s="62"/>
-      <c r="B13" s="302" t="s">
+      <c r="B13" s="309" t="s">
         <v>123</v>
       </c>
-      <c r="C13" s="303"/>
-      <c r="D13" s="303"/>
-      <c r="E13" s="303"/>
-      <c r="F13" s="303"/>
-      <c r="G13" s="303"/>
-      <c r="H13" s="303"/>
-      <c r="I13" s="303"/>
-      <c r="J13" s="303"/>
-      <c r="K13" s="303"/>
-      <c r="L13" s="304"/>
+      <c r="C13" s="310"/>
+      <c r="D13" s="310"/>
+      <c r="E13" s="310"/>
+      <c r="F13" s="310"/>
+      <c r="G13" s="310"/>
+      <c r="H13" s="310"/>
+      <c r="I13" s="310"/>
+      <c r="J13" s="310"/>
+      <c r="K13" s="310"/>
+      <c r="L13" s="311"/>
       <c r="M13" s="62"/>
       <c r="N13" s="62"/>
       <c r="O13" s="62"/>
@@ -31507,11 +31516,11 @@
       <c r="I14" s="151" t="s">
         <v>130</v>
       </c>
-      <c r="J14" s="309" t="s">
+      <c r="J14" s="315" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="309"/>
-      <c r="L14" s="309"/>
+      <c r="K14" s="315"/>
+      <c r="L14" s="315"/>
       <c r="M14" s="62"/>
       <c r="N14" s="62"/>
       <c r="O14" s="62"/>
@@ -31540,11 +31549,11 @@
       <c r="I15" s="229" t="s">
         <v>380</v>
       </c>
-      <c r="J15" s="306" t="s">
+      <c r="J15" s="313" t="s">
         <v>376</v>
       </c>
-      <c r="K15" s="306"/>
-      <c r="L15" s="306"/>
+      <c r="K15" s="313"/>
+      <c r="L15" s="313"/>
       <c r="M15" s="62"/>
       <c r="N15" s="62"/>
       <c r="O15" s="62"/>
@@ -31573,11 +31582,11 @@
       <c r="I16" s="229" t="s">
         <v>265</v>
       </c>
-      <c r="J16" s="306" t="s">
+      <c r="J16" s="313" t="s">
         <v>338</v>
       </c>
-      <c r="K16" s="306"/>
-      <c r="L16" s="306"/>
+      <c r="K16" s="313"/>
+      <c r="L16" s="313"/>
       <c r="M16" s="62"/>
       <c r="N16" s="62"/>
       <c r="O16" s="62"/>
@@ -31739,11 +31748,11 @@
     </row>
     <row r="26" spans="1:15" s="83" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A26" s="65"/>
-      <c r="B26" s="310" t="s">
+      <c r="B26" s="316" t="s">
         <v>340</v>
       </c>
-      <c r="C26" s="310"/>
-      <c r="D26" s="310"/>
+      <c r="C26" s="316"/>
+      <c r="D26" s="316"/>
       <c r="E26" s="81"/>
       <c r="F26" s="82"/>
       <c r="G26" s="81"/>
@@ -31758,12 +31767,12 @@
     </row>
     <row r="27" spans="1:15" s="85" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A27" s="84"/>
-      <c r="B27" s="311" t="s">
+      <c r="B27" s="317" t="s">
         <v>125</v>
       </c>
-      <c r="C27" s="312"/>
-      <c r="D27" s="312"/>
-      <c r="E27" s="313"/>
+      <c r="C27" s="318"/>
+      <c r="D27" s="318"/>
+      <c r="E27" s="319"/>
       <c r="F27" s="203" t="s">
         <v>124</v>
       </c>
@@ -31855,10 +31864,10 @@
       <c r="A30" s="62"/>
       <c r="B30" s="86"/>
       <c r="C30" s="96"/>
-      <c r="D30" s="300" t="s">
+      <c r="D30" s="306" t="s">
         <v>185</v>
       </c>
-      <c r="E30" s="301"/>
+      <c r="E30" s="308"/>
       <c r="F30" s="74" t="s">
         <v>140</v>
       </c>
@@ -31888,10 +31897,10 @@
       <c r="A31" s="62"/>
       <c r="B31" s="86"/>
       <c r="C31" s="91"/>
-      <c r="D31" s="308" t="s">
+      <c r="D31" s="314" t="s">
         <v>186</v>
       </c>
-      <c r="E31" s="301"/>
+      <c r="E31" s="308"/>
       <c r="F31" s="120" t="s">
         <v>187</v>
       </c>
@@ -31987,10 +31996,10 @@
       <c r="A34" s="62"/>
       <c r="B34" s="86"/>
       <c r="C34" s="96"/>
-      <c r="D34" s="300" t="s">
+      <c r="D34" s="306" t="s">
         <v>308</v>
       </c>
-      <c r="E34" s="301"/>
+      <c r="E34" s="308"/>
       <c r="F34" s="74" t="s">
         <v>301</v>
       </c>
@@ -32086,10 +32095,10 @@
       <c r="A37" s="62"/>
       <c r="B37" s="92"/>
       <c r="C37" s="93"/>
-      <c r="D37" s="308" t="s">
+      <c r="D37" s="314" t="s">
         <v>433</v>
       </c>
-      <c r="E37" s="301"/>
+      <c r="E37" s="308"/>
       <c r="F37" s="120" t="s">
         <v>434</v>
       </c>
@@ -32474,11 +32483,11 @@
     </row>
     <row r="59" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A59" s="62"/>
-      <c r="B59" s="314" t="s">
+      <c r="B59" s="320" t="s">
         <v>341</v>
       </c>
-      <c r="C59" s="314"/>
-      <c r="D59" s="314"/>
+      <c r="C59" s="320"/>
+      <c r="D59" s="320"/>
       <c r="E59" s="62"/>
       <c r="F59" s="62"/>
       <c r="G59" s="62"/>
@@ -32592,10 +32601,10 @@
       <c r="A63" s="62"/>
       <c r="B63" s="86"/>
       <c r="C63" s="96"/>
-      <c r="D63" s="308" t="s">
+      <c r="D63" s="314" t="s">
         <v>185</v>
       </c>
-      <c r="E63" s="301"/>
+      <c r="E63" s="308"/>
       <c r="F63" s="74" t="s">
         <v>140</v>
       </c>
@@ -32689,8 +32698,8 @@
       <c r="A66" s="62"/>
       <c r="B66" s="92"/>
       <c r="C66" s="93"/>
-      <c r="D66" s="300"/>
-      <c r="E66" s="301"/>
+      <c r="D66" s="306"/>
+      <c r="E66" s="308"/>
       <c r="F66" s="74"/>
       <c r="G66" s="76"/>
       <c r="H66" s="76"/>
@@ -33063,12 +33072,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="C4:I4"/>
-    <mergeCell ref="C5:I5"/>
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="C9:I9"/>
-    <mergeCell ref="B13:L13"/>
     <mergeCell ref="D66:E66"/>
     <mergeCell ref="D63:E63"/>
     <mergeCell ref="B59:D59"/>
@@ -33080,6 +33083,12 @@
     <mergeCell ref="D30:E30"/>
     <mergeCell ref="D34:E34"/>
     <mergeCell ref="D37:E37"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="C5:I5"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="C9:I9"/>
+    <mergeCell ref="B13:L13"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="I15" r:id="rId1" display="foo@mulodo.com"/>
@@ -33178,7 +33187,7 @@
       <c r="B4" s="66" t="s">
         <v>121</v>
       </c>
-      <c r="C4" s="300" t="s">
+      <c r="C4" s="306" t="s">
         <v>346</v>
       </c>
       <c r="D4" s="307"/>
@@ -33186,7 +33195,7 @@
       <c r="F4" s="307"/>
       <c r="G4" s="307"/>
       <c r="H4" s="307"/>
-      <c r="I4" s="301"/>
+      <c r="I4" s="308"/>
       <c r="J4" s="62"/>
       <c r="K4" s="62"/>
       <c r="L4" s="62"/>
@@ -33199,7 +33208,7 @@
       <c r="B5" s="66" t="s">
         <v>122</v>
       </c>
-      <c r="C5" s="300" t="s">
+      <c r="C5" s="306" t="s">
         <v>346</v>
       </c>
       <c r="D5" s="307"/>
@@ -33207,7 +33216,7 @@
       <c r="F5" s="307"/>
       <c r="G5" s="307"/>
       <c r="H5" s="307"/>
-      <c r="I5" s="301"/>
+      <c r="I5" s="308"/>
       <c r="J5" s="62"/>
       <c r="K5" s="62"/>
       <c r="L5" s="62"/>
@@ -33241,7 +33250,7 @@
       <c r="B7" s="66" t="s">
         <v>167</v>
       </c>
-      <c r="C7" s="300" t="s">
+      <c r="C7" s="306" t="s">
         <v>154</v>
       </c>
       <c r="D7" s="307"/>
@@ -33249,7 +33258,7 @@
       <c r="F7" s="307"/>
       <c r="G7" s="307"/>
       <c r="H7" s="307"/>
-      <c r="I7" s="301"/>
+      <c r="I7" s="308"/>
       <c r="J7" s="62"/>
       <c r="K7" s="62"/>
       <c r="L7" s="62"/>
@@ -33283,7 +33292,7 @@
       <c r="B9" s="66" t="s">
         <v>196</v>
       </c>
-      <c r="C9" s="300" t="s">
+      <c r="C9" s="306" t="s">
         <v>197</v>
       </c>
       <c r="D9" s="307"/>
@@ -33291,7 +33300,7 @@
       <c r="F9" s="307"/>
       <c r="G9" s="307"/>
       <c r="H9" s="307"/>
-      <c r="I9" s="301"/>
+      <c r="I9" s="308"/>
       <c r="J9" s="62"/>
       <c r="K9" s="62"/>
       <c r="L9" s="62"/>
@@ -33354,19 +33363,19 @@
     </row>
     <row r="13" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A13" s="62"/>
-      <c r="B13" s="302" t="s">
+      <c r="B13" s="309" t="s">
         <v>123</v>
       </c>
-      <c r="C13" s="303"/>
-      <c r="D13" s="303"/>
-      <c r="E13" s="303"/>
-      <c r="F13" s="303"/>
-      <c r="G13" s="303"/>
-      <c r="H13" s="303"/>
-      <c r="I13" s="303"/>
-      <c r="J13" s="303"/>
-      <c r="K13" s="303"/>
-      <c r="L13" s="304"/>
+      <c r="C13" s="310"/>
+      <c r="D13" s="310"/>
+      <c r="E13" s="310"/>
+      <c r="F13" s="310"/>
+      <c r="G13" s="310"/>
+      <c r="H13" s="310"/>
+      <c r="I13" s="310"/>
+      <c r="J13" s="310"/>
+      <c r="K13" s="310"/>
+      <c r="L13" s="311"/>
       <c r="M13" s="62"/>
       <c r="N13" s="62"/>
       <c r="O13" s="62"/>
@@ -33395,11 +33404,11 @@
       <c r="I14" s="151" t="s">
         <v>130</v>
       </c>
-      <c r="J14" s="309" t="s">
+      <c r="J14" s="315" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="309"/>
-      <c r="L14" s="309"/>
+      <c r="K14" s="315"/>
+      <c r="L14" s="315"/>
       <c r="M14" s="62"/>
       <c r="N14" s="62"/>
       <c r="O14" s="62"/>
@@ -33428,11 +33437,11 @@
       <c r="I15" s="229" t="s">
         <v>380</v>
       </c>
-      <c r="J15" s="306" t="s">
+      <c r="J15" s="313" t="s">
         <v>376</v>
       </c>
-      <c r="K15" s="306"/>
-      <c r="L15" s="306"/>
+      <c r="K15" s="313"/>
+      <c r="L15" s="313"/>
       <c r="M15" s="62"/>
       <c r="N15" s="62"/>
       <c r="O15" s="62"/>
@@ -33461,11 +33470,11 @@
       <c r="I16" s="229" t="s">
         <v>347</v>
       </c>
-      <c r="J16" s="306" t="s">
+      <c r="J16" s="313" t="s">
         <v>348</v>
       </c>
-      <c r="K16" s="306"/>
-      <c r="L16" s="306"/>
+      <c r="K16" s="313"/>
+      <c r="L16" s="313"/>
       <c r="M16" s="62"/>
       <c r="N16" s="62"/>
       <c r="O16" s="62"/>
@@ -33527,11 +33536,11 @@
       <c r="I18" s="231">
         <v>1</v>
       </c>
-      <c r="J18" s="308" t="s">
+      <c r="J18" s="314" t="s">
         <v>338</v>
       </c>
       <c r="K18" s="307"/>
-      <c r="L18" s="301"/>
+      <c r="L18" s="308"/>
       <c r="M18" s="62"/>
       <c r="N18" s="62"/>
       <c r="O18" s="62"/>
@@ -33693,11 +33702,11 @@
     </row>
     <row r="28" spans="1:15" s="83" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A28" s="65"/>
-      <c r="B28" s="310" t="s">
+      <c r="B28" s="316" t="s">
         <v>342</v>
       </c>
-      <c r="C28" s="310"/>
-      <c r="D28" s="310"/>
+      <c r="C28" s="316"/>
+      <c r="D28" s="316"/>
       <c r="E28" s="81"/>
       <c r="F28" s="82"/>
       <c r="G28" s="81"/>
@@ -33809,10 +33818,10 @@
       <c r="A32" s="62"/>
       <c r="B32" s="86"/>
       <c r="C32" s="96"/>
-      <c r="D32" s="300" t="s">
+      <c r="D32" s="306" t="s">
         <v>185</v>
       </c>
-      <c r="E32" s="301"/>
+      <c r="E32" s="308"/>
       <c r="F32" s="74" t="s">
         <v>140</v>
       </c>
@@ -33842,10 +33851,10 @@
       <c r="A33" s="62"/>
       <c r="B33" s="86"/>
       <c r="C33" s="91"/>
-      <c r="D33" s="308" t="s">
+      <c r="D33" s="314" t="s">
         <v>186</v>
       </c>
-      <c r="E33" s="301"/>
+      <c r="E33" s="308"/>
       <c r="F33" s="120" t="s">
         <v>187</v>
       </c>
@@ -33908,8 +33917,8 @@
       <c r="A35" s="62"/>
       <c r="B35" s="92"/>
       <c r="C35" s="93"/>
-      <c r="D35" s="300"/>
-      <c r="E35" s="301"/>
+      <c r="D35" s="306"/>
+      <c r="E35" s="308"/>
       <c r="F35" s="74"/>
       <c r="G35" s="76"/>
       <c r="H35" s="76"/>
@@ -34195,11 +34204,11 @@
     </row>
     <row r="52" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A52" s="62"/>
-      <c r="B52" s="314" t="s">
+      <c r="B52" s="320" t="s">
         <v>360</v>
       </c>
-      <c r="C52" s="314"/>
-      <c r="D52" s="314"/>
+      <c r="C52" s="320"/>
+      <c r="D52" s="320"/>
       <c r="E52" s="62"/>
       <c r="F52" s="62"/>
       <c r="G52" s="62"/>
@@ -34313,10 +34322,10 @@
       <c r="A56" s="62"/>
       <c r="B56" s="86"/>
       <c r="C56" s="96"/>
-      <c r="D56" s="308" t="s">
+      <c r="D56" s="314" t="s">
         <v>185</v>
       </c>
-      <c r="E56" s="301"/>
+      <c r="E56" s="308"/>
       <c r="F56" s="74" t="s">
         <v>140</v>
       </c>
@@ -34410,8 +34419,8 @@
       <c r="A59" s="62"/>
       <c r="B59" s="92"/>
       <c r="C59" s="93"/>
-      <c r="D59" s="300"/>
-      <c r="E59" s="301"/>
+      <c r="D59" s="306"/>
+      <c r="E59" s="308"/>
       <c r="F59" s="74"/>
       <c r="G59" s="76"/>
       <c r="H59" s="76"/>
@@ -34784,22 +34793,22 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="C4:I4"/>
-    <mergeCell ref="C5:I5"/>
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="C9:I9"/>
-    <mergeCell ref="B13:L13"/>
-    <mergeCell ref="J15:L15"/>
-    <mergeCell ref="J18:L18"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="J16:L16"/>
-    <mergeCell ref="J14:L14"/>
     <mergeCell ref="D32:E32"/>
     <mergeCell ref="D35:E35"/>
     <mergeCell ref="D59:E59"/>
     <mergeCell ref="D56:E56"/>
     <mergeCell ref="D33:E33"/>
     <mergeCell ref="B52:D52"/>
+    <mergeCell ref="J15:L15"/>
+    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="C5:I5"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="C9:I9"/>
+    <mergeCell ref="B13:L13"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="I15" r:id="rId1" display="foo@mulodo.com"/>
@@ -35496,7 +35505,7 @@
       <c r="B4" s="66" t="s">
         <v>121</v>
       </c>
-      <c r="C4" s="300" t="s">
+      <c r="C4" s="306" t="s">
         <v>241</v>
       </c>
       <c r="D4" s="307"/>
@@ -35504,7 +35513,7 @@
       <c r="F4" s="307"/>
       <c r="G4" s="307"/>
       <c r="H4" s="307"/>
-      <c r="I4" s="301"/>
+      <c r="I4" s="308"/>
       <c r="J4" s="62"/>
       <c r="K4" s="62"/>
       <c r="L4" s="62"/>
@@ -35517,7 +35526,7 @@
       <c r="B5" s="66" t="s">
         <v>122</v>
       </c>
-      <c r="C5" s="300" t="s">
+      <c r="C5" s="306" t="s">
         <v>241</v>
       </c>
       <c r="D5" s="307"/>
@@ -35525,7 +35534,7 @@
       <c r="F5" s="307"/>
       <c r="G5" s="307"/>
       <c r="H5" s="307"/>
-      <c r="I5" s="301"/>
+      <c r="I5" s="308"/>
       <c r="J5" s="62"/>
       <c r="K5" s="62"/>
       <c r="L5" s="62"/>
@@ -35559,7 +35568,7 @@
       <c r="B7" s="66" t="s">
         <v>167</v>
       </c>
-      <c r="C7" s="300" t="s">
+      <c r="C7" s="306" t="s">
         <v>230</v>
       </c>
       <c r="D7" s="307"/>
@@ -35567,7 +35576,7 @@
       <c r="F7" s="307"/>
       <c r="G7" s="307"/>
       <c r="H7" s="307"/>
-      <c r="I7" s="301"/>
+      <c r="I7" s="308"/>
       <c r="J7" s="62"/>
       <c r="K7" s="62"/>
       <c r="L7" s="62"/>
@@ -35601,7 +35610,7 @@
       <c r="B9" s="66" t="s">
         <v>196</v>
       </c>
-      <c r="C9" s="300" t="s">
+      <c r="C9" s="306" t="s">
         <v>197</v>
       </c>
       <c r="D9" s="307"/>
@@ -35609,7 +35618,7 @@
       <c r="F9" s="307"/>
       <c r="G9" s="307"/>
       <c r="H9" s="307"/>
-      <c r="I9" s="301"/>
+      <c r="I9" s="308"/>
       <c r="J9" s="62"/>
       <c r="K9" s="62"/>
       <c r="L9" s="62"/>
@@ -35672,19 +35681,19 @@
     </row>
     <row r="13" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A13" s="62"/>
-      <c r="B13" s="302" t="s">
+      <c r="B13" s="309" t="s">
         <v>123</v>
       </c>
-      <c r="C13" s="303"/>
-      <c r="D13" s="303"/>
-      <c r="E13" s="303"/>
-      <c r="F13" s="303"/>
-      <c r="G13" s="303"/>
-      <c r="H13" s="303"/>
-      <c r="I13" s="303"/>
-      <c r="J13" s="303"/>
-      <c r="K13" s="303"/>
-      <c r="L13" s="304"/>
+      <c r="C13" s="310"/>
+      <c r="D13" s="310"/>
+      <c r="E13" s="310"/>
+      <c r="F13" s="310"/>
+      <c r="G13" s="310"/>
+      <c r="H13" s="310"/>
+      <c r="I13" s="310"/>
+      <c r="J13" s="310"/>
+      <c r="K13" s="310"/>
+      <c r="L13" s="311"/>
       <c r="M13" s="62"/>
       <c r="N13" s="62"/>
       <c r="O13" s="62"/>
@@ -35713,11 +35722,11 @@
       <c r="I14" s="151" t="s">
         <v>130</v>
       </c>
-      <c r="J14" s="309" t="s">
+      <c r="J14" s="315" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="309"/>
-      <c r="L14" s="309"/>
+      <c r="K14" s="315"/>
+      <c r="L14" s="315"/>
       <c r="M14" s="62"/>
       <c r="N14" s="62"/>
       <c r="O14" s="62"/>
@@ -35746,11 +35755,11 @@
       <c r="I15" s="229" t="s">
         <v>380</v>
       </c>
-      <c r="J15" s="306" t="s">
+      <c r="J15" s="313" t="s">
         <v>376</v>
       </c>
-      <c r="K15" s="306"/>
-      <c r="L15" s="306"/>
+      <c r="K15" s="313"/>
+      <c r="L15" s="313"/>
       <c r="M15" s="62"/>
       <c r="N15" s="62"/>
       <c r="O15" s="62"/>
@@ -35779,11 +35788,11 @@
       <c r="I16" s="229" t="s">
         <v>265</v>
       </c>
-      <c r="J16" s="306" t="s">
+      <c r="J16" s="313" t="s">
         <v>353</v>
       </c>
-      <c r="K16" s="306"/>
-      <c r="L16" s="306"/>
+      <c r="K16" s="313"/>
+      <c r="L16" s="313"/>
       <c r="M16" s="62"/>
       <c r="N16" s="62"/>
       <c r="O16" s="62"/>
@@ -35812,11 +35821,11 @@
       <c r="I17" s="229" t="s">
         <v>354</v>
       </c>
-      <c r="J17" s="300" t="s">
+      <c r="J17" s="306" t="s">
         <v>355</v>
       </c>
       <c r="K17" s="307"/>
-      <c r="L17" s="301"/>
+      <c r="L17" s="308"/>
       <c r="M17" s="62"/>
       <c r="N17" s="62"/>
       <c r="O17" s="62"/>
@@ -35845,9 +35854,9 @@
       <c r="I18" s="228">
         <v>1</v>
       </c>
-      <c r="J18" s="300"/>
+      <c r="J18" s="306"/>
       <c r="K18" s="307"/>
-      <c r="L18" s="301"/>
+      <c r="L18" s="308"/>
       <c r="M18" s="62"/>
       <c r="N18" s="62"/>
       <c r="O18" s="62"/>
@@ -36009,11 +36018,11 @@
     </row>
     <row r="28" spans="1:15" s="83" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A28" s="65"/>
-      <c r="B28" s="310" t="s">
+      <c r="B28" s="316" t="s">
         <v>357</v>
       </c>
-      <c r="C28" s="310"/>
-      <c r="D28" s="310"/>
+      <c r="C28" s="316"/>
+      <c r="D28" s="316"/>
       <c r="E28" s="81"/>
       <c r="F28" s="82"/>
       <c r="G28" s="81"/>
@@ -36125,10 +36134,10 @@
       <c r="A32" s="62"/>
       <c r="B32" s="86"/>
       <c r="C32" s="96"/>
-      <c r="D32" s="300" t="s">
+      <c r="D32" s="306" t="s">
         <v>185</v>
       </c>
-      <c r="E32" s="301"/>
+      <c r="E32" s="308"/>
       <c r="F32" s="74" t="s">
         <v>140</v>
       </c>
@@ -36158,10 +36167,10 @@
       <c r="A33" s="62"/>
       <c r="B33" s="86"/>
       <c r="C33" s="91"/>
-      <c r="D33" s="308" t="s">
+      <c r="D33" s="314" t="s">
         <v>186</v>
       </c>
-      <c r="E33" s="301"/>
+      <c r="E33" s="308"/>
       <c r="F33" s="120" t="s">
         <v>187</v>
       </c>
@@ -36224,8 +36233,8 @@
       <c r="A35" s="62"/>
       <c r="B35" s="92"/>
       <c r="C35" s="93"/>
-      <c r="D35" s="300"/>
-      <c r="E35" s="301"/>
+      <c r="D35" s="306"/>
+      <c r="E35" s="308"/>
       <c r="F35" s="74"/>
       <c r="G35" s="76"/>
       <c r="H35" s="76"/>
@@ -36530,11 +36539,11 @@
     </row>
     <row r="53" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A53" s="62"/>
-      <c r="B53" s="314" t="s">
+      <c r="B53" s="320" t="s">
         <v>358</v>
       </c>
-      <c r="C53" s="314"/>
-      <c r="D53" s="314"/>
+      <c r="C53" s="320"/>
+      <c r="D53" s="320"/>
       <c r="E53" s="62"/>
       <c r="F53" s="62"/>
       <c r="G53" s="62"/>
@@ -36648,10 +36657,10 @@
       <c r="A57" s="62"/>
       <c r="B57" s="86"/>
       <c r="C57" s="96"/>
-      <c r="D57" s="308" t="s">
+      <c r="D57" s="314" t="s">
         <v>185</v>
       </c>
-      <c r="E57" s="301"/>
+      <c r="E57" s="308"/>
       <c r="F57" s="74" t="s">
         <v>140</v>
       </c>
@@ -36745,8 +36754,8 @@
       <c r="A60" s="62"/>
       <c r="B60" s="92"/>
       <c r="C60" s="93"/>
-      <c r="D60" s="300"/>
-      <c r="E60" s="301"/>
+      <c r="D60" s="306"/>
+      <c r="E60" s="308"/>
       <c r="F60" s="74"/>
       <c r="G60" s="76"/>
       <c r="H60" s="76"/>
@@ -37119,23 +37128,23 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="D60:E60"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="B53:D53"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="J15:L15"/>
+    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="J16:L16"/>
     <mergeCell ref="J14:L14"/>
     <mergeCell ref="C4:I4"/>
     <mergeCell ref="C5:I5"/>
     <mergeCell ref="C7:I7"/>
     <mergeCell ref="C9:I9"/>
     <mergeCell ref="B13:L13"/>
-    <mergeCell ref="J15:L15"/>
-    <mergeCell ref="J18:L18"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="J16:L16"/>
-    <mergeCell ref="D60:E60"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="J17:L17"/>
-    <mergeCell ref="B53:D53"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="D35:E35"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="I15" r:id="rId1" display="foo@mulodo.com"/>
@@ -37233,7 +37242,7 @@
       <c r="B4" s="66" t="s">
         <v>121</v>
       </c>
-      <c r="C4" s="300" t="s">
+      <c r="C4" s="306" t="s">
         <v>242</v>
       </c>
       <c r="D4" s="307"/>
@@ -37241,7 +37250,7 @@
       <c r="F4" s="307"/>
       <c r="G4" s="307"/>
       <c r="H4" s="307"/>
-      <c r="I4" s="301"/>
+      <c r="I4" s="308"/>
       <c r="J4" s="62"/>
       <c r="K4" s="62"/>
       <c r="L4" s="62"/>
@@ -37254,7 +37263,7 @@
       <c r="B5" s="66" t="s">
         <v>122</v>
       </c>
-      <c r="C5" s="300" t="s">
+      <c r="C5" s="306" t="s">
         <v>242</v>
       </c>
       <c r="D5" s="307"/>
@@ -37262,7 +37271,7 @@
       <c r="F5" s="307"/>
       <c r="G5" s="307"/>
       <c r="H5" s="307"/>
-      <c r="I5" s="301"/>
+      <c r="I5" s="308"/>
       <c r="J5" s="62"/>
       <c r="K5" s="62"/>
       <c r="L5" s="62"/>
@@ -37296,7 +37305,7 @@
       <c r="B7" s="66" t="s">
         <v>167</v>
       </c>
-      <c r="C7" s="300" t="s">
+      <c r="C7" s="306" t="s">
         <v>242</v>
       </c>
       <c r="D7" s="307"/>
@@ -37304,7 +37313,7 @@
       <c r="F7" s="307"/>
       <c r="G7" s="307"/>
       <c r="H7" s="307"/>
-      <c r="I7" s="301"/>
+      <c r="I7" s="308"/>
       <c r="J7" s="62"/>
       <c r="K7" s="62"/>
       <c r="L7" s="62"/>
@@ -37338,7 +37347,7 @@
       <c r="B9" s="66" t="s">
         <v>196</v>
       </c>
-      <c r="C9" s="300" t="s">
+      <c r="C9" s="306" t="s">
         <v>197</v>
       </c>
       <c r="D9" s="307"/>
@@ -37346,7 +37355,7 @@
       <c r="F9" s="307"/>
       <c r="G9" s="307"/>
       <c r="H9" s="307"/>
-      <c r="I9" s="301"/>
+      <c r="I9" s="308"/>
       <c r="J9" s="62"/>
       <c r="K9" s="62"/>
       <c r="L9" s="62"/>
@@ -37409,19 +37418,19 @@
     </row>
     <row r="13" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A13" s="62"/>
-      <c r="B13" s="302" t="s">
+      <c r="B13" s="309" t="s">
         <v>123</v>
       </c>
-      <c r="C13" s="303"/>
-      <c r="D13" s="303"/>
-      <c r="E13" s="303"/>
-      <c r="F13" s="303"/>
-      <c r="G13" s="303"/>
-      <c r="H13" s="303"/>
-      <c r="I13" s="303"/>
-      <c r="J13" s="303"/>
-      <c r="K13" s="303"/>
-      <c r="L13" s="304"/>
+      <c r="C13" s="310"/>
+      <c r="D13" s="310"/>
+      <c r="E13" s="310"/>
+      <c r="F13" s="310"/>
+      <c r="G13" s="310"/>
+      <c r="H13" s="310"/>
+      <c r="I13" s="310"/>
+      <c r="J13" s="310"/>
+      <c r="K13" s="310"/>
+      <c r="L13" s="311"/>
       <c r="M13" s="62"/>
       <c r="N13" s="62"/>
       <c r="O13" s="62"/>
@@ -37450,11 +37459,11 @@
       <c r="I14" s="151" t="s">
         <v>130</v>
       </c>
-      <c r="J14" s="309" t="s">
+      <c r="J14" s="315" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="309"/>
-      <c r="L14" s="309"/>
+      <c r="K14" s="315"/>
+      <c r="L14" s="315"/>
       <c r="M14" s="62"/>
       <c r="N14" s="62"/>
       <c r="O14" s="62"/>
@@ -37483,11 +37492,11 @@
       <c r="I15" s="229" t="s">
         <v>380</v>
       </c>
-      <c r="J15" s="306" t="s">
+      <c r="J15" s="313" t="s">
         <v>376</v>
       </c>
-      <c r="K15" s="306"/>
-      <c r="L15" s="306"/>
+      <c r="K15" s="313"/>
+      <c r="L15" s="313"/>
       <c r="M15" s="62"/>
       <c r="N15" s="62"/>
       <c r="O15" s="62"/>
@@ -37516,11 +37525,11 @@
       <c r="I16" s="229" t="s">
         <v>265</v>
       </c>
-      <c r="J16" s="306" t="s">
+      <c r="J16" s="313" t="s">
         <v>364</v>
       </c>
-      <c r="K16" s="306"/>
-      <c r="L16" s="306"/>
+      <c r="K16" s="313"/>
+      <c r="L16" s="313"/>
       <c r="M16" s="62"/>
       <c r="N16" s="62"/>
       <c r="O16" s="62"/>
@@ -37549,9 +37558,9 @@
       <c r="I17" s="228">
         <v>2</v>
       </c>
-      <c r="J17" s="300"/>
+      <c r="J17" s="306"/>
       <c r="K17" s="307"/>
-      <c r="L17" s="301"/>
+      <c r="L17" s="308"/>
       <c r="M17" s="62"/>
       <c r="N17" s="62"/>
       <c r="O17" s="62"/>
@@ -37713,11 +37722,11 @@
     </row>
     <row r="27" spans="1:15" s="83" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A27" s="65"/>
-      <c r="B27" s="310" t="s">
+      <c r="B27" s="316" t="s">
         <v>361</v>
       </c>
-      <c r="C27" s="310"/>
-      <c r="D27" s="310"/>
+      <c r="C27" s="316"/>
+      <c r="D27" s="316"/>
       <c r="E27" s="81"/>
       <c r="F27" s="82"/>
       <c r="G27" s="81"/>
@@ -37829,10 +37838,10 @@
       <c r="A31" s="62"/>
       <c r="B31" s="86"/>
       <c r="C31" s="96"/>
-      <c r="D31" s="300" t="s">
+      <c r="D31" s="306" t="s">
         <v>185</v>
       </c>
-      <c r="E31" s="301"/>
+      <c r="E31" s="308"/>
       <c r="F31" s="74" t="s">
         <v>140</v>
       </c>
@@ -37862,10 +37871,10 @@
       <c r="A32" s="62"/>
       <c r="B32" s="86"/>
       <c r="C32" s="91"/>
-      <c r="D32" s="308" t="s">
+      <c r="D32" s="314" t="s">
         <v>186</v>
       </c>
-      <c r="E32" s="301"/>
+      <c r="E32" s="308"/>
       <c r="F32" s="120" t="s">
         <v>187</v>
       </c>
@@ -37928,8 +37937,8 @@
       <c r="A34" s="62"/>
       <c r="B34" s="92"/>
       <c r="C34" s="93"/>
-      <c r="D34" s="300"/>
-      <c r="E34" s="301"/>
+      <c r="D34" s="306"/>
+      <c r="E34" s="308"/>
       <c r="F34" s="74"/>
       <c r="G34" s="76"/>
       <c r="H34" s="76"/>
@@ -38234,11 +38243,11 @@
     </row>
     <row r="52" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A52" s="62"/>
-      <c r="B52" s="314" t="s">
+      <c r="B52" s="320" t="s">
         <v>369</v>
       </c>
-      <c r="C52" s="314"/>
-      <c r="D52" s="314"/>
+      <c r="C52" s="320"/>
+      <c r="D52" s="320"/>
       <c r="E52" s="62"/>
       <c r="F52" s="62"/>
       <c r="G52" s="62"/>
@@ -38352,10 +38361,10 @@
       <c r="A56" s="62"/>
       <c r="B56" s="86"/>
       <c r="C56" s="96"/>
-      <c r="D56" s="308" t="s">
+      <c r="D56" s="314" t="s">
         <v>185</v>
       </c>
-      <c r="E56" s="301"/>
+      <c r="E56" s="308"/>
       <c r="F56" s="74" t="s">
         <v>140</v>
       </c>
@@ -38449,8 +38458,8 @@
       <c r="A59" s="62"/>
       <c r="B59" s="92"/>
       <c r="C59" s="93"/>
-      <c r="D59" s="300"/>
-      <c r="E59" s="301"/>
+      <c r="D59" s="306"/>
+      <c r="E59" s="308"/>
       <c r="F59" s="74"/>
       <c r="G59" s="76"/>
       <c r="H59" s="76"/>
@@ -38823,22 +38832,22 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="D56:E56"/>
+    <mergeCell ref="B52:D52"/>
+    <mergeCell ref="J15:L15"/>
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="J16:L16"/>
     <mergeCell ref="J14:L14"/>
     <mergeCell ref="C4:I4"/>
     <mergeCell ref="C5:I5"/>
     <mergeCell ref="C7:I7"/>
     <mergeCell ref="C9:I9"/>
     <mergeCell ref="B13:L13"/>
-    <mergeCell ref="J15:L15"/>
-    <mergeCell ref="J17:L17"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="J16:L16"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="D56:E56"/>
-    <mergeCell ref="B52:D52"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="I15" r:id="rId1" display="foo@mulodo.com"/>
@@ -38937,7 +38946,7 @@
       <c r="B4" s="66" t="s">
         <v>121</v>
       </c>
-      <c r="C4" s="300" t="s">
+      <c r="C4" s="306" t="s">
         <v>243</v>
       </c>
       <c r="D4" s="307"/>
@@ -38945,7 +38954,7 @@
       <c r="F4" s="307"/>
       <c r="G4" s="307"/>
       <c r="H4" s="307"/>
-      <c r="I4" s="301"/>
+      <c r="I4" s="308"/>
       <c r="J4" s="62"/>
       <c r="K4" s="62"/>
       <c r="L4" s="62"/>
@@ -38958,7 +38967,7 @@
       <c r="B5" s="66" t="s">
         <v>122</v>
       </c>
-      <c r="C5" s="300" t="s">
+      <c r="C5" s="306" t="s">
         <v>243</v>
       </c>
       <c r="D5" s="307"/>
@@ -38966,7 +38975,7 @@
       <c r="F5" s="307"/>
       <c r="G5" s="307"/>
       <c r="H5" s="307"/>
-      <c r="I5" s="301"/>
+      <c r="I5" s="308"/>
       <c r="J5" s="62"/>
       <c r="K5" s="62"/>
       <c r="L5" s="62"/>
@@ -39000,7 +39009,7 @@
       <c r="B7" s="66" t="s">
         <v>167</v>
       </c>
-      <c r="C7" s="300" t="s">
+      <c r="C7" s="306" t="s">
         <v>232</v>
       </c>
       <c r="D7" s="307"/>
@@ -39008,7 +39017,7 @@
       <c r="F7" s="307"/>
       <c r="G7" s="307"/>
       <c r="H7" s="307"/>
-      <c r="I7" s="301"/>
+      <c r="I7" s="308"/>
       <c r="J7" s="62"/>
       <c r="K7" s="62"/>
       <c r="L7" s="62"/>
@@ -39042,7 +39051,7 @@
       <c r="B9" s="66" t="s">
         <v>196</v>
       </c>
-      <c r="C9" s="300" t="s">
+      <c r="C9" s="306" t="s">
         <v>197</v>
       </c>
       <c r="D9" s="307"/>
@@ -39050,7 +39059,7 @@
       <c r="F9" s="307"/>
       <c r="G9" s="307"/>
       <c r="H9" s="307"/>
-      <c r="I9" s="301"/>
+      <c r="I9" s="308"/>
       <c r="J9" s="62"/>
       <c r="K9" s="62"/>
       <c r="L9" s="62"/>
@@ -39113,19 +39122,19 @@
     </row>
     <row r="13" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A13" s="62"/>
-      <c r="B13" s="302" t="s">
+      <c r="B13" s="309" t="s">
         <v>123</v>
       </c>
-      <c r="C13" s="303"/>
-      <c r="D13" s="303"/>
-      <c r="E13" s="303"/>
-      <c r="F13" s="303"/>
-      <c r="G13" s="303"/>
-      <c r="H13" s="303"/>
-      <c r="I13" s="303"/>
-      <c r="J13" s="303"/>
-      <c r="K13" s="303"/>
-      <c r="L13" s="304"/>
+      <c r="C13" s="310"/>
+      <c r="D13" s="310"/>
+      <c r="E13" s="310"/>
+      <c r="F13" s="310"/>
+      <c r="G13" s="310"/>
+      <c r="H13" s="310"/>
+      <c r="I13" s="310"/>
+      <c r="J13" s="310"/>
+      <c r="K13" s="310"/>
+      <c r="L13" s="311"/>
       <c r="M13" s="62"/>
       <c r="N13" s="62"/>
       <c r="O13" s="62"/>
@@ -39154,11 +39163,11 @@
       <c r="I14" s="151" t="s">
         <v>130</v>
       </c>
-      <c r="J14" s="309" t="s">
+      <c r="J14" s="315" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="309"/>
-      <c r="L14" s="309"/>
+      <c r="K14" s="315"/>
+      <c r="L14" s="315"/>
       <c r="M14" s="62"/>
       <c r="N14" s="62"/>
       <c r="O14" s="62"/>
@@ -39187,11 +39196,11 @@
       <c r="I15" s="227" t="s">
         <v>387</v>
       </c>
-      <c r="J15" s="305" t="s">
+      <c r="J15" s="312" t="s">
         <v>376</v>
       </c>
-      <c r="K15" s="306"/>
-      <c r="L15" s="306"/>
+      <c r="K15" s="313"/>
+      <c r="L15" s="313"/>
       <c r="M15" s="62"/>
       <c r="N15" s="62"/>
       <c r="O15" s="62"/>
@@ -39220,11 +39229,11 @@
       <c r="I16" s="229" t="s">
         <v>265</v>
       </c>
-      <c r="J16" s="305" t="s">
+      <c r="J16" s="312" t="s">
         <v>460</v>
       </c>
-      <c r="K16" s="306"/>
-      <c r="L16" s="306"/>
+      <c r="K16" s="313"/>
+      <c r="L16" s="313"/>
       <c r="M16" s="62"/>
       <c r="N16" s="62"/>
       <c r="O16" s="62"/>
@@ -39386,11 +39395,11 @@
     </row>
     <row r="26" spans="1:15" s="83" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A26" s="65"/>
-      <c r="B26" s="310" t="s">
+      <c r="B26" s="316" t="s">
         <v>367</v>
       </c>
-      <c r="C26" s="310"/>
-      <c r="D26" s="310"/>
+      <c r="C26" s="316"/>
+      <c r="D26" s="316"/>
       <c r="E26" s="81"/>
       <c r="F26" s="82"/>
       <c r="G26" s="81"/>
@@ -39405,12 +39414,12 @@
     </row>
     <row r="27" spans="1:15" s="85" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A27" s="84"/>
-      <c r="B27" s="311" t="s">
+      <c r="B27" s="317" t="s">
         <v>125</v>
       </c>
-      <c r="C27" s="312"/>
-      <c r="D27" s="312"/>
-      <c r="E27" s="313"/>
+      <c r="C27" s="318"/>
+      <c r="D27" s="318"/>
+      <c r="E27" s="319"/>
       <c r="F27" s="151" t="s">
         <v>124</v>
       </c>
@@ -39502,10 +39511,10 @@
       <c r="A30" s="62"/>
       <c r="B30" s="86"/>
       <c r="C30" s="96"/>
-      <c r="D30" s="300" t="s">
+      <c r="D30" s="306" t="s">
         <v>185</v>
       </c>
-      <c r="E30" s="301"/>
+      <c r="E30" s="308"/>
       <c r="F30" s="74" t="s">
         <v>140</v>
       </c>
@@ -39535,10 +39544,10 @@
       <c r="A31" s="62"/>
       <c r="B31" s="86"/>
       <c r="C31" s="91"/>
-      <c r="D31" s="308" t="s">
+      <c r="D31" s="314" t="s">
         <v>186</v>
       </c>
-      <c r="E31" s="301"/>
+      <c r="E31" s="308"/>
       <c r="F31" s="120" t="s">
         <v>187</v>
       </c>
@@ -39601,10 +39610,10 @@
       <c r="A33" s="62"/>
       <c r="B33" s="86"/>
       <c r="C33" s="96"/>
-      <c r="D33" s="315" t="s">
+      <c r="D33" s="322" t="s">
         <v>352</v>
       </c>
-      <c r="E33" s="316"/>
+      <c r="E33" s="323"/>
       <c r="F33" s="74" t="s">
         <v>263</v>
       </c>
@@ -39690,10 +39699,10 @@
       <c r="A36" s="62"/>
       <c r="B36" s="86"/>
       <c r="C36" s="96"/>
-      <c r="D36" s="326" t="s">
+      <c r="D36" s="332" t="s">
         <v>438</v>
       </c>
-      <c r="E36" s="316"/>
+      <c r="E36" s="323"/>
       <c r="F36" s="120" t="s">
         <v>434</v>
       </c>
@@ -39721,10 +39730,10 @@
       <c r="A37" s="62"/>
       <c r="B37" s="92"/>
       <c r="C37" s="93"/>
-      <c r="D37" s="308" t="s">
+      <c r="D37" s="314" t="s">
         <v>337</v>
       </c>
-      <c r="E37" s="301"/>
+      <c r="E37" s="308"/>
       <c r="F37" s="120" t="s">
         <v>189</v>
       </c>
@@ -40143,11 +40152,11 @@
     </row>
     <row r="61" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A61" s="62"/>
-      <c r="B61" s="314" t="s">
+      <c r="B61" s="320" t="s">
         <v>368</v>
       </c>
-      <c r="C61" s="314"/>
-      <c r="D61" s="314"/>
+      <c r="C61" s="320"/>
+      <c r="D61" s="320"/>
       <c r="E61" s="62"/>
       <c r="F61" s="62"/>
       <c r="G61" s="62"/>
@@ -40261,10 +40270,10 @@
       <c r="A65" s="62"/>
       <c r="B65" s="86"/>
       <c r="C65" s="96"/>
-      <c r="D65" s="308" t="s">
+      <c r="D65" s="314" t="s">
         <v>185</v>
       </c>
-      <c r="E65" s="301"/>
+      <c r="E65" s="308"/>
       <c r="F65" s="74" t="s">
         <v>140</v>
       </c>
@@ -40358,8 +40367,8 @@
       <c r="A68" s="62"/>
       <c r="B68" s="92"/>
       <c r="C68" s="93"/>
-      <c r="D68" s="300"/>
-      <c r="E68" s="301"/>
+      <c r="D68" s="306"/>
+      <c r="E68" s="308"/>
       <c r="F68" s="74"/>
       <c r="G68" s="76"/>
       <c r="H68" s="76"/>
@@ -40732,6 +40741,15 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="D68:E68"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="B61:D61"/>
+    <mergeCell ref="D65:E65"/>
+    <mergeCell ref="D33:E33"/>
     <mergeCell ref="J14:L14"/>
     <mergeCell ref="J15:L15"/>
     <mergeCell ref="B26:D26"/>
@@ -40741,15 +40759,6 @@
     <mergeCell ref="C7:I7"/>
     <mergeCell ref="C9:I9"/>
     <mergeCell ref="B13:L13"/>
-    <mergeCell ref="D68:E68"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="J16:L16"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="B61:D61"/>
-    <mergeCell ref="D65:E65"/>
-    <mergeCell ref="D33:E33"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="I15" r:id="rId1" display="foo@mulodo.com"/>
@@ -40765,7 +40774,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O90"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A15" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A15" workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
@@ -40848,7 +40857,7 @@
       <c r="B4" s="66" t="s">
         <v>121</v>
       </c>
-      <c r="C4" s="300" t="s">
+      <c r="C4" s="306" t="s">
         <v>244</v>
       </c>
       <c r="D4" s="307"/>
@@ -40856,7 +40865,7 @@
       <c r="F4" s="307"/>
       <c r="G4" s="307"/>
       <c r="H4" s="307"/>
-      <c r="I4" s="301"/>
+      <c r="I4" s="308"/>
       <c r="J4" s="62"/>
       <c r="K4" s="62"/>
       <c r="L4" s="62"/>
@@ -40869,7 +40878,7 @@
       <c r="B5" s="66" t="s">
         <v>122</v>
       </c>
-      <c r="C5" s="300" t="s">
+      <c r="C5" s="306" t="s">
         <v>244</v>
       </c>
       <c r="D5" s="307"/>
@@ -40877,7 +40886,7 @@
       <c r="F5" s="307"/>
       <c r="G5" s="307"/>
       <c r="H5" s="307"/>
-      <c r="I5" s="301"/>
+      <c r="I5" s="308"/>
       <c r="J5" s="62"/>
       <c r="K5" s="62"/>
       <c r="L5" s="62"/>
@@ -40911,7 +40920,7 @@
       <c r="B7" s="66" t="s">
         <v>167</v>
       </c>
-      <c r="C7" s="300" t="s">
+      <c r="C7" s="306" t="s">
         <v>232</v>
       </c>
       <c r="D7" s="307"/>
@@ -40919,7 +40928,7 @@
       <c r="F7" s="307"/>
       <c r="G7" s="307"/>
       <c r="H7" s="307"/>
-      <c r="I7" s="301"/>
+      <c r="I7" s="308"/>
       <c r="J7" s="62"/>
       <c r="K7" s="62"/>
       <c r="L7" s="62"/>
@@ -40953,7 +40962,7 @@
       <c r="B9" s="66" t="s">
         <v>196</v>
       </c>
-      <c r="C9" s="300" t="s">
+      <c r="C9" s="306" t="s">
         <v>197</v>
       </c>
       <c r="D9" s="307"/>
@@ -40961,7 +40970,7 @@
       <c r="F9" s="307"/>
       <c r="G9" s="307"/>
       <c r="H9" s="307"/>
-      <c r="I9" s="301"/>
+      <c r="I9" s="308"/>
       <c r="J9" s="62"/>
       <c r="K9" s="62"/>
       <c r="L9" s="62"/>
@@ -41024,19 +41033,19 @@
     </row>
     <row r="13" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A13" s="62"/>
-      <c r="B13" s="302" t="s">
+      <c r="B13" s="309" t="s">
         <v>123</v>
       </c>
-      <c r="C13" s="303"/>
-      <c r="D13" s="303"/>
-      <c r="E13" s="303"/>
-      <c r="F13" s="303"/>
-      <c r="G13" s="303"/>
-      <c r="H13" s="303"/>
-      <c r="I13" s="303"/>
-      <c r="J13" s="303"/>
-      <c r="K13" s="303"/>
-      <c r="L13" s="304"/>
+      <c r="C13" s="310"/>
+      <c r="D13" s="310"/>
+      <c r="E13" s="310"/>
+      <c r="F13" s="310"/>
+      <c r="G13" s="310"/>
+      <c r="H13" s="310"/>
+      <c r="I13" s="310"/>
+      <c r="J13" s="310"/>
+      <c r="K13" s="310"/>
+      <c r="L13" s="311"/>
       <c r="M13" s="62"/>
       <c r="N13" s="62"/>
       <c r="O13" s="62"/>
@@ -41065,11 +41074,11 @@
       <c r="I14" s="151" t="s">
         <v>130</v>
       </c>
-      <c r="J14" s="309" t="s">
+      <c r="J14" s="315" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="309"/>
-      <c r="L14" s="309"/>
+      <c r="K14" s="315"/>
+      <c r="L14" s="315"/>
       <c r="M14" s="62"/>
       <c r="N14" s="62"/>
       <c r="O14" s="62"/>
@@ -41098,11 +41107,11 @@
       <c r="I15" s="227" t="s">
         <v>388</v>
       </c>
-      <c r="J15" s="305" t="s">
+      <c r="J15" s="312" t="s">
         <v>375</v>
       </c>
-      <c r="K15" s="306"/>
-      <c r="L15" s="306"/>
+      <c r="K15" s="313"/>
+      <c r="L15" s="313"/>
       <c r="M15" s="62"/>
       <c r="N15" s="62"/>
       <c r="O15" s="62"/>
@@ -41131,11 +41140,11 @@
       <c r="I16" s="229" t="s">
         <v>265</v>
       </c>
-      <c r="J16" s="306" t="s">
+      <c r="J16" s="313" t="s">
         <v>338</v>
       </c>
-      <c r="K16" s="306"/>
-      <c r="L16" s="306"/>
+      <c r="K16" s="313"/>
+      <c r="L16" s="313"/>
       <c r="M16" s="62"/>
       <c r="N16" s="62"/>
       <c r="O16" s="62"/>
@@ -41297,11 +41306,11 @@
     </row>
     <row r="26" spans="1:15" s="83" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A26" s="65"/>
-      <c r="B26" s="310" t="s">
+      <c r="B26" s="316" t="s">
         <v>372</v>
       </c>
-      <c r="C26" s="310"/>
-      <c r="D26" s="310"/>
+      <c r="C26" s="316"/>
+      <c r="D26" s="316"/>
       <c r="E26" s="81"/>
       <c r="F26" s="82"/>
       <c r="G26" s="81"/>
@@ -41316,12 +41325,12 @@
     </row>
     <row r="27" spans="1:15" s="85" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A27" s="84"/>
-      <c r="B27" s="311" t="s">
+      <c r="B27" s="317" t="s">
         <v>125</v>
       </c>
-      <c r="C27" s="312"/>
-      <c r="D27" s="312"/>
-      <c r="E27" s="313"/>
+      <c r="C27" s="318"/>
+      <c r="D27" s="318"/>
+      <c r="E27" s="319"/>
       <c r="F27" s="203" t="s">
         <v>124</v>
       </c>
@@ -41413,10 +41422,10 @@
       <c r="A30" s="62"/>
       <c r="B30" s="86"/>
       <c r="C30" s="96"/>
-      <c r="D30" s="300" t="s">
+      <c r="D30" s="306" t="s">
         <v>185</v>
       </c>
-      <c r="E30" s="301"/>
+      <c r="E30" s="308"/>
       <c r="F30" s="74" t="s">
         <v>140</v>
       </c>
@@ -41446,10 +41455,10 @@
       <c r="A31" s="62"/>
       <c r="B31" s="86"/>
       <c r="C31" s="91"/>
-      <c r="D31" s="308" t="s">
+      <c r="D31" s="314" t="s">
         <v>186</v>
       </c>
-      <c r="E31" s="301"/>
+      <c r="E31" s="308"/>
       <c r="F31" s="120" t="s">
         <v>187</v>
       </c>
@@ -41512,10 +41521,10 @@
       <c r="A33" s="62"/>
       <c r="B33" s="86"/>
       <c r="C33" s="96"/>
-      <c r="D33" s="315" t="s">
+      <c r="D33" s="322" t="s">
         <v>352</v>
       </c>
-      <c r="E33" s="316"/>
+      <c r="E33" s="323"/>
       <c r="F33" s="74" t="s">
         <v>263</v>
       </c>
@@ -41601,10 +41610,10 @@
       <c r="A36" s="62"/>
       <c r="B36" s="86"/>
       <c r="C36" s="96"/>
-      <c r="D36" s="326" t="s">
+      <c r="D36" s="332" t="s">
         <v>438</v>
       </c>
-      <c r="E36" s="316"/>
+      <c r="E36" s="323"/>
       <c r="F36" s="120" t="s">
         <v>434</v>
       </c>
@@ -41632,10 +41641,10 @@
       <c r="A37" s="62"/>
       <c r="B37" s="92"/>
       <c r="C37" s="93"/>
-      <c r="D37" s="308" t="s">
+      <c r="D37" s="314" t="s">
         <v>313</v>
       </c>
-      <c r="E37" s="301"/>
+      <c r="E37" s="308"/>
       <c r="F37" s="120" t="s">
         <v>314</v>
       </c>
@@ -42069,11 +42078,11 @@
     </row>
     <row r="62" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A62" s="62"/>
-      <c r="B62" s="314" t="s">
+      <c r="B62" s="320" t="s">
         <v>373</v>
       </c>
-      <c r="C62" s="314"/>
-      <c r="D62" s="314"/>
+      <c r="C62" s="320"/>
+      <c r="D62" s="320"/>
       <c r="E62" s="62"/>
       <c r="F62" s="62"/>
       <c r="G62" s="62"/>
@@ -42187,10 +42196,10 @@
       <c r="A66" s="62"/>
       <c r="B66" s="86"/>
       <c r="C66" s="96"/>
-      <c r="D66" s="308" t="s">
+      <c r="D66" s="314" t="s">
         <v>185</v>
       </c>
-      <c r="E66" s="301"/>
+      <c r="E66" s="308"/>
       <c r="F66" s="74" t="s">
         <v>140</v>
       </c>
@@ -42284,8 +42293,8 @@
       <c r="A69" s="62"/>
       <c r="B69" s="92"/>
       <c r="C69" s="93"/>
-      <c r="D69" s="300"/>
-      <c r="E69" s="301"/>
+      <c r="D69" s="306"/>
+      <c r="E69" s="308"/>
       <c r="F69" s="74"/>
       <c r="G69" s="76"/>
       <c r="H69" s="76"/>
@@ -42658,6 +42667,15 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="D69:E69"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="B62:D62"/>
+    <mergeCell ref="D66:E66"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="D37:E37"/>
     <mergeCell ref="J14:L14"/>
     <mergeCell ref="J15:L15"/>
     <mergeCell ref="B26:D26"/>
@@ -42667,15 +42685,6 @@
     <mergeCell ref="C7:I7"/>
     <mergeCell ref="C9:I9"/>
     <mergeCell ref="B13:L13"/>
-    <mergeCell ref="D69:E69"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="J16:L16"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="B62:D62"/>
-    <mergeCell ref="D66:E66"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="D37:E37"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="I15" r:id="rId1" display="foo@mulodo.com"/>
@@ -43106,10 +43115,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L68"/>
+  <dimension ref="A1:L69"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D21" sqref="D21:E21"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15"/>
@@ -43163,10 +43172,10 @@
       <c r="C4" s="97" t="s">
         <v>200</v>
       </c>
-      <c r="D4" s="279" t="s">
+      <c r="D4" s="283" t="s">
         <v>203</v>
       </c>
-      <c r="E4" s="279"/>
+      <c r="E4" s="283"/>
       <c r="F4" s="117" t="s">
         <v>201</v>
       </c>
@@ -43197,10 +43206,10 @@
       <c r="C6" s="179">
         <v>9999</v>
       </c>
-      <c r="D6" s="285" t="s">
+      <c r="D6" s="286" t="s">
         <v>397</v>
       </c>
-      <c r="E6" s="286"/>
+      <c r="E6" s="287"/>
       <c r="F6" s="179"/>
       <c r="G6" s="109"/>
       <c r="H6" s="106"/>
@@ -43241,10 +43250,10 @@
       <c r="C11" s="117" t="s">
         <v>200</v>
       </c>
-      <c r="D11" s="279" t="s">
+      <c r="D11" s="283" t="s">
         <v>203</v>
       </c>
-      <c r="E11" s="279"/>
+      <c r="E11" s="283"/>
       <c r="F11" s="117" t="s">
         <v>201</v>
       </c>
@@ -43252,8 +43261,8 @@
     <row r="12" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="B12" s="180"/>
       <c r="C12" s="181"/>
-      <c r="D12" s="280"/>
-      <c r="E12" s="280"/>
+      <c r="D12" s="295"/>
+      <c r="E12" s="295"/>
       <c r="F12" s="118"/>
       <c r="G12" s="109"/>
       <c r="H12" s="109"/>
@@ -43265,10 +43274,10 @@
       <c r="C13" s="181" t="s">
         <v>7</v>
       </c>
-      <c r="D13" s="281" t="s">
+      <c r="D13" s="294" t="s">
         <v>397</v>
       </c>
-      <c r="E13" s="281"/>
+      <c r="E13" s="294"/>
       <c r="F13" s="118"/>
       <c r="G13" s="109"/>
       <c r="H13" s="109"/>
@@ -43286,8 +43295,8 @@
       <c r="A15" s="182"/>
       <c r="B15" s="184"/>
       <c r="C15" s="185"/>
-      <c r="D15" s="287"/>
-      <c r="E15" s="287"/>
+      <c r="D15" s="285"/>
+      <c r="E15" s="285"/>
       <c r="F15" s="186"/>
       <c r="G15" s="183"/>
       <c r="H15" s="109"/>
@@ -43296,8 +43305,8 @@
       <c r="A16" s="182"/>
       <c r="B16" s="184"/>
       <c r="C16" s="185"/>
-      <c r="D16" s="287"/>
-      <c r="E16" s="287"/>
+      <c r="D16" s="285"/>
+      <c r="E16" s="285"/>
       <c r="F16" s="186"/>
       <c r="G16" s="183"/>
       <c r="H16" s="109"/>
@@ -43317,10 +43326,10 @@
       <c r="C18" s="187" t="s">
         <v>200</v>
       </c>
-      <c r="D18" s="279" t="s">
+      <c r="D18" s="283" t="s">
         <v>203</v>
       </c>
-      <c r="E18" s="279"/>
+      <c r="E18" s="283"/>
       <c r="F18" s="117" t="s">
         <v>201</v>
       </c>
@@ -43332,10 +43341,10 @@
       <c r="C19" s="181" t="s">
         <v>8</v>
       </c>
-      <c r="D19" s="277" t="s">
+      <c r="D19" s="290" t="s">
         <v>391</v>
       </c>
-      <c r="E19" s="278"/>
+      <c r="E19" s="291"/>
       <c r="F19" s="119"/>
       <c r="G19" s="109"/>
       <c r="H19" s="109"/>
@@ -43347,10 +43356,10 @@
       <c r="C20" s="181" t="s">
         <v>9</v>
       </c>
-      <c r="D20" s="277" t="s">
+      <c r="D20" s="290" t="s">
         <v>393</v>
       </c>
-      <c r="E20" s="278"/>
+      <c r="E20" s="291"/>
       <c r="F20" s="118"/>
       <c r="G20" s="109"/>
       <c r="H20" s="109"/>
@@ -43362,10 +43371,10 @@
       <c r="C21" s="181" t="s">
         <v>10</v>
       </c>
-      <c r="D21" s="285" t="s">
+      <c r="D21" s="286" t="s">
         <v>392</v>
       </c>
-      <c r="E21" s="286"/>
+      <c r="E21" s="287"/>
       <c r="F21" s="118"/>
       <c r="G21" s="109"/>
       <c r="H21" s="109"/>
@@ -43377,10 +43386,10 @@
       <c r="C22" s="181" t="s">
         <v>11</v>
       </c>
-      <c r="D22" s="285" t="s">
+      <c r="D22" s="286" t="s">
         <v>394</v>
       </c>
-      <c r="E22" s="286"/>
+      <c r="E22" s="287"/>
       <c r="F22" s="118"/>
       <c r="G22" s="109"/>
       <c r="H22" s="109"/>
@@ -43392,10 +43401,10 @@
       <c r="C23" s="181" t="s">
         <v>12</v>
       </c>
-      <c r="D23" s="285" t="s">
+      <c r="D23" s="286" t="s">
         <v>395</v>
       </c>
-      <c r="E23" s="286"/>
+      <c r="E23" s="287"/>
       <c r="F23" s="118"/>
       <c r="G23" s="109"/>
       <c r="H23" s="109"/>
@@ -43407,25 +43416,25 @@
       <c r="C24" s="181" t="s">
         <v>13</v>
       </c>
-      <c r="D24" s="285" t="s">
+      <c r="D24" s="286" t="s">
         <v>396</v>
       </c>
-      <c r="E24" s="286"/>
+      <c r="E24" s="287"/>
       <c r="F24" s="118"/>
       <c r="G24" s="109"/>
       <c r="H24" s="109"/>
     </row>
     <row r="25" spans="2:8" ht="20.100000000000001" customHeight="1">
-      <c r="B25" s="180">
+      <c r="B25" s="232">
         <v>7</v>
       </c>
       <c r="C25" s="181" t="s">
         <v>15</v>
       </c>
-      <c r="D25" s="285" t="s">
-        <v>398</v>
-      </c>
-      <c r="E25" s="286"/>
+      <c r="D25" s="286" t="s">
+        <v>496</v>
+      </c>
+      <c r="E25" s="287"/>
       <c r="F25" s="118"/>
       <c r="G25" s="109"/>
       <c r="H25" s="109"/>
@@ -43437,10 +43446,10 @@
       <c r="C26" s="181" t="s">
         <v>76</v>
       </c>
-      <c r="D26" s="285" t="s">
-        <v>401</v>
-      </c>
-      <c r="E26" s="286"/>
+      <c r="D26" s="286" t="s">
+        <v>398</v>
+      </c>
+      <c r="E26" s="287"/>
       <c r="F26" s="118"/>
       <c r="G26" s="109"/>
       <c r="H26" s="109"/>
@@ -43452,10 +43461,10 @@
       <c r="C27" s="181" t="s">
         <v>81</v>
       </c>
-      <c r="D27" s="285" t="s">
-        <v>402</v>
-      </c>
-      <c r="E27" s="286"/>
+      <c r="D27" s="286" t="s">
+        <v>401</v>
+      </c>
+      <c r="E27" s="287"/>
       <c r="F27" s="118"/>
       <c r="G27" s="109"/>
       <c r="H27" s="109"/>
@@ -43467,74 +43476,78 @@
       <c r="C28" s="181" t="s">
         <v>400</v>
       </c>
-      <c r="D28" s="285" t="s">
-        <v>403</v>
-      </c>
-      <c r="E28" s="286"/>
+      <c r="D28" s="286" t="s">
+        <v>402</v>
+      </c>
+      <c r="E28" s="287"/>
       <c r="F28" s="118"/>
       <c r="G28" s="109"/>
       <c r="H28" s="109"/>
     </row>
     <row r="29" spans="2:8" ht="20.100000000000001" customHeight="1">
-      <c r="B29" s="180"/>
-      <c r="C29" s="181"/>
-      <c r="D29" s="285"/>
-      <c r="E29" s="286"/>
+      <c r="B29" s="180">
+        <v>11</v>
+      </c>
+      <c r="C29" s="181" t="s">
+        <v>497</v>
+      </c>
+      <c r="D29" s="286" t="s">
+        <v>403</v>
+      </c>
+      <c r="E29" s="287"/>
       <c r="F29" s="118"/>
       <c r="G29" s="109"/>
       <c r="H29" s="109"/>
     </row>
-    <row r="32" spans="2:8" ht="15.75">
-      <c r="B32" s="146" t="s">
+    <row r="30" spans="2:8" ht="20.100000000000001" customHeight="1">
+      <c r="B30" s="180"/>
+      <c r="C30" s="181"/>
+      <c r="D30" s="286"/>
+      <c r="E30" s="287"/>
+      <c r="F30" s="118"/>
+      <c r="G30" s="109"/>
+      <c r="H30" s="109"/>
+    </row>
+    <row r="33" spans="2:6" ht="15.75">
+      <c r="B33" s="146" t="s">
         <v>257</v>
       </c>
-      <c r="C32" s="112"/>
-      <c r="D32" s="112"/>
-      <c r="E32" s="106"/>
-    </row>
-    <row r="33" spans="2:6" ht="15.75">
-      <c r="B33" s="108"/>
-      <c r="C33" s="117" t="s">
+      <c r="C33" s="112"/>
+      <c r="D33" s="112"/>
+      <c r="E33" s="106"/>
+    </row>
+    <row r="34" spans="2:6" ht="15.75">
+      <c r="B34" s="108"/>
+      <c r="C34" s="117" t="s">
         <v>200</v>
       </c>
-      <c r="D33" s="279" t="s">
+      <c r="D34" s="283" t="s">
         <v>203</v>
       </c>
-      <c r="E33" s="279"/>
-      <c r="F33" s="117" t="s">
+      <c r="E34" s="283"/>
+      <c r="F34" s="117" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="34" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B34" s="180">
+    <row r="35" spans="2:6" ht="20.100000000000001" customHeight="1">
+      <c r="B35" s="180">
         <v>1</v>
       </c>
-      <c r="C34" s="181" t="s">
+      <c r="C35" s="181" t="s">
         <v>87</v>
       </c>
-      <c r="D34" s="281" t="s">
+      <c r="D35" s="294" t="s">
         <v>389</v>
       </c>
-      <c r="E34" s="281"/>
-      <c r="F34" s="118"/>
-    </row>
-    <row r="35" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B35" s="110">
-        <v>2</v>
-      </c>
-      <c r="C35" s="111" t="s">
-        <v>88</v>
-      </c>
-      <c r="D35" s="284"/>
-      <c r="E35" s="284"/>
+      <c r="E35" s="294"/>
       <c r="F35" s="118"/>
     </row>
     <row r="36" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B36" s="110">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C36" s="111" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D36" s="284"/>
       <c r="E36" s="284"/>
@@ -43542,10 +43555,10 @@
     </row>
     <row r="37" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B37" s="110">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C37" s="111" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D37" s="284"/>
       <c r="E37" s="284"/>
@@ -43553,10 +43566,10 @@
     </row>
     <row r="38" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B38" s="110">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C38" s="111" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D38" s="284"/>
       <c r="E38" s="284"/>
@@ -43564,10 +43577,10 @@
     </row>
     <row r="39" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B39" s="110">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C39" s="111" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D39" s="284"/>
       <c r="E39" s="284"/>
@@ -43575,64 +43588,64 @@
     </row>
     <row r="40" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B40" s="110">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C40" s="111" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D40" s="284"/>
       <c r="E40" s="284"/>
       <c r="F40" s="118"/>
     </row>
-    <row r="42" spans="2:6" ht="15.75">
-      <c r="B42" s="107" t="s">
+    <row r="41" spans="2:6" ht="20.100000000000001" customHeight="1">
+      <c r="B41" s="110">
+        <v>7</v>
+      </c>
+      <c r="C41" s="111" t="s">
+        <v>93</v>
+      </c>
+      <c r="D41" s="284"/>
+      <c r="E41" s="284"/>
+      <c r="F41" s="118"/>
+    </row>
+    <row r="43" spans="2:6" ht="15.75">
+      <c r="B43" s="107" t="s">
         <v>106</v>
       </c>
-      <c r="C42" s="112"/>
-      <c r="D42" s="112"/>
-      <c r="E42" s="106"/>
-    </row>
-    <row r="43" spans="2:6" ht="15.75">
-      <c r="B43" s="108"/>
-      <c r="C43" s="124" t="s">
+      <c r="C43" s="112"/>
+      <c r="D43" s="112"/>
+      <c r="E43" s="106"/>
+    </row>
+    <row r="44" spans="2:6" ht="15.75">
+      <c r="B44" s="108"/>
+      <c r="C44" s="124" t="s">
         <v>200</v>
       </c>
-      <c r="D43" s="279" t="s">
+      <c r="D44" s="283" t="s">
         <v>203</v>
       </c>
-      <c r="E43" s="279"/>
-      <c r="F43" s="124" t="s">
+      <c r="E44" s="283"/>
+      <c r="F44" s="124" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="44" spans="2:6" ht="15" customHeight="1">
-      <c r="B44" s="110">
-        <v>1</v>
-      </c>
-      <c r="C44" s="111" t="s">
-        <v>406</v>
-      </c>
-      <c r="D44" s="284"/>
-      <c r="E44" s="284"/>
-      <c r="F44" s="118"/>
     </row>
     <row r="45" spans="2:6" ht="15" customHeight="1">
       <c r="B45" s="110">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C45" s="111" t="s">
-        <v>107</v>
+        <v>406</v>
       </c>
       <c r="D45" s="284"/>
       <c r="E45" s="284"/>
       <c r="F45" s="118"/>
     </row>
-    <row r="46" spans="2:6">
+    <row r="46" spans="2:6" ht="15" customHeight="1">
       <c r="B46" s="110">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C46" s="111" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D46" s="284"/>
       <c r="E46" s="284"/>
@@ -43640,10 +43653,10 @@
     </row>
     <row r="47" spans="2:6">
       <c r="B47" s="110">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C47" s="111" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D47" s="284"/>
       <c r="E47" s="284"/>
@@ -43651,134 +43664,146 @@
     </row>
     <row r="48" spans="2:6">
       <c r="B48" s="110">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C48" s="111" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D48" s="284"/>
       <c r="E48" s="284"/>
       <c r="F48" s="118"/>
     </row>
-    <row r="62" spans="2:6" ht="15.75">
-      <c r="B62" s="107" t="s">
+    <row r="49" spans="2:6">
+      <c r="B49" s="110">
+        <v>5</v>
+      </c>
+      <c r="C49" s="111" t="s">
+        <v>110</v>
+      </c>
+      <c r="D49" s="284"/>
+      <c r="E49" s="284"/>
+      <c r="F49" s="118"/>
+    </row>
+    <row r="63" spans="2:6" ht="15.75">
+      <c r="B63" s="107" t="s">
         <v>94</v>
       </c>
-      <c r="C62" s="112"/>
-      <c r="D62" s="112"/>
-      <c r="E62" s="106"/>
-    </row>
-    <row r="63" spans="2:6" ht="15.75">
-      <c r="B63" s="108"/>
-      <c r="C63" s="117" t="s">
+      <c r="C63" s="112"/>
+      <c r="D63" s="112"/>
+      <c r="E63" s="106"/>
+    </row>
+    <row r="64" spans="2:6" ht="15.75">
+      <c r="B64" s="108"/>
+      <c r="C64" s="117" t="s">
         <v>200</v>
       </c>
-      <c r="D63" s="279" t="s">
+      <c r="D64" s="283" t="s">
         <v>203</v>
       </c>
-      <c r="E63" s="279"/>
-      <c r="F63" s="117" t="s">
+      <c r="E64" s="283"/>
+      <c r="F64" s="117" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="64" spans="2:6" ht="15" customHeight="1">
-      <c r="B64" s="110">
-        <v>1</v>
-      </c>
-      <c r="C64" s="111" t="s">
-        <v>95</v>
-      </c>
-      <c r="D64" s="282"/>
-      <c r="E64" s="283"/>
-      <c r="F64" s="118"/>
     </row>
     <row r="65" spans="2:6" ht="15" customHeight="1">
       <c r="B65" s="110">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C65" s="111" t="s">
-        <v>96</v>
-      </c>
-      <c r="D65" s="282"/>
-      <c r="E65" s="283"/>
+        <v>95</v>
+      </c>
+      <c r="D65" s="292"/>
+      <c r="E65" s="293"/>
       <c r="F65" s="118"/>
     </row>
     <row r="66" spans="2:6" ht="15" customHeight="1">
       <c r="B66" s="110">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C66" s="111" t="s">
-        <v>97</v>
-      </c>
-      <c r="D66" s="282"/>
-      <c r="E66" s="283"/>
+        <v>96</v>
+      </c>
+      <c r="D66" s="292"/>
+      <c r="E66" s="293"/>
       <c r="F66" s="118"/>
     </row>
     <row r="67" spans="2:6" ht="15" customHeight="1">
       <c r="B67" s="110">
+        <v>3</v>
+      </c>
+      <c r="C67" s="111" t="s">
+        <v>97</v>
+      </c>
+      <c r="D67" s="292"/>
+      <c r="E67" s="293"/>
+      <c r="F67" s="118"/>
+    </row>
+    <row r="68" spans="2:6" ht="15" customHeight="1">
+      <c r="B68" s="110">
         <v>4</v>
       </c>
-      <c r="C67" s="111" t="s">
+      <c r="C68" s="111" t="s">
         <v>98</v>
       </c>
-      <c r="D67" s="282"/>
-      <c r="E67" s="283"/>
-      <c r="F67" s="118"/>
-    </row>
-    <row r="68" spans="2:6">
-      <c r="B68" s="110">
+      <c r="D68" s="292"/>
+      <c r="E68" s="293"/>
+      <c r="F68" s="118"/>
+    </row>
+    <row r="69" spans="2:6">
+      <c r="B69" s="110">
         <v>5</v>
       </c>
-      <c r="C68" s="111" t="s">
+      <c r="C69" s="111" t="s">
         <v>99</v>
       </c>
-      <c r="D68" s="282"/>
-      <c r="E68" s="283"/>
-      <c r="F68" s="118"/>
+      <c r="D69" s="292"/>
+      <c r="E69" s="293"/>
+      <c r="F69" s="118"/>
     </row>
   </sheetData>
-  <mergeCells count="41">
+  <mergeCells count="42">
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D68:E68"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D69:E69"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="D67:E67"/>
+    <mergeCell ref="D64:E64"/>
+    <mergeCell ref="D65:E65"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="D66:E66"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="D46:E46"/>
     <mergeCell ref="D4:E4"/>
-    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="D40:E40"/>
     <mergeCell ref="D15:E15"/>
     <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="D36:E36"/>
     <mergeCell ref="D23:E23"/>
     <mergeCell ref="D21:E21"/>
     <mergeCell ref="D5:E5"/>
     <mergeCell ref="D6:E6"/>
-    <mergeCell ref="D26:E26"/>
     <mergeCell ref="D27:E27"/>
     <mergeCell ref="D28:E28"/>
+    <mergeCell ref="D29:E29"/>
     <mergeCell ref="D24:E24"/>
     <mergeCell ref="D22:E22"/>
     <mergeCell ref="D19:E19"/>
-    <mergeCell ref="D68:E68"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="D66:E66"/>
-    <mergeCell ref="D63:E63"/>
-    <mergeCell ref="D64:E64"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="D65:E65"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D67:E67"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="D25:E25"/>
   </mergeCells>
   <phoneticPr fontId="14"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -43861,10 +43886,10 @@
       <c r="D4" s="97" t="s">
         <v>158</v>
       </c>
-      <c r="E4" s="290" t="s">
+      <c r="E4" s="296" t="s">
         <v>157</v>
       </c>
-      <c r="F4" s="291"/>
+      <c r="F4" s="297"/>
       <c r="G4" s="215"/>
       <c r="H4" s="216" t="s">
         <v>155</v>
@@ -43880,7 +43905,7 @@
       <c r="C5" s="152" t="s">
         <v>210</v>
       </c>
-      <c r="D5" s="292" t="s">
+      <c r="D5" s="298" t="s">
         <v>152</v>
       </c>
       <c r="E5" s="99" t="s">
@@ -43889,7 +43914,7 @@
       <c r="F5" s="100" t="s">
         <v>407</v>
       </c>
-      <c r="G5" s="327" t="s">
+      <c r="G5" s="233" t="s">
         <v>154</v>
       </c>
       <c r="H5" s="100" t="s">
@@ -43908,14 +43933,14 @@
       <c r="C6" s="152" t="s">
         <v>222</v>
       </c>
-      <c r="D6" s="293"/>
+      <c r="D6" s="299"/>
       <c r="E6" s="99" t="s">
         <v>154</v>
       </c>
       <c r="F6" s="206" t="s">
         <v>439</v>
       </c>
-      <c r="G6" s="328" t="s">
+      <c r="G6" s="234" t="s">
         <v>154</v>
       </c>
       <c r="H6" s="100" t="s">
@@ -43934,14 +43959,14 @@
       <c r="C7" s="152" t="s">
         <v>223</v>
       </c>
-      <c r="D7" s="293"/>
+      <c r="D7" s="299"/>
       <c r="E7" s="99" t="s">
         <v>154</v>
       </c>
       <c r="F7" s="206" t="s">
         <v>440</v>
       </c>
-      <c r="G7" s="328" t="s">
+      <c r="G7" s="234" t="s">
         <v>154</v>
       </c>
       <c r="H7" s="100" t="s">
@@ -43960,14 +43985,14 @@
       <c r="C8" s="152" t="s">
         <v>226</v>
       </c>
-      <c r="D8" s="293"/>
+      <c r="D8" s="299"/>
       <c r="E8" s="130" t="s">
         <v>230</v>
       </c>
       <c r="F8" s="132" t="s">
         <v>407</v>
       </c>
-      <c r="G8" s="329" t="s">
+      <c r="G8" s="235" t="s">
         <v>230</v>
       </c>
       <c r="H8" s="206" t="s">
@@ -43986,14 +44011,14 @@
       <c r="C9" s="152" t="s">
         <v>227</v>
       </c>
-      <c r="D9" s="293"/>
+      <c r="D9" s="299"/>
       <c r="E9" s="137" t="s">
         <v>232</v>
       </c>
       <c r="F9" s="100" t="s">
         <v>462</v>
       </c>
-      <c r="G9" s="327" t="s">
+      <c r="G9" s="233" t="s">
         <v>232</v>
       </c>
       <c r="H9" s="100" t="s">
@@ -44012,14 +44037,14 @@
       <c r="C10" s="152" t="s">
         <v>225</v>
       </c>
-      <c r="D10" s="293"/>
+      <c r="D10" s="299"/>
       <c r="E10" s="130" t="s">
         <v>230</v>
       </c>
       <c r="F10" s="206" t="s">
         <v>467</v>
       </c>
-      <c r="G10" s="328" t="s">
+      <c r="G10" s="234" t="s">
         <v>230</v>
       </c>
       <c r="H10" s="206" t="s">
@@ -44038,14 +44063,14 @@
       <c r="C11" s="152" t="s">
         <v>224</v>
       </c>
-      <c r="D11" s="294"/>
+      <c r="D11" s="300"/>
       <c r="E11" s="137" t="s">
         <v>232</v>
       </c>
       <c r="F11" s="100" t="s">
         <v>469</v>
       </c>
-      <c r="G11" s="327" t="s">
+      <c r="G11" s="233" t="s">
         <v>232</v>
       </c>
       <c r="H11" s="100" t="s">
@@ -44064,7 +44089,7 @@
       <c r="C12" s="161" t="s">
         <v>235</v>
       </c>
-      <c r="D12" s="295" t="s">
+      <c r="D12" s="301" t="s">
         <v>211</v>
       </c>
       <c r="E12" s="140" t="s">
@@ -44073,7 +44098,7 @@
       <c r="F12" s="142" t="s">
         <v>408</v>
       </c>
-      <c r="G12" s="330" t="s">
+      <c r="G12" s="236" t="s">
         <v>154</v>
       </c>
       <c r="H12" s="103" t="s">
@@ -44092,14 +44117,14 @@
       <c r="C13" s="161" t="s">
         <v>441</v>
       </c>
-      <c r="D13" s="296"/>
+      <c r="D13" s="302"/>
       <c r="E13" s="209" t="s">
         <v>230</v>
       </c>
       <c r="F13" s="103" t="s">
         <v>473</v>
       </c>
-      <c r="G13" s="330" t="s">
+      <c r="G13" s="236" t="s">
         <v>230</v>
       </c>
       <c r="H13" s="210" t="s">
@@ -44118,14 +44143,14 @@
       <c r="C14" s="161" t="s">
         <v>236</v>
       </c>
-      <c r="D14" s="296"/>
+      <c r="D14" s="302"/>
       <c r="E14" s="140" t="s">
         <v>230</v>
       </c>
       <c r="F14" s="142" t="s">
         <v>408</v>
       </c>
-      <c r="G14" s="330" t="s">
+      <c r="G14" s="236" t="s">
         <v>230</v>
       </c>
       <c r="H14" s="103" t="s">
@@ -44144,14 +44169,14 @@
       <c r="C15" s="161" t="s">
         <v>237</v>
       </c>
-      <c r="D15" s="296"/>
+      <c r="D15" s="302"/>
       <c r="E15" s="140" t="s">
         <v>245</v>
       </c>
       <c r="F15" s="103" t="s">
         <v>475</v>
       </c>
-      <c r="G15" s="330" t="s">
+      <c r="G15" s="236" t="s">
         <v>245</v>
       </c>
       <c r="H15" s="103" t="s">
@@ -44170,14 +44195,14 @@
       <c r="C16" s="161" t="s">
         <v>238</v>
       </c>
-      <c r="D16" s="296"/>
+      <c r="D16" s="302"/>
       <c r="E16" s="140" t="s">
         <v>232</v>
       </c>
       <c r="F16" s="142" t="s">
         <v>408</v>
       </c>
-      <c r="G16" s="330" t="s">
+      <c r="G16" s="236" t="s">
         <v>232</v>
       </c>
       <c r="H16" s="103" t="s">
@@ -44196,14 +44221,14 @@
       <c r="C17" s="161" t="s">
         <v>239</v>
       </c>
-      <c r="D17" s="296"/>
+      <c r="D17" s="302"/>
       <c r="E17" s="140" t="s">
         <v>232</v>
       </c>
       <c r="F17" s="103" t="s">
         <v>488</v>
       </c>
-      <c r="G17" s="330" t="s">
+      <c r="G17" s="236" t="s">
         <v>232</v>
       </c>
       <c r="H17" s="103" t="s">
@@ -44222,7 +44247,7 @@
       <c r="C18" s="162" t="s">
         <v>240</v>
       </c>
-      <c r="D18" s="297" t="s">
+      <c r="D18" s="303" t="s">
         <v>153</v>
       </c>
       <c r="E18" s="141" t="s">
@@ -44231,7 +44256,7 @@
       <c r="F18" s="143" t="s">
         <v>409</v>
       </c>
-      <c r="G18" s="331" t="s">
+      <c r="G18" s="237" t="s">
         <v>154</v>
       </c>
       <c r="H18" s="207" t="s">
@@ -44250,14 +44275,14 @@
       <c r="C19" s="162" t="s">
         <v>241</v>
       </c>
-      <c r="D19" s="298"/>
+      <c r="D19" s="304"/>
       <c r="E19" s="141" t="s">
         <v>230</v>
       </c>
       <c r="F19" s="143" t="s">
         <v>409</v>
       </c>
-      <c r="G19" s="331" t="s">
+      <c r="G19" s="237" t="s">
         <v>230</v>
       </c>
       <c r="H19" s="207" t="s">
@@ -44276,14 +44301,14 @@
       <c r="C20" s="162" t="s">
         <v>242</v>
       </c>
-      <c r="D20" s="298"/>
+      <c r="D20" s="304"/>
       <c r="E20" s="141" t="s">
         <v>245</v>
       </c>
       <c r="F20" s="207" t="s">
         <v>490</v>
       </c>
-      <c r="G20" s="331" t="s">
+      <c r="G20" s="237" t="s">
         <v>245</v>
       </c>
       <c r="H20" s="207" t="s">
@@ -44302,14 +44327,14 @@
       <c r="C21" s="162" t="s">
         <v>243</v>
       </c>
-      <c r="D21" s="298"/>
+      <c r="D21" s="304"/>
       <c r="E21" s="141" t="s">
         <v>232</v>
       </c>
       <c r="F21" s="207" t="s">
         <v>494</v>
       </c>
-      <c r="G21" s="331" t="s">
+      <c r="G21" s="237" t="s">
         <v>232</v>
       </c>
       <c r="H21" s="207" t="s">
@@ -44328,14 +44353,14 @@
       <c r="C22" s="162" t="s">
         <v>244</v>
       </c>
-      <c r="D22" s="299"/>
+      <c r="D22" s="305"/>
       <c r="E22" s="141" t="s">
         <v>232</v>
       </c>
       <c r="F22" s="207" t="s">
         <v>495</v>
       </c>
-      <c r="G22" s="331" t="s">
+      <c r="G22" s="237" t="s">
         <v>232</v>
       </c>
       <c r="H22" s="207" t="s">
@@ -44503,7 +44528,7 @@
       <c r="B4" s="66" t="s">
         <v>121</v>
       </c>
-      <c r="C4" s="300" t="s">
+      <c r="C4" s="306" t="s">
         <v>210</v>
       </c>
       <c r="D4" s="307"/>
@@ -44511,7 +44536,7 @@
       <c r="F4" s="307"/>
       <c r="G4" s="307"/>
       <c r="H4" s="307"/>
-      <c r="I4" s="301"/>
+      <c r="I4" s="308"/>
       <c r="J4" s="62"/>
       <c r="K4" s="62"/>
       <c r="L4" s="62"/>
@@ -44524,7 +44549,7 @@
       <c r="B5" s="66" t="s">
         <v>122</v>
       </c>
-      <c r="C5" s="300" t="s">
+      <c r="C5" s="306" t="s">
         <v>156</v>
       </c>
       <c r="D5" s="307"/>
@@ -44532,7 +44557,7 @@
       <c r="F5" s="307"/>
       <c r="G5" s="307"/>
       <c r="H5" s="307"/>
-      <c r="I5" s="301"/>
+      <c r="I5" s="308"/>
       <c r="J5" s="62"/>
       <c r="K5" s="62"/>
       <c r="L5" s="62"/>
@@ -44566,7 +44591,7 @@
       <c r="B7" s="66" t="s">
         <v>167</v>
       </c>
-      <c r="C7" s="300" t="s">
+      <c r="C7" s="306" t="s">
         <v>154</v>
       </c>
       <c r="D7" s="307"/>
@@ -44574,7 +44599,7 @@
       <c r="F7" s="307"/>
       <c r="G7" s="307"/>
       <c r="H7" s="307"/>
-      <c r="I7" s="301"/>
+      <c r="I7" s="308"/>
       <c r="J7" s="62"/>
       <c r="K7" s="62"/>
       <c r="L7" s="62"/>
@@ -44608,7 +44633,7 @@
       <c r="B9" s="66" t="s">
         <v>196</v>
       </c>
-      <c r="C9" s="300" t="s">
+      <c r="C9" s="306" t="s">
         <v>197</v>
       </c>
       <c r="D9" s="307"/>
@@ -44616,7 +44641,7 @@
       <c r="F9" s="307"/>
       <c r="G9" s="307"/>
       <c r="H9" s="307"/>
-      <c r="I9" s="301"/>
+      <c r="I9" s="308"/>
       <c r="J9" s="62"/>
       <c r="K9" s="62"/>
       <c r="L9" s="62"/>
@@ -44679,19 +44704,19 @@
     </row>
     <row r="13" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A13" s="62"/>
-      <c r="B13" s="302" t="s">
+      <c r="B13" s="309" t="s">
         <v>123</v>
       </c>
-      <c r="C13" s="303"/>
-      <c r="D13" s="303"/>
-      <c r="E13" s="303"/>
-      <c r="F13" s="303"/>
-      <c r="G13" s="303"/>
-      <c r="H13" s="303"/>
-      <c r="I13" s="303"/>
-      <c r="J13" s="303"/>
-      <c r="K13" s="303"/>
-      <c r="L13" s="304"/>
+      <c r="C13" s="310"/>
+      <c r="D13" s="310"/>
+      <c r="E13" s="310"/>
+      <c r="F13" s="310"/>
+      <c r="G13" s="310"/>
+      <c r="H13" s="310"/>
+      <c r="I13" s="310"/>
+      <c r="J13" s="310"/>
+      <c r="K13" s="310"/>
+      <c r="L13" s="311"/>
       <c r="M13" s="62"/>
       <c r="N13" s="62"/>
       <c r="O13" s="62"/>
@@ -44720,11 +44745,11 @@
       <c r="I14" s="72" t="s">
         <v>130</v>
       </c>
-      <c r="J14" s="309" t="s">
+      <c r="J14" s="315" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="309"/>
-      <c r="L14" s="309"/>
+      <c r="K14" s="315"/>
+      <c r="L14" s="315"/>
       <c r="M14" s="62"/>
       <c r="N14" s="62"/>
       <c r="O14" s="62"/>
@@ -44753,11 +44778,11 @@
       <c r="I15" s="128" t="s">
         <v>163</v>
       </c>
-      <c r="J15" s="305" t="s">
+      <c r="J15" s="312" t="s">
         <v>445</v>
       </c>
-      <c r="K15" s="306"/>
-      <c r="L15" s="306"/>
+      <c r="K15" s="313"/>
+      <c r="L15" s="313"/>
       <c r="M15" s="62"/>
       <c r="N15" s="62"/>
       <c r="O15" s="62"/>
@@ -44786,11 +44811,11 @@
       <c r="I16" s="171" t="s">
         <v>444</v>
       </c>
-      <c r="J16" s="305" t="s">
+      <c r="J16" s="312" t="s">
         <v>411</v>
       </c>
-      <c r="K16" s="306"/>
-      <c r="L16" s="306"/>
+      <c r="K16" s="313"/>
+      <c r="L16" s="313"/>
       <c r="M16" s="62"/>
       <c r="N16" s="62"/>
       <c r="O16" s="62"/>
@@ -44885,11 +44910,11 @@
       <c r="I19" s="76" t="s">
         <v>173</v>
       </c>
-      <c r="J19" s="308" t="s">
+      <c r="J19" s="314" t="s">
         <v>174</v>
       </c>
       <c r="K19" s="307"/>
-      <c r="L19" s="301"/>
+      <c r="L19" s="308"/>
       <c r="M19" s="62"/>
       <c r="N19" s="62"/>
       <c r="O19" s="62"/>
@@ -45013,9 +45038,9 @@
       <c r="I23" s="223" t="s">
         <v>178</v>
       </c>
-      <c r="J23" s="300"/>
+      <c r="J23" s="306"/>
       <c r="K23" s="307"/>
-      <c r="L23" s="301"/>
+      <c r="L23" s="308"/>
       <c r="M23" s="62"/>
       <c r="N23" s="62"/>
       <c r="O23" s="62"/>
@@ -45293,10 +45318,10 @@
       <c r="A37" s="62"/>
       <c r="B37" s="86"/>
       <c r="C37" s="96"/>
-      <c r="D37" s="300" t="s">
+      <c r="D37" s="306" t="s">
         <v>185</v>
       </c>
-      <c r="E37" s="301"/>
+      <c r="E37" s="308"/>
       <c r="F37" s="74" t="s">
         <v>140</v>
       </c>
@@ -45425,10 +45450,10 @@
       <c r="A41" s="62"/>
       <c r="B41" s="92"/>
       <c r="C41" s="93"/>
-      <c r="D41" s="308" t="s">
+      <c r="D41" s="314" t="s">
         <v>374</v>
       </c>
-      <c r="E41" s="301"/>
+      <c r="E41" s="308"/>
       <c r="F41" s="120" t="s">
         <v>421</v>
       </c>
@@ -45834,10 +45859,10 @@
       <c r="A61" s="84"/>
       <c r="B61" s="86"/>
       <c r="C61" s="96"/>
-      <c r="D61" s="308" t="s">
+      <c r="D61" s="314" t="s">
         <v>185</v>
       </c>
-      <c r="E61" s="301"/>
+      <c r="E61" s="308"/>
       <c r="F61" s="74" t="s">
         <v>140</v>
       </c>
@@ -45934,8 +45959,8 @@
       <c r="A64" s="62"/>
       <c r="B64" s="92"/>
       <c r="C64" s="93"/>
-      <c r="D64" s="300"/>
-      <c r="E64" s="301"/>
+      <c r="D64" s="306"/>
+      <c r="E64" s="308"/>
       <c r="F64" s="74"/>
       <c r="G64" s="76"/>
       <c r="H64" s="76"/>
@@ -46444,7 +46469,7 @@
       <c r="B4" s="66" t="s">
         <v>121</v>
       </c>
-      <c r="C4" s="300" t="s">
+      <c r="C4" s="306" t="s">
         <v>222</v>
       </c>
       <c r="D4" s="307"/>
@@ -46452,7 +46477,7 @@
       <c r="F4" s="307"/>
       <c r="G4" s="307"/>
       <c r="H4" s="307"/>
-      <c r="I4" s="301"/>
+      <c r="I4" s="308"/>
       <c r="J4" s="62"/>
       <c r="K4" s="62"/>
       <c r="L4" s="62"/>
@@ -46465,7 +46490,7 @@
       <c r="B5" s="66" t="s">
         <v>122</v>
       </c>
-      <c r="C5" s="300" t="s">
+      <c r="C5" s="306" t="s">
         <v>222</v>
       </c>
       <c r="D5" s="307"/>
@@ -46473,7 +46498,7 @@
       <c r="F5" s="307"/>
       <c r="G5" s="307"/>
       <c r="H5" s="307"/>
-      <c r="I5" s="301"/>
+      <c r="I5" s="308"/>
       <c r="J5" s="62"/>
       <c r="K5" s="62"/>
       <c r="L5" s="62"/>
@@ -46507,7 +46532,7 @@
       <c r="B7" s="66" t="s">
         <v>167</v>
       </c>
-      <c r="C7" s="300" t="s">
+      <c r="C7" s="306" t="s">
         <v>154</v>
       </c>
       <c r="D7" s="307"/>
@@ -46515,7 +46540,7 @@
       <c r="F7" s="307"/>
       <c r="G7" s="307"/>
       <c r="H7" s="307"/>
-      <c r="I7" s="301"/>
+      <c r="I7" s="308"/>
       <c r="J7" s="62"/>
       <c r="K7" s="62"/>
       <c r="L7" s="62"/>
@@ -46549,7 +46574,7 @@
       <c r="B9" s="66" t="s">
         <v>196</v>
       </c>
-      <c r="C9" s="300" t="s">
+      <c r="C9" s="306" t="s">
         <v>197</v>
       </c>
       <c r="D9" s="307"/>
@@ -46557,7 +46582,7 @@
       <c r="F9" s="307"/>
       <c r="G9" s="307"/>
       <c r="H9" s="307"/>
-      <c r="I9" s="301"/>
+      <c r="I9" s="308"/>
       <c r="J9" s="62"/>
       <c r="K9" s="62"/>
       <c r="L9" s="62"/>
@@ -46620,19 +46645,19 @@
     </row>
     <row r="13" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A13" s="62"/>
-      <c r="B13" s="302" t="s">
+      <c r="B13" s="309" t="s">
         <v>123</v>
       </c>
-      <c r="C13" s="303"/>
-      <c r="D13" s="303"/>
-      <c r="E13" s="303"/>
-      <c r="F13" s="303"/>
-      <c r="G13" s="303"/>
-      <c r="H13" s="303"/>
-      <c r="I13" s="303"/>
-      <c r="J13" s="303"/>
-      <c r="K13" s="303"/>
-      <c r="L13" s="304"/>
+      <c r="C13" s="310"/>
+      <c r="D13" s="310"/>
+      <c r="E13" s="310"/>
+      <c r="F13" s="310"/>
+      <c r="G13" s="310"/>
+      <c r="H13" s="310"/>
+      <c r="I13" s="310"/>
+      <c r="J13" s="310"/>
+      <c r="K13" s="310"/>
+      <c r="L13" s="311"/>
       <c r="M13" s="62"/>
       <c r="N13" s="62"/>
       <c r="O13" s="62"/>
@@ -46661,11 +46686,11 @@
       <c r="I14" s="151" t="s">
         <v>130</v>
       </c>
-      <c r="J14" s="309" t="s">
+      <c r="J14" s="315" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="309"/>
-      <c r="L14" s="309"/>
+      <c r="K14" s="315"/>
+      <c r="L14" s="315"/>
       <c r="M14" s="62"/>
       <c r="N14" s="62"/>
       <c r="O14" s="62"/>
@@ -46694,11 +46719,11 @@
       <c r="I15" s="128" t="s">
         <v>163</v>
       </c>
-      <c r="J15" s="305" t="s">
+      <c r="J15" s="312" t="s">
         <v>445</v>
       </c>
-      <c r="K15" s="306"/>
-      <c r="L15" s="306"/>
+      <c r="K15" s="313"/>
+      <c r="L15" s="313"/>
       <c r="M15" s="62"/>
       <c r="N15" s="62"/>
       <c r="O15" s="62"/>
@@ -46727,11 +46752,11 @@
       <c r="I16" s="171" t="s">
         <v>444</v>
       </c>
-      <c r="J16" s="305" t="s">
+      <c r="J16" s="312" t="s">
         <v>164</v>
       </c>
-      <c r="K16" s="306"/>
-      <c r="L16" s="306"/>
+      <c r="K16" s="313"/>
+      <c r="L16" s="313"/>
       <c r="M16" s="62"/>
       <c r="N16" s="62"/>
       <c r="O16" s="62"/>
@@ -46893,11 +46918,11 @@
     </row>
     <row r="26" spans="1:15" s="83" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A26" s="65"/>
-      <c r="B26" s="310" t="s">
+      <c r="B26" s="316" t="s">
         <v>271</v>
       </c>
-      <c r="C26" s="310"/>
-      <c r="D26" s="310"/>
+      <c r="C26" s="316"/>
+      <c r="D26" s="316"/>
       <c r="E26" s="81"/>
       <c r="F26" s="82"/>
       <c r="G26" s="81"/>
@@ -46912,12 +46937,12 @@
     </row>
     <row r="27" spans="1:15" s="85" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A27" s="84"/>
-      <c r="B27" s="311" t="s">
+      <c r="B27" s="317" t="s">
         <v>125</v>
       </c>
-      <c r="C27" s="312"/>
-      <c r="D27" s="312"/>
-      <c r="E27" s="313"/>
+      <c r="C27" s="318"/>
+      <c r="D27" s="318"/>
+      <c r="E27" s="319"/>
       <c r="F27" s="151" t="s">
         <v>124</v>
       </c>
@@ -47009,10 +47034,10 @@
       <c r="A30" s="62"/>
       <c r="B30" s="86"/>
       <c r="C30" s="96"/>
-      <c r="D30" s="300" t="s">
+      <c r="D30" s="306" t="s">
         <v>185</v>
       </c>
-      <c r="E30" s="301"/>
+      <c r="E30" s="308"/>
       <c r="F30" s="74" t="s">
         <v>140</v>
       </c>
@@ -47042,10 +47067,10 @@
       <c r="A31" s="62"/>
       <c r="B31" s="86"/>
       <c r="C31" s="91"/>
-      <c r="D31" s="308" t="s">
+      <c r="D31" s="314" t="s">
         <v>186</v>
       </c>
-      <c r="E31" s="301"/>
+      <c r="E31" s="308"/>
       <c r="F31" s="120" t="s">
         <v>187</v>
       </c>
@@ -47141,10 +47166,10 @@
       <c r="A34" s="62"/>
       <c r="B34" s="92"/>
       <c r="C34" s="93"/>
-      <c r="D34" s="308" t="s">
+      <c r="D34" s="314" t="s">
         <v>374</v>
       </c>
-      <c r="E34" s="301"/>
+      <c r="E34" s="308"/>
       <c r="F34" s="120" t="s">
         <v>421</v>
       </c>
@@ -47446,11 +47471,11 @@
     </row>
     <row r="51" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A51" s="62"/>
-      <c r="B51" s="314" t="s">
+      <c r="B51" s="320" t="s">
         <v>272</v>
       </c>
-      <c r="C51" s="314"/>
-      <c r="D51" s="314"/>
+      <c r="C51" s="320"/>
+      <c r="D51" s="320"/>
       <c r="E51" s="62"/>
       <c r="F51" s="62"/>
       <c r="G51" s="62"/>
@@ -47562,10 +47587,10 @@
       <c r="A55" s="62"/>
       <c r="B55" s="86"/>
       <c r="C55" s="96"/>
-      <c r="D55" s="308" t="s">
+      <c r="D55" s="314" t="s">
         <v>185</v>
       </c>
-      <c r="E55" s="301"/>
+      <c r="E55" s="308"/>
       <c r="F55" s="74" t="s">
         <v>140</v>
       </c>
@@ -47659,8 +47684,8 @@
       <c r="A58" s="62"/>
       <c r="B58" s="92"/>
       <c r="C58" s="93"/>
-      <c r="D58" s="300"/>
-      <c r="E58" s="301"/>
+      <c r="D58" s="306"/>
+      <c r="E58" s="308"/>
       <c r="F58" s="74"/>
       <c r="G58" s="76"/>
       <c r="H58" s="76"/>
@@ -48147,7 +48172,7 @@
       <c r="B4" s="66" t="s">
         <v>121</v>
       </c>
-      <c r="C4" s="300" t="s">
+      <c r="C4" s="306" t="s">
         <v>223</v>
       </c>
       <c r="D4" s="307"/>
@@ -48155,7 +48180,7 @@
       <c r="F4" s="307"/>
       <c r="G4" s="307"/>
       <c r="H4" s="307"/>
-      <c r="I4" s="301"/>
+      <c r="I4" s="308"/>
       <c r="J4" s="62"/>
       <c r="K4" s="62"/>
       <c r="L4" s="62"/>
@@ -48168,7 +48193,7 @@
       <c r="B5" s="66" t="s">
         <v>122</v>
       </c>
-      <c r="C5" s="300" t="s">
+      <c r="C5" s="306" t="s">
         <v>223</v>
       </c>
       <c r="D5" s="307"/>
@@ -48176,7 +48201,7 @@
       <c r="F5" s="307"/>
       <c r="G5" s="307"/>
       <c r="H5" s="307"/>
-      <c r="I5" s="301"/>
+      <c r="I5" s="308"/>
       <c r="J5" s="62"/>
       <c r="K5" s="62"/>
       <c r="L5" s="62"/>
@@ -48210,7 +48235,7 @@
       <c r="B7" s="66" t="s">
         <v>167</v>
       </c>
-      <c r="C7" s="300" t="s">
+      <c r="C7" s="306" t="s">
         <v>154</v>
       </c>
       <c r="D7" s="307"/>
@@ -48218,7 +48243,7 @@
       <c r="F7" s="307"/>
       <c r="G7" s="307"/>
       <c r="H7" s="307"/>
-      <c r="I7" s="301"/>
+      <c r="I7" s="308"/>
       <c r="J7" s="62"/>
       <c r="K7" s="62"/>
       <c r="L7" s="62"/>
@@ -48252,7 +48277,7 @@
       <c r="B9" s="66" t="s">
         <v>196</v>
       </c>
-      <c r="C9" s="300" t="s">
+      <c r="C9" s="306" t="s">
         <v>197</v>
       </c>
       <c r="D9" s="307"/>
@@ -48260,7 +48285,7 @@
       <c r="F9" s="307"/>
       <c r="G9" s="307"/>
       <c r="H9" s="307"/>
-      <c r="I9" s="301"/>
+      <c r="I9" s="308"/>
       <c r="J9" s="62"/>
       <c r="K9" s="62"/>
       <c r="L9" s="62"/>
@@ -48323,19 +48348,19 @@
     </row>
     <row r="13" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A13" s="62"/>
-      <c r="B13" s="302" t="s">
+      <c r="B13" s="309" t="s">
         <v>123</v>
       </c>
-      <c r="C13" s="303"/>
-      <c r="D13" s="303"/>
-      <c r="E13" s="303"/>
-      <c r="F13" s="303"/>
-      <c r="G13" s="303"/>
-      <c r="H13" s="303"/>
-      <c r="I13" s="303"/>
-      <c r="J13" s="303"/>
-      <c r="K13" s="303"/>
-      <c r="L13" s="304"/>
+      <c r="C13" s="310"/>
+      <c r="D13" s="310"/>
+      <c r="E13" s="310"/>
+      <c r="F13" s="310"/>
+      <c r="G13" s="310"/>
+      <c r="H13" s="310"/>
+      <c r="I13" s="310"/>
+      <c r="J13" s="310"/>
+      <c r="K13" s="310"/>
+      <c r="L13" s="311"/>
       <c r="M13" s="62"/>
       <c r="N13" s="62"/>
       <c r="O13" s="62"/>
@@ -48364,11 +48389,11 @@
       <c r="I14" s="151" t="s">
         <v>130</v>
       </c>
-      <c r="J14" s="309" t="s">
+      <c r="J14" s="315" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="309"/>
-      <c r="L14" s="309"/>
+      <c r="K14" s="315"/>
+      <c r="L14" s="315"/>
       <c r="M14" s="62"/>
       <c r="N14" s="62"/>
       <c r="O14" s="62"/>
@@ -48397,11 +48422,11 @@
       <c r="I15" s="171" t="s">
         <v>447</v>
       </c>
-      <c r="J15" s="305" t="s">
+      <c r="J15" s="312" t="s">
         <v>376</v>
       </c>
-      <c r="K15" s="306"/>
-      <c r="L15" s="306"/>
+      <c r="K15" s="313"/>
+      <c r="L15" s="313"/>
       <c r="M15" s="62"/>
       <c r="N15" s="62"/>
       <c r="O15" s="62"/>
@@ -48546,11 +48571,11 @@
     </row>
     <row r="24" spans="1:15" s="83" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A24" s="65"/>
-      <c r="B24" s="310" t="s">
+      <c r="B24" s="316" t="s">
         <v>276</v>
       </c>
-      <c r="C24" s="310"/>
-      <c r="D24" s="310"/>
+      <c r="C24" s="316"/>
+      <c r="D24" s="316"/>
       <c r="E24" s="81"/>
       <c r="F24" s="82"/>
       <c r="G24" s="81"/>
@@ -48565,12 +48590,12 @@
     </row>
     <row r="25" spans="1:15" s="85" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A25" s="84"/>
-      <c r="B25" s="311" t="s">
+      <c r="B25" s="317" t="s">
         <v>125</v>
       </c>
-      <c r="C25" s="312"/>
-      <c r="D25" s="312"/>
-      <c r="E25" s="313"/>
+      <c r="C25" s="318"/>
+      <c r="D25" s="318"/>
+      <c r="E25" s="319"/>
       <c r="F25" s="151" t="s">
         <v>124</v>
       </c>
@@ -48662,10 +48687,10 @@
       <c r="A28" s="62"/>
       <c r="B28" s="86"/>
       <c r="C28" s="96"/>
-      <c r="D28" s="300" t="s">
+      <c r="D28" s="306" t="s">
         <v>185</v>
       </c>
-      <c r="E28" s="301"/>
+      <c r="E28" s="308"/>
       <c r="F28" s="74" t="s">
         <v>140</v>
       </c>
@@ -48695,10 +48720,10 @@
       <c r="A29" s="62"/>
       <c r="B29" s="86"/>
       <c r="C29" s="91"/>
-      <c r="D29" s="308" t="s">
+      <c r="D29" s="314" t="s">
         <v>186</v>
       </c>
-      <c r="E29" s="301"/>
+      <c r="E29" s="308"/>
       <c r="F29" s="120" t="s">
         <v>187</v>
       </c>
@@ -48761,8 +48786,8 @@
       <c r="A31" s="62"/>
       <c r="B31" s="92"/>
       <c r="C31" s="93"/>
-      <c r="D31" s="300"/>
-      <c r="E31" s="301"/>
+      <c r="D31" s="306"/>
+      <c r="E31" s="308"/>
       <c r="F31" s="74"/>
       <c r="G31" s="76"/>
       <c r="H31" s="76"/>
@@ -49169,18 +49194,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="J15:L15"/>
+    <mergeCell ref="D28:E28"/>
     <mergeCell ref="J14:L14"/>
     <mergeCell ref="C4:I4"/>
     <mergeCell ref="C5:I5"/>
     <mergeCell ref="C7:I7"/>
     <mergeCell ref="C9:I9"/>
     <mergeCell ref="B13:L13"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="J15:L15"/>
-    <mergeCell ref="D28:E28"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="I15" r:id="rId1" display="foo@mulodo.com"/>
@@ -49278,7 +49303,7 @@
       <c r="B4" s="66" t="s">
         <v>121</v>
       </c>
-      <c r="C4" s="300" t="s">
+      <c r="C4" s="306" t="s">
         <v>226</v>
       </c>
       <c r="D4" s="307"/>
@@ -49286,7 +49311,7 @@
       <c r="F4" s="307"/>
       <c r="G4" s="307"/>
       <c r="H4" s="307"/>
-      <c r="I4" s="301"/>
+      <c r="I4" s="308"/>
       <c r="J4" s="62"/>
       <c r="K4" s="62"/>
       <c r="L4" s="62"/>
@@ -49299,7 +49324,7 @@
       <c r="B5" s="66" t="s">
         <v>122</v>
       </c>
-      <c r="C5" s="300" t="s">
+      <c r="C5" s="306" t="s">
         <v>226</v>
       </c>
       <c r="D5" s="307"/>
@@ -49307,7 +49332,7 @@
       <c r="F5" s="307"/>
       <c r="G5" s="307"/>
       <c r="H5" s="307"/>
-      <c r="I5" s="301"/>
+      <c r="I5" s="308"/>
       <c r="J5" s="62"/>
       <c r="K5" s="62"/>
       <c r="L5" s="62"/>
@@ -49341,7 +49366,7 @@
       <c r="B7" s="66" t="s">
         <v>167</v>
       </c>
-      <c r="C7" s="300" t="s">
+      <c r="C7" s="306" t="s">
         <v>230</v>
       </c>
       <c r="D7" s="307"/>
@@ -49349,7 +49374,7 @@
       <c r="F7" s="307"/>
       <c r="G7" s="307"/>
       <c r="H7" s="307"/>
-      <c r="I7" s="301"/>
+      <c r="I7" s="308"/>
       <c r="J7" s="62"/>
       <c r="K7" s="62"/>
       <c r="L7" s="62"/>
@@ -49383,7 +49408,7 @@
       <c r="B9" s="66" t="s">
         <v>196</v>
       </c>
-      <c r="C9" s="300" t="s">
+      <c r="C9" s="306" t="s">
         <v>197</v>
       </c>
       <c r="D9" s="307"/>
@@ -49391,7 +49416,7 @@
       <c r="F9" s="307"/>
       <c r="G9" s="307"/>
       <c r="H9" s="307"/>
-      <c r="I9" s="301"/>
+      <c r="I9" s="308"/>
       <c r="J9" s="62"/>
       <c r="K9" s="62"/>
       <c r="L9" s="62"/>
@@ -49454,19 +49479,19 @@
     </row>
     <row r="13" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A13" s="62"/>
-      <c r="B13" s="302" t="s">
+      <c r="B13" s="309" t="s">
         <v>123</v>
       </c>
-      <c r="C13" s="303"/>
-      <c r="D13" s="303"/>
-      <c r="E13" s="303"/>
-      <c r="F13" s="303"/>
-      <c r="G13" s="303"/>
-      <c r="H13" s="303"/>
-      <c r="I13" s="303"/>
-      <c r="J13" s="303"/>
-      <c r="K13" s="303"/>
-      <c r="L13" s="304"/>
+      <c r="C13" s="310"/>
+      <c r="D13" s="310"/>
+      <c r="E13" s="310"/>
+      <c r="F13" s="310"/>
+      <c r="G13" s="310"/>
+      <c r="H13" s="310"/>
+      <c r="I13" s="310"/>
+      <c r="J13" s="310"/>
+      <c r="K13" s="310"/>
+      <c r="L13" s="311"/>
       <c r="M13" s="62"/>
       <c r="N13" s="62"/>
       <c r="O13" s="62"/>
@@ -49495,11 +49520,11 @@
       <c r="I14" s="151" t="s">
         <v>130</v>
       </c>
-      <c r="J14" s="309" t="s">
+      <c r="J14" s="315" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="309"/>
-      <c r="L14" s="309"/>
+      <c r="K14" s="315"/>
+      <c r="L14" s="315"/>
       <c r="M14" s="62"/>
       <c r="N14" s="62"/>
       <c r="O14" s="62"/>
@@ -49623,11 +49648,11 @@
       <c r="I18" s="76" t="s">
         <v>173</v>
       </c>
-      <c r="J18" s="308" t="s">
+      <c r="J18" s="314" t="s">
         <v>174</v>
       </c>
       <c r="K18" s="307"/>
-      <c r="L18" s="301"/>
+      <c r="L18" s="308"/>
       <c r="M18" s="62"/>
       <c r="N18" s="62"/>
       <c r="O18" s="62"/>
@@ -49753,11 +49778,11 @@
       <c r="I22" s="223" t="s">
         <v>178</v>
       </c>
-      <c r="J22" s="300" t="s">
+      <c r="J22" s="306" t="s">
         <v>179</v>
       </c>
       <c r="K22" s="307"/>
-      <c r="L22" s="301"/>
+      <c r="L22" s="308"/>
       <c r="M22" s="62"/>
       <c r="N22" s="62"/>
       <c r="O22" s="62"/>
@@ -50052,10 +50077,10 @@
       <c r="A37" s="62"/>
       <c r="B37" s="86"/>
       <c r="C37" s="96"/>
-      <c r="D37" s="300" t="s">
+      <c r="D37" s="306" t="s">
         <v>185</v>
       </c>
-      <c r="E37" s="301"/>
+      <c r="E37" s="308"/>
       <c r="F37" s="74" t="s">
         <v>140</v>
       </c>
@@ -50085,10 +50110,10 @@
       <c r="A38" s="62"/>
       <c r="B38" s="86"/>
       <c r="C38" s="91"/>
-      <c r="D38" s="308" t="s">
+      <c r="D38" s="314" t="s">
         <v>186</v>
       </c>
-      <c r="E38" s="301"/>
+      <c r="E38" s="308"/>
       <c r="F38" s="120" t="s">
         <v>187</v>
       </c>
@@ -50151,8 +50176,8 @@
       <c r="A40" s="62"/>
       <c r="B40" s="92"/>
       <c r="C40" s="93"/>
-      <c r="D40" s="300"/>
-      <c r="E40" s="301"/>
+      <c r="D40" s="306"/>
+      <c r="E40" s="308"/>
       <c r="F40" s="74"/>
       <c r="G40" s="76"/>
       <c r="H40" s="76"/>
@@ -50558,10 +50583,10 @@
       <c r="A61" s="62"/>
       <c r="B61" s="86"/>
       <c r="C61" s="96"/>
-      <c r="D61" s="308" t="s">
+      <c r="D61" s="314" t="s">
         <v>185</v>
       </c>
-      <c r="E61" s="301"/>
+      <c r="E61" s="308"/>
       <c r="F61" s="74" t="s">
         <v>140</v>
       </c>
@@ -50655,8 +50680,8 @@
       <c r="A64" s="62"/>
       <c r="B64" s="92"/>
       <c r="C64" s="93"/>
-      <c r="D64" s="300"/>
-      <c r="E64" s="301"/>
+      <c r="D64" s="306"/>
+      <c r="E64" s="308"/>
       <c r="F64" s="74"/>
       <c r="G64" s="76"/>
       <c r="H64" s="76"/>
